--- a/training.xlsx
+++ b/training.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.統計業務\年度統計工作\統計考核\115年\創新變革\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pwb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA46AABC-CA02-4ABF-8827-45E8E1375A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A8E5F3-5D82-4E96-9418-1CA9CE0F5BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0227A041-4F4A-498D-AABE-4E76C6164C9C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="47">
   <si>
     <t>category</t>
   </si>
@@ -149,10 +149,6 @@
   </si>
   <si>
     <t>統計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>會計</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -318,6 +314,14 @@
   </si>
   <si>
     <t>經資門合計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>決算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -751,8 +755,8 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -794,7 +798,7 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3">
         <v>524</v>
@@ -814,7 +818,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="3">
         <v>191</v>
@@ -834,7 +838,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3">
         <v>6</v>
@@ -854,7 +858,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="3">
         <v>143</v>
@@ -874,7 +878,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="3">
         <v>39</v>
@@ -894,7 +898,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="3">
         <v>131</v>
@@ -914,7 +918,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -934,7 +938,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="3">
         <v>94</v>
@@ -954,7 +958,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="3">
         <v>34</v>
@@ -974,7 +978,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3">
         <v>82</v>
@@ -994,7 +998,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
@@ -1014,7 +1018,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3">
         <v>49</v>
@@ -1034,7 +1038,7 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3">
         <v>30</v>
@@ -1054,7 +1058,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="3">
         <v>94</v>
@@ -1074,7 +1078,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
@@ -1094,7 +1098,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="3">
         <v>61</v>
@@ -1114,7 +1118,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="3">
         <v>30</v>
@@ -1134,7 +1138,7 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="3">
         <v>30</v>
@@ -1154,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1174,7 +1178,7 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="3">
         <v>15</v>
@@ -1194,7 +1198,7 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="3">
         <v>15</v>
@@ -1205,7 +1209,7 @@
     </row>
     <row r="23" spans="1:6" ht="33">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>113</v>
@@ -1214,18 +1218,18 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="3">
         <v>8194228</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="33">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B24">
         <v>113</v>
@@ -1240,12 +1244,12 @@
         <v>1676504</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="33">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B25">
         <v>113</v>
@@ -1254,23 +1258,74 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" s="3">
         <v>4774582</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="E28" s="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="33">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="3">
+        <v>7783220</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="33">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1952014</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="33">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28">
+        <v>113</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5831206</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="E29" s="3"/>

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pwb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDDB3C11-5525-4C5B-8F3E-62BB1710E369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0241EFCD-93B6-4BFF-94D1-3F35686F864A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,258 +20,273 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="87">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>統計</t>
+  </si>
+  <si>
+    <t>預算</t>
+  </si>
+  <si>
+    <t>決算</t>
+  </si>
+  <si>
+    <t>工務局</t>
+  </si>
+  <si>
+    <t>新建工程處</t>
+  </si>
+  <si>
+    <t>道路養護工程處</t>
+  </si>
+  <si>
+    <t>公園處</t>
+  </si>
+  <si>
+    <t>違章建築處理大隊</t>
+  </si>
+  <si>
+    <t>工務局主管</t>
+  </si>
+  <si>
+    <t>職員總數</t>
+  </si>
+  <si>
+    <t>簡任人數</t>
+  </si>
+  <si>
+    <t>薦任人數</t>
+  </si>
+  <si>
+    <t>委任人數</t>
+  </si>
+  <si>
+    <t>經資門合計</t>
+  </si>
+  <si>
+    <t>經常門</t>
+  </si>
+  <si>
+    <t>資本門</t>
+  </si>
+  <si>
+    <t>113年工務局暨所屬職員總計524人，其中男生332人、女生192人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局職員總計191人，其中男生118人、女生70人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局職員簡任6人，其中男生5人、女生1人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局職員薦任143人，其中男生94人、女生49人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局職員委任39人，其中男生19人、女生20人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年新建工程處職員總計131人，其中男生80人、女生51人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年新建工程處職員簡任3人，其中男生3人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年新建工程處職員薦任94人，其中男生59人、女生35人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年新建工程處職員委任34人，其中男生18人、女生16人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員總計82人，其中男生53人、女生29人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員簡任3人，其中男生3人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員薦任49人，其中男生34人、女生15人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員委任30人，其中男生16人、女生14人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年公園處職員總計94人，其中男生59人、女生35人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年公園處職員簡任3人，其中男生3人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年公園處職員薦任61人，其中男生41人、女生20人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年公園處職員委任30人，其中男生15人、女生15人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員總計30人，其中男生23人、女生7人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員簡任0人，其中男生0人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員薦任15人，其中男生13人、女生2人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員委任15人，其中男生10人、女生5人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局主管預算數合計8,194,228千元，執行數5,786,539千元，執行率89.70%。來源:113年工務統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局主管經常門預算數2,023,521千元，執行數1,952,014千元，執行率96.47%。來源:113年工務統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局主管資本門預算數6,170,707千元，執行數5,831,206千元，執行率94.50%。來源:113年工務統計年報。</t>
+  </si>
+  <si>
+    <t>112年工務局主管預算數合計11176272千元，執行數9724004千元，執行率87.01%。來源112年工務統計年報。</t>
+  </si>
+  <si>
+    <t>112年工務局主管經常門預算數合計1869536千元，執行數1865531千元，執行率99.79%。來源112年工務統計年報。</t>
+  </si>
+  <si>
+    <t>112年工務局主管資本門預算數合計9306736千元，執行數9306736千元，執行率84.44%。來源112年工務統計年報。</t>
+  </si>
+  <si>
+    <t>工務局暨所屬,工務局,工務局本部,工務局與所屬機關,工務局加所屬,整體工務局,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局,工務局本部,本局,局本部,工務局(本部),職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局,工務局本部,本局,局本部,工務局(本部),簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局,工務局本部,本局,局本部,工務局(本部),薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局,工務局本部,本局,局本部,工務局(本部),委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>公園處,公園管理處,公園科,公園局,公園單位,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>公園處,公園管理處,公園科,公園局,公園單位,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>公園處,公園管理處,公園科,公園局,公園單位,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>公園處,公園管理處,公園科,公園局,公園單位,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,預算,預算數,核定數,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,預算,預算數,核定數,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,預算,預算數,核定數,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,預算,預算數,核定數,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,預算,預算數,核定數,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,預算,預算數,核定數,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
+  </si>
   <si>
     <t>category</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>統計</t>
-  </si>
-  <si>
-    <t>預算</t>
-  </si>
-  <si>
-    <t>決算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工務局主管</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>工務局暨所屬</t>
-  </si>
-  <si>
-    <t>工務局</t>
-  </si>
-  <si>
-    <t>新建工程處</t>
-  </si>
-  <si>
-    <t>道路養護工程處</t>
-  </si>
-  <si>
-    <t>公園處</t>
-  </si>
-  <si>
-    <t>違章建築處理大隊</t>
-  </si>
-  <si>
-    <t>工務局主管</t>
-  </si>
-  <si>
-    <t>職員總數</t>
-  </si>
-  <si>
-    <t>簡任人數</t>
-  </si>
-  <si>
-    <t>薦任人數</t>
-  </si>
-  <si>
-    <t>委任人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>職員人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>經資門合計</t>
-  </si>
-  <si>
-    <t>經常門</t>
-  </si>
-  <si>
-    <t>資本門</t>
-  </si>
-  <si>
-    <t>113年工務局暨所屬職員總計524人，其中男生332人、女生192人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局職員總計191人，其中男生118人、女生70人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局職員簡任6人，其中男生5人、女生1人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局職員薦任143人，其中男生94人、女生49人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局職員委任39人，其中男生19人、女生20人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年新建工程處職員總計131人，其中男生80人、女生51人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年新建工程處職員簡任3人，其中男生3人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年新建工程處職員薦任94人，其中男生59人、女生35人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年新建工程處職員委任34人，其中男生18人、女生16人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員總計82人，其中男生53人、女生29人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員簡任3人，其中男生3人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員薦任49人，其中男生34人、女生15人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員委任30人，其中男生16人、女生14人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年公園處職員總計94人，其中男生59人、女生35人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年公園處職員簡任3人，其中男生3人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年公園處職員薦任61人，其中男生41人、女生20人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年公園處職員委任30人，其中男生15人、女生15人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員總計30人，其中男生23人、女生7人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員簡任0人，其中男生0人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員薦任15人，其中男生13人、女生2人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員委任15人，其中男生10人、女生5人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局主管預算數合計8,194,228千元，執行數5,786,539千元，執行率89.70%。來源:113年工務統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局主管經常門預算數2,023,521千元，執行數1,952,014千元，執行率96.47%。來源:113年工務統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局主管資本門預算數6,170,707千元，執行數5,831,206千元，執行率94.50%。來源:113年工務統計年報。</t>
-  </si>
-  <si>
-    <t>112年工務局主管預算數合計11176272千元，執行數9724004千元，執行率87.01%。來源112年工務統計年報。</t>
-  </si>
-  <si>
-    <t>112年工務局主管經常門預算數合計1869536千元，執行數1865531千元，執行率99.79%。來源112年工務統計年報。</t>
-  </si>
-  <si>
-    <t>112年工務局主管資本門預算數合計9306736千元，執行數9306736千元，執行率84.44%。來源112年工務統計年報。</t>
-  </si>
-  <si>
-    <t>工務局暨所屬,工務局,工務局本部,工務局與所屬機關,工務局加所屬,整體工務局,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局,工務局本部,本局,局本部,工務局(本部),職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局,工務局本部,本局,局本部,工務局(本部),簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局,工務局本部,本局,局本部,工務局(本部),薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局,工務局本部,本局,局本部,工務局(本部),委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>公園處,公園管理處,公園科,公園局,公園單位,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>公園處,公園管理處,公園科,公園局,公園單位,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>公園處,公園管理處,公園科,公園局,公園單位,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>公園處,公園管理處,公園科,公園局,公園單位,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,預算,預算數,核定數,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,預算,預算數,核定數,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,預算,預算數,核定數,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,預算,預算數,核定數,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,預算,預算數,核定數,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,預算,預算數,核定數,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -654,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -671,784 +686,784 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>524</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="E3">
         <v>191</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>143</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>131</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>94</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>113</v>
       </c>
       <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
         <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
       </c>
       <c r="E15">
         <v>94</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B16">
         <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17">
         <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B20">
         <v>113</v>
       </c>
       <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
         <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B21">
         <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>8194228</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>1676504</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>113</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>4774582</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B26">
         <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>7783220</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B27">
         <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E27">
         <v>1952014</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B28">
         <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E28">
         <v>5831206</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B29">
         <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="E29">
         <v>11176272.18</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B30">
         <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E30">
         <v>1869536.4550000001</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B31">
         <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>9306735.7249999996</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B32">
         <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>9724003.8690000009</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B33">
         <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E33">
         <v>1865531.2549999999</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B34">
         <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>7858472.6140000001</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pwb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0241EFCD-93B6-4BFF-94D1-3F35686F864A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445233DB-9D96-40F6-A732-CEAE1F3475FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="88">
   <si>
     <t>year</t>
   </si>
@@ -61,9 +61,6 @@
     <t>違章建築處理大隊</t>
   </si>
   <si>
-    <t>工務局主管</t>
-  </si>
-  <si>
     <t>職員總數</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
   </si>
   <si>
     <t>委任人數</t>
-  </si>
-  <si>
-    <t>經資門合計</t>
   </si>
   <si>
     <t>經常門</t>
@@ -285,7 +279,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>經資門合計</t>
+    <t>預算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工務局主管預算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工務局主管決算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>決算數</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -669,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -686,7 +692,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -701,7 +707,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -715,19 +721,19 @@
         <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E2">
         <v>524</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -741,16 +747,16 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E3">
         <v>191</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -764,16 +770,16 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -787,16 +793,16 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>143</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -810,16 +816,16 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="63" x14ac:dyDescent="0.25">
@@ -833,16 +839,16 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>131</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -856,16 +862,16 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -879,16 +885,16 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>94</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -902,16 +908,16 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="63" x14ac:dyDescent="0.25">
@@ -925,16 +931,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -948,16 +954,16 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -971,16 +977,16 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -994,16 +1000,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -1017,16 +1023,16 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>94</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -1040,16 +1046,16 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -1063,16 +1069,16 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -1086,16 +1092,16 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="63" x14ac:dyDescent="0.25">
@@ -1109,16 +1115,16 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="63" x14ac:dyDescent="0.25">
@@ -1132,16 +1138,16 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -1155,16 +1161,16 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -1178,16 +1184,16 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -1198,19 +1204,19 @@
         <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="E23">
         <v>8194228</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -1221,19 +1227,19 @@
         <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>1676504</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -1244,19 +1250,19 @@
         <v>113</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>4774582</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -1267,19 +1273,19 @@
         <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="E26">
         <v>7783220</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -1290,19 +1296,19 @@
         <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>1952014</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -1313,19 +1319,19 @@
         <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>5831206</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -1336,19 +1342,19 @@
         <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E29">
         <v>11176272.18</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -1359,19 +1365,19 @@
         <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>1869536.4550000001</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -1382,19 +1388,19 @@
         <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E31">
         <v>9306735.7249999996</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -1405,19 +1411,19 @@
         <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="E32">
         <v>9724003.8690000009</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -1428,19 +1434,19 @@
         <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>1865531.2549999999</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -1451,19 +1457,19 @@
         <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>7858472.6140000001</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pwb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445233DB-9D96-40F6-A732-CEAE1F3475FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F442F1A8-11DF-4982-B80B-C350DDBCAB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="85">
+  <si>
+    <t>category</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -34,264 +37,244 @@
     <t>value</t>
   </si>
   <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>統計</t>
+  </si>
+  <si>
+    <t>預算</t>
+  </si>
+  <si>
+    <t>決算</t>
+  </si>
+  <si>
+    <t>工務局暨所屬</t>
+  </si>
+  <si>
+    <t>工務局</t>
+  </si>
+  <si>
+    <t>新建工程處</t>
+  </si>
+  <si>
+    <t>道路養護工程處</t>
+  </si>
+  <si>
+    <t>公園處</t>
+  </si>
+  <si>
+    <t>違章建築處理大隊</t>
+  </si>
+  <si>
+    <t>工務局主管</t>
+  </si>
+  <si>
+    <t>職員人數</t>
+  </si>
+  <si>
+    <t>簡任人數</t>
+  </si>
+  <si>
+    <t>薦任人數</t>
+  </si>
+  <si>
+    <t>委任人數</t>
+  </si>
+  <si>
+    <t>職員總數</t>
+  </si>
+  <si>
+    <t>經資門合計</t>
+  </si>
+  <si>
+    <t>經常門</t>
+  </si>
+  <si>
+    <t>資本門</t>
+  </si>
+  <si>
+    <t>113年工務局暨所屬職員總計524人，其中男生332人、女生192人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局職員總計191人，其中男生118人、女生70人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局職員簡任6人，其中男生5人、女生1人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局職員薦任143人，其中男生94人、女生49人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局職員委任39人，其中男生19人、女生20人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年新建工程處職員總計131人，其中男生80人、女生51人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年新建工程處職員簡任3人，其中男生3人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年新建工程處職員薦任94人，其中男生59人、女生35人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年新建工程處職員委任34人，其中男生18人、女生16人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員總計82人，其中男生53人、女生29人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員簡任3人，其中男生3人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員薦任49人，其中男生34人、女生15人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員委任30人，其中男生16人、女生14人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年公園處職員總計94人，其中男生59人、女生35人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年公園處職員簡任3人，其中男生3人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年公園處職員薦任61人，其中男生41人、女生20人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年公園處職員委任30人，其中男生15人、女生15人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員總計30人，其中男生23人、女生7人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員簡任0人，其中男生0人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員薦任15人，其中男生13人、女生2人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員委任15人，其中男生10人、女生5人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局主管預算數合計8,194,228千元，執行數5,786,539千元，執行率89.70%。來源:113年工務統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局主管經常門預算數2,023,521千元，執行數1,952,014千元，執行率96.47%。來源:113年工務統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局主管資本門預算數6,170,707千元，執行數5,831,206千元，執行率94.50%。來源:113年工務統計年報。</t>
+  </si>
+  <si>
+    <t>112年工務局主管預算數合計11176272千元，執行數9724004千元，執行率87.01%。來源112年工務統計年報。</t>
+  </si>
+  <si>
+    <t>112年工務局主管經常門預算數合計1869536千元，執行數1865531千元，執行率99.79%。來源112年工務統計年報。</t>
+  </si>
+  <si>
+    <t>112年工務局主管資本門預算數合計9306736千元，執行數9306736千元，執行率84.44%。來源112年工務統計年報。</t>
+  </si>
+  <si>
+    <t>工務局暨所屬,工務局,工務局本部,工務局與所屬機關,工務局加所屬,整體工務局,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局,工務局本部,本局,局本部,工務局(本部),職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局,工務局本部,本局,局本部,工務局(本部),簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局,工務局本部,本局,局本部,工務局(本部),薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局,工務局本部,本局,局本部,工務局(本部),委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>公園處,公園管理處,公園科,公園局,公園單位,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>公園處,公園管理處,公園科,公園局,公園單位,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>公園處,公園管理處,公園科,公園局,公園單位,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>公園處,公園管理處,公園科,公園局,公園單位,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,預算,預算數,核定數,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,預算,預算數,核定數,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,預算,預算數,核定數,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,預算,預算數,核定數,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,預算,預算數,核定數,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,預算,預算數,核定數,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
+  </si>
+  <si>
     <t>keywords</t>
-  </si>
-  <si>
-    <t>統計</t>
-  </si>
-  <si>
-    <t>預算</t>
-  </si>
-  <si>
-    <t>決算</t>
-  </si>
-  <si>
-    <t>工務局</t>
-  </si>
-  <si>
-    <t>新建工程處</t>
-  </si>
-  <si>
-    <t>道路養護工程處</t>
-  </si>
-  <si>
-    <t>公園處</t>
-  </si>
-  <si>
-    <t>違章建築處理大隊</t>
-  </si>
-  <si>
-    <t>職員總數</t>
-  </si>
-  <si>
-    <t>簡任人數</t>
-  </si>
-  <si>
-    <t>薦任人數</t>
-  </si>
-  <si>
-    <t>委任人數</t>
-  </si>
-  <si>
-    <t>經常門</t>
-  </si>
-  <si>
-    <t>資本門</t>
-  </si>
-  <si>
-    <t>113年工務局暨所屬職員總計524人，其中男生332人、女生192人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局職員總計191人，其中男生118人、女生70人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局職員簡任6人，其中男生5人、女生1人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局職員薦任143人，其中男生94人、女生49人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局職員委任39人，其中男生19人、女生20人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年新建工程處職員總計131人，其中男生80人、女生51人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年新建工程處職員簡任3人，其中男生3人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年新建工程處職員薦任94人，其中男生59人、女生35人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年新建工程處職員委任34人，其中男生18人、女生16人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員總計82人，其中男生53人、女生29人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員簡任3人，其中男生3人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員薦任49人，其中男生34人、女生15人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員委任30人，其中男生16人、女生14人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年公園處職員總計94人，其中男生59人、女生35人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年公園處職員簡任3人，其中男生3人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年公園處職員薦任61人，其中男生41人、女生20人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年公園處職員委任30人，其中男生15人、女生15人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員總計30人，其中男生23人、女生7人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員簡任0人，其中男生0人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員薦任15人，其中男生13人、女生2人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員委任15人，其中男生10人、女生5人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局主管預算數合計8,194,228千元，執行數5,786,539千元，執行率89.70%。來源:113年工務統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局主管經常門預算數2,023,521千元，執行數1,952,014千元，執行率96.47%。來源:113年工務統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局主管資本門預算數6,170,707千元，執行數5,831,206千元，執行率94.50%。來源:113年工務統計年報。</t>
-  </si>
-  <si>
-    <t>112年工務局主管預算數合計11176272千元，執行數9724004千元，執行率87.01%。來源112年工務統計年報。</t>
-  </si>
-  <si>
-    <t>112年工務局主管經常門預算數合計1869536千元，執行數1865531千元，執行率99.79%。來源112年工務統計年報。</t>
-  </si>
-  <si>
-    <t>112年工務局主管資本門預算數合計9306736千元，執行數9306736千元，執行率84.44%。來源112年工務統計年報。</t>
-  </si>
-  <si>
-    <t>工務局暨所屬,工務局,工務局本部,工務局與所屬機關,工務局加所屬,整體工務局,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局,工務局本部,本局,局本部,工務局(本部),職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局,工務局本部,本局,局本部,工務局(本部),簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局,工務局本部,本局,局本部,工務局(本部),薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局,工務局本部,本局,局本部,工務局(本部),委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>公園處,公園管理處,公園科,公園局,公園單位,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>公園處,公園管理處,公園科,公園局,公園單位,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>公園處,公園管理處,公園科,公園局,公園單位,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>公園處,公園管理處,公園科,公園局,公園單位,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,預算,預算數,核定數,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,預算,預算數,核定數,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,預算,預算數,核定數,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,預算,預算數,核定數,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,預算,預算數,核定數,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,預算,預算數,核定數,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工務局主管</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工務局暨所屬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>職員人數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>預算數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工務局主管預算數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工務局主管決算數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>決算數</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -675,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -687,789 +670,789 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="119.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="69" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>524</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>191</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>143</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>131</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>94</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>94</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>8194228</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24">
         <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>1676504</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B25">
         <v>113</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>4774582</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B26">
         <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="E26">
         <v>7783220</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>1952014</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28">
         <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E28">
         <v>5831206</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29">
         <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="E29">
         <v>11176272.18</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B30">
         <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E30">
         <v>1869536.4550000001</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31">
         <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>9306735.7249999996</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32">
         <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="E32">
         <v>9724003.8690000009</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33">
         <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E33">
         <v>1865531.2549999999</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B34">
         <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E34">
         <v>7858472.6140000001</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pwb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F442F1A8-11DF-4982-B80B-C350DDBCAB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4A41C9-34F3-48E9-A837-8B0E27EB5906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="88">
   <si>
     <t>category</t>
   </si>
@@ -31,250 +44,263 @@
     <t>unit</t>
   </si>
   <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>統計</t>
+  </si>
+  <si>
+    <t>預算</t>
+  </si>
+  <si>
+    <t>決算</t>
+  </si>
+  <si>
+    <t>工務局暨所屬</t>
+  </si>
+  <si>
+    <t>工務局</t>
+  </si>
+  <si>
+    <t>新建工程處</t>
+  </si>
+  <si>
+    <t>道路養護工程處</t>
+  </si>
+  <si>
+    <t>公園處</t>
+  </si>
+  <si>
+    <t>違章建築處理大隊</t>
+  </si>
+  <si>
+    <t>工務局主管</t>
+  </si>
+  <si>
+    <t>職員人數</t>
+  </si>
+  <si>
+    <t>簡任人數</t>
+  </si>
+  <si>
+    <t>薦任人數</t>
+  </si>
+  <si>
+    <t>委任人數</t>
+  </si>
+  <si>
+    <t>職員總數</t>
+  </si>
+  <si>
+    <t>經資門合計</t>
+  </si>
+  <si>
+    <t>經常門</t>
+  </si>
+  <si>
+    <t>資本門</t>
+  </si>
+  <si>
+    <t>113年工務局暨所屬職員總計524人，其中男生332人、女生192人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局職員總計191人，其中男生118人、女生70人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局職員簡任6人，其中男生5人、女生1人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局職員薦任143人，其中男生94人、女生49人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局職員委任39人，其中男生19人、女生20人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年新建工程處職員總計131人，其中男生80人、女生51人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年新建工程處職員簡任3人，其中男生3人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年新建工程處職員薦任94人，其中男生59人、女生35人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年新建工程處職員委任34人，其中男生18人、女生16人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員總計82人，其中男生53人、女生29人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員簡任3人，其中男生3人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員薦任49人，其中男生34人、女生15人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員委任30人，其中男生16人、女生14人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年公園處職員總計94人，其中男生59人、女生35人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年公園處職員簡任3人，其中男生3人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年公園處職員薦任61人，其中男生41人、女生20人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年公園處職員委任30人，其中男生15人、女生15人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員總計30人，其中男生23人、女生7人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員簡任0人，其中男生0人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員薦任15人，其中男生13人、女生2人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員委任15人，其中男生10人、女生5人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局主管預算數合計8,194,228千元，執行數5,786,539千元，執行率89.70%。來源:113年工務統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局主管經常門預算數2,023,521千元，執行數1,952,014千元，執行率96.47%。來源:113年工務統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局主管資本門預算數6,170,707千元，執行數5,831,206千元，執行率94.50%。來源:113年工務統計年報。</t>
+  </si>
+  <si>
+    <t>112年工務局主管預算數合計11176272千元，執行數9724004千元，執行率87.01%。來源112年工務統計年報。</t>
+  </si>
+  <si>
+    <t>112年工務局主管經常門預算數合計1869536千元，執行數1865531千元，執行率99.79%。來源112年工務統計年報。</t>
+  </si>
+  <si>
+    <t>112年工務局主管資本門預算數合計9306736千元，執行數9306736千元，執行率84.44%。來源112年工務統計年報。</t>
+  </si>
+  <si>
+    <t>工務局暨所屬,工務局,工務局本部,工務局與所屬機關,工務局加所屬,整體工務局,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局,工務局本部,本局,局本部,工務局(本部),職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局,工務局本部,本局,局本部,工務局(本部),簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局,工務局本部,本局,局本部,工務局(本部),薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局,工務局本部,本局,局本部,工務局(本部),委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>公園處,公園管理處,公園科,公園局,公園單位,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>公園處,公園管理處,公園科,公園局,公園單位,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>公園處,公園管理處,公園科,公園局,公園單位,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>公園處,公園管理處,公園科,公園局,公園單位,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,預算,預算數,核定數,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,預算,預算數,核定數,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,預算,預算數,核定數,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,預算,預算數,核定數,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,預算,預算數,核定數,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,預算,預算數,核定數,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>keywords</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>item</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>統計</t>
-  </si>
-  <si>
-    <t>預算</t>
-  </si>
-  <si>
-    <t>決算</t>
-  </si>
-  <si>
-    <t>工務局暨所屬</t>
-  </si>
-  <si>
-    <t>工務局</t>
-  </si>
-  <si>
-    <t>新建工程處</t>
-  </si>
-  <si>
-    <t>道路養護工程處</t>
-  </si>
-  <si>
-    <t>公園處</t>
-  </si>
-  <si>
-    <t>違章建築處理大隊</t>
-  </si>
-  <si>
-    <t>工務局主管</t>
-  </si>
-  <si>
-    <t>職員人數</t>
-  </si>
-  <si>
-    <t>簡任人數</t>
-  </si>
-  <si>
-    <t>薦任人數</t>
-  </si>
-  <si>
-    <t>委任人數</t>
-  </si>
-  <si>
-    <t>職員總數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>經資門合計</t>
-  </si>
-  <si>
-    <t>經常門</t>
-  </si>
-  <si>
-    <t>資本門</t>
-  </si>
-  <si>
-    <t>113年工務局暨所屬職員總計524人，其中男生332人、女生192人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局職員總計191人，其中男生118人、女生70人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局職員簡任6人，其中男生5人、女生1人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局職員薦任143人，其中男生94人、女生49人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局職員委任39人，其中男生19人、女生20人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年新建工程處職員總計131人，其中男生80人、女生51人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年新建工程處職員簡任3人，其中男生3人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年新建工程處職員薦任94人，其中男生59人、女生35人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年新建工程處職員委任34人，其中男生18人、女生16人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員總計82人，其中男生53人、女生29人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員簡任3人，其中男生3人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員薦任49人，其中男生34人、女生15人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員委任30人，其中男生16人、女生14人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年公園處職員總計94人，其中男生59人、女生35人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年公園處職員簡任3人，其中男生3人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年公園處職員薦任61人，其中男生41人、女生20人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年公園處職員委任30人，其中男生15人、女生15人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員總計30人，其中男生23人、女生7人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員簡任0人，其中男生0人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員薦任15人，其中男生13人、女生2人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員委任15人，其中男生10人、女生5人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局主管預算數合計8,194,228千元，執行數5,786,539千元，執行率89.70%。來源:113年工務統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局主管經常門預算數2,023,521千元，執行數1,952,014千元，執行率96.47%。來源:113年工務統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局主管資本門預算數6,170,707千元，執行數5,831,206千元，執行率94.50%。來源:113年工務統計年報。</t>
-  </si>
-  <si>
-    <t>112年工務局主管預算數合計11176272千元，執行數9724004千元，執行率87.01%。來源112年工務統計年報。</t>
-  </si>
-  <si>
-    <t>112年工務局主管經常門預算數合計1869536千元，執行數1865531千元，執行率99.79%。來源112年工務統計年報。</t>
-  </si>
-  <si>
-    <t>112年工務局主管資本門預算數合計9306736千元，執行數9306736千元，執行率84.44%。來源112年工務統計年報。</t>
-  </si>
-  <si>
-    <t>工務局暨所屬,工務局,工務局本部,工務局與所屬機關,工務局加所屬,整體工務局,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局,工務局本部,本局,局本部,工務局(本部),職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局,工務局本部,本局,局本部,工務局(本部),簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局,工務局本部,本局,局本部,工務局(本部),薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局,工務局本部,本局,局本部,工務局(本部),委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>公園處,公園管理處,公園科,公園局,公園單位,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>公園處,公園管理處,公園科,公園局,公園單位,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>公園處,公園管理處,公園科,公園局,公園單位,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>公園處,公園管理處,公園科,公園局,公園單位,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,預算,預算數,核定數,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,預算,預算數,核定數,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,預算,預算數,核定數,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,預算,預算數,核定數,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,預算,預算數,核定數,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,預算,預算數,核定數,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>keywords</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>決算數</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -656,10 +682,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -684,660 +711,660 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>524</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>191</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>143</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>131</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>94</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>94</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16">
         <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17">
         <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20">
         <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21">
         <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>8194228</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="E24">
-        <v>1676504</v>
+        <v>8194228</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>113</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>1676504</v>
+      </c>
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26">
+        <v>4774582</v>
+      </c>
+      <c r="F26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B25">
-        <v>113</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>4774582</v>
-      </c>
-      <c r="F25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="B27">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>7783220</v>
+      </c>
+      <c r="F27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26">
-        <v>113</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26">
+    <row r="28" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>113</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28">
         <v>7783220</v>
       </c>
-      <c r="F26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27">
-        <v>113</v>
-      </c>
-      <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27">
-        <v>1952014</v>
-      </c>
-      <c r="F27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28">
-        <v>113</v>
-      </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28">
-        <v>5831206</v>
-      </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
       <c r="B29">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
       </c>
       <c r="E29">
-        <v>11176272.18</v>
+        <v>1952014</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -1345,114 +1372,206 @@
         <v>7</v>
       </c>
       <c r="B30">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
       </c>
       <c r="E30">
-        <v>1869536.4550000001</v>
+        <v>5831206</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31">
         <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E31">
-        <v>9306735.7249999996</v>
+        <v>11176272.18</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B32">
         <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="E32">
-        <v>9724003.8690000009</v>
+        <v>11176272.18</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B33">
         <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33">
-        <v>1865531.2549999999</v>
+        <v>1869536.4550000001</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B34">
         <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E34">
+        <v>9306735.7249999996</v>
+      </c>
+      <c r="F34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>112</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35">
+        <v>9724003.8690000009</v>
+      </c>
+      <c r="F35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>112</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36">
+        <v>9724003.8690000009</v>
+      </c>
+      <c r="F36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37">
+        <v>1865531.2549999999</v>
+      </c>
+      <c r="F37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38">
         <v>7858472.6140000001</v>
       </c>
-      <c r="F34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>83</v>
+      <c r="F38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pwb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA34CAB4-448A-4FA0-BF20-C2B744CBA690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE798B3-858A-4D5A-B34E-C90BCF136B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,433 +58,434 @@
     <t>決算</t>
   </si>
   <si>
+    <t>工務局</t>
+  </si>
+  <si>
+    <t>新建工程處</t>
+  </si>
+  <si>
+    <t>道路養護工程處</t>
+  </si>
+  <si>
+    <t>公園處</t>
+  </si>
+  <si>
+    <t>違章建築處理大隊</t>
+  </si>
+  <si>
+    <t>工務局主管</t>
+  </si>
+  <si>
+    <t>職員人數</t>
+  </si>
+  <si>
+    <t>簡任人數</t>
+  </si>
+  <si>
+    <t>薦任人數</t>
+  </si>
+  <si>
+    <t>委任人數</t>
+  </si>
+  <si>
+    <t>職員總數</t>
+  </si>
+  <si>
+    <t>經資門合計</t>
+  </si>
+  <si>
+    <t>預算數</t>
+  </si>
+  <si>
+    <t>經常門</t>
+  </si>
+  <si>
+    <t>資本門</t>
+  </si>
+  <si>
+    <t>決算數</t>
+  </si>
+  <si>
+    <t>113年工務局暨所屬職員總計524人，其中男生332人、女生192人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局職員總計191人，其中男生118人、女生70人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局職員簡任6人，其中男生5人、女生1人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局職員薦任143人，其中男生94人、女生49人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局職員委任39人，其中男生19人、女生20人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年新建工程處職員總計131人，其中男生80人、女生51人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年新建工程處職員簡任3人，其中男生3人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年新建工程處職員薦任94人，其中男生59人、女生35人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年新建工程處職員委任34人，其中男生18人、女生16人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員總計82人，其中男生53人、女生29人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員簡任3人，其中男生3人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員薦任49人，其中男生34人、女生15人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員委任30人，其中男生16人、女生14人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年公園處職員總計94人，其中男生59人、女生35人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年公園處職員簡任3人，其中男生3人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年公園處職員薦任61人，其中男生41人、女生20人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年公園處職員委任30人，其中男生15人、女生15人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員總計30人，其中男生23人、女生7人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員簡任0人，其中男生0人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員薦任15人，其中男生13人、女生2人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員委任15人，其中男生10人、女生5人。來源:高雄市政府工務局113年度性別統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局主管預算數合計8,194,228千元，執行數5,786,539千元，執行率89.70%。來源:113年工務統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局主管經常門預算數2,023,521千元，執行數1,952,014千元，執行率96.47%。來源:113年工務統計年報。</t>
+  </si>
+  <si>
+    <t>113年工務局主管資本門預算數6,170,707千元，執行數5,831,206千元，執行率94.50%。來源:113年工務統計年報。</t>
+  </si>
+  <si>
+    <t>112年工務局主管預算數合計11176272千元，執行數9724004千元，執行率87.01%。來源112年工務統計年報。</t>
+  </si>
+  <si>
+    <t>112年工務局主管經常門預算數合計1869536千元，執行數1865531千元，執行率99.79%。來源112年工務統計年報。</t>
+  </si>
+  <si>
+    <t>112年工務局主管資本門預算數合計9306736千元，執行數9306736千元，執行率84.44%。來源112年工務統計年報。</t>
+  </si>
+  <si>
+    <t>工務局暨所屬,工務局,工務局本部,工務局與所屬機關,工務局加所屬,整體工務局,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局,工務局本部,本局,局本部,工務局(本部),職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局,工務局本部,本局,局本部,工務局(本部),簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局,工務局本部,本局,局本部,工務局(本部),薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局,工務局本部,本局,局本部,工務局(本部),委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>公園處,公園管理處,公園科,公園局,公園單位,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>公園處,公園管理處,公園科,公園局,公園單位,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>公園處,公園管理處,公園科,公園局,公園單位,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>公園處,公園管理處,公園科,公園局,公園單位,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,預算,預算數,核定數,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,預算,預算數,核定數,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,預算,預算數,核定數,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,預算,預算數,核定數,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,預算,預算數,核定數,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,預算,預算數,核定數,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>統計|工務局暨所屬|職員人數</t>
+  </si>
+  <si>
+    <t>統計|工務局|職員人數</t>
+  </si>
+  <si>
+    <t>統計|工務局|簡任人數</t>
+  </si>
+  <si>
+    <t>統計|工務局|薦任人數</t>
+  </si>
+  <si>
+    <t>統計|工務局|委任人數</t>
+  </si>
+  <si>
+    <t>統計|新建工程處|職員總數</t>
+  </si>
+  <si>
+    <t>統計|新建工程處|簡任人數</t>
+  </si>
+  <si>
+    <t>統計|新建工程處|薦任人數</t>
+  </si>
+  <si>
+    <t>統計|新建工程處|委任人數</t>
+  </si>
+  <si>
+    <t>統計|道路養護工程處|職員總數</t>
+  </si>
+  <si>
+    <t>統計|道路養護工程處|簡任人數</t>
+  </si>
+  <si>
+    <t>統計|道路養護工程處|薦任人數</t>
+  </si>
+  <si>
+    <t>統計|道路養護工程處|委任人數</t>
+  </si>
+  <si>
+    <t>統計|公園處|職員總數</t>
+  </si>
+  <si>
+    <t>統計|公園處|簡任人數</t>
+  </si>
+  <si>
+    <t>統計|公園處|薦任人數</t>
+  </si>
+  <si>
+    <t>統計|公園處|委任人數</t>
+  </si>
+  <si>
+    <t>統計|違章建築處理大隊|職員總數</t>
+  </si>
+  <si>
+    <t>統計|違章建築處理大隊|簡任人數</t>
+  </si>
+  <si>
+    <t>統計|違章建築處理大隊|薦任人數</t>
+  </si>
+  <si>
+    <t>統計|違章建築處理大隊|委任人數</t>
+  </si>
+  <si>
+    <t>預算|工務局主管|經資門合計</t>
+  </si>
+  <si>
+    <t>預算|工務局主管|預算數</t>
+  </si>
+  <si>
+    <t>預算|工務局主管|經常門</t>
+  </si>
+  <si>
+    <t>預算|工務局主管|資本門</t>
+  </si>
+  <si>
+    <t>決算|工務局主管|經資門合計</t>
+  </si>
+  <si>
+    <t>決算|工務局主管|決算數</t>
+  </si>
+  <si>
+    <t>決算|工務局主管|經常門</t>
+  </si>
+  <si>
+    <t>決算|工務局主管|資本門</t>
+  </si>
+  <si>
+    <t>統計 113年 113年度 工務局暨所屬 職員人數 工務局暨所屬,工務局,工務局本部,工務局與所屬機關,工務局加所屬,整體工務局,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>統計 113年 113年度 工務局 職員人數 工務局,工務局本部,本局,局本部,工務局(本部),職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>統計 113年 113年度 工務局 簡任人數 工務局,工務局本部,本局,局本部,工務局(本部),簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>統計 113年 113年度 工務局 薦任人數 工務局,工務局本部,本局,局本部,工務局(本部),薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>統計 113年 113年度 工務局 委任人數 工務局,工務局本部,本局,局本部,工務局(本部),委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>統計 113年 113年度 新建工程處 職員總數 新建工程處,新工處,新建處,新建工程,新建工程處(新工處),職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>統計 113年 113年度 新建工程處 簡任人數 新建工程處,新工處,新建處,新建工程,新建工程處(新工處),簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>統計 113年 113年度 新建工程處 薦任人數 新建工程處,新工處,新建處,新建工程,新建工程處(新工處),薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>統計 113年 113年度 新建工程處 委任人數 新建工程處,新工處,新建處,新建工程,新建工程處(新工處),委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>統計 113年 113年度 道路養護工程處 職員總數 道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>統計 113年 113年度 道路養護工程處 簡任人數 道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>統計 113年 113年度 道路養護工程處 薦任人數 道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>統計 113年 113年度 道路養護工程處 委任人數 道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>統計 113年 113年度 公園處 職員總數 公園處,公園管理處,公園科,公園局,公園單位,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>統計 113年 113年度 公園處 簡任人數 公園處,公園管理處,公園科,公園局,公園單位,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>統計 113年 113年度 公園處 薦任人數 公園處,公園管理處,公園科,公園局,公園單位,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>統計 113年 113年度 公園處 委任人數 公園處,公園管理處,公園科,公園局,公園單位,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>統計 113年 113年度 違章建築處理大隊 職員總數 違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>統計 113年 113年度 違章建築處理大隊 簡任人數 違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>統計 113年 113年度 違章建築處理大隊 薦任人數 違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>統計 113年 113年度 違章建築處理大隊 委任人數 違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>預算 113年 113年度 工務局主管 經資門合計 工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,預算,預算數,核定數,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>預算 113年 113年度 工務局主管 預算數 工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,預算,預算數,核定數,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>預算 113年 113年度 工務局主管 經常門 工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,預算,預算數,核定數,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>預算 113年 113年度 工務局主管 資本門 工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,預算,預算數,核定數,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>決算 113年 113年度 工務局主管 經資門合計 工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>決算 113年 113年度 工務局主管 決算數 工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>決算 113年 113年度 工務局主管 經常門 工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>決算 113年 113年度 工務局主管 資本門 工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
+  </si>
+  <si>
+    <t>預算 112年 112年度 工務局主管 經資門合計 工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,預算,預算數,核定數,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>預算 112年 112年度 工務局主管 預算數 工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,預算,預算數,核定數,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>預算 112年 112年度 工務局主管 經常門 工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,預算,預算數,核定數,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>預算 112年 112年度 工務局主管 資本門 工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,預算,預算數,核定數,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>決算 112年 112年度 工務局主管 經資門合計 工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>決算 112年 112年度 工務局主管 決算數 工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>決算 112年 112年度 工務局主管 經常門 工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
+  </si>
+  <si>
+    <t>決算 112年 112年度 工務局主管 資本門 工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
+  </si>
+  <si>
     <t>工務局暨所屬</t>
-  </si>
-  <si>
-    <t>工務局</t>
-  </si>
-  <si>
-    <t>新建工程處</t>
-  </si>
-  <si>
-    <t>道路養護工程處</t>
-  </si>
-  <si>
-    <t>公園處</t>
-  </si>
-  <si>
-    <t>違章建築處理大隊</t>
-  </si>
-  <si>
-    <t>工務局主管</t>
-  </si>
-  <si>
-    <t>職員人數</t>
-  </si>
-  <si>
-    <t>簡任人數</t>
-  </si>
-  <si>
-    <t>薦任人數</t>
-  </si>
-  <si>
-    <t>委任人數</t>
-  </si>
-  <si>
-    <t>職員總數</t>
-  </si>
-  <si>
-    <t>經資門合計</t>
-  </si>
-  <si>
-    <t>預算數</t>
-  </si>
-  <si>
-    <t>經常門</t>
-  </si>
-  <si>
-    <t>資本門</t>
-  </si>
-  <si>
-    <t>決算數</t>
-  </si>
-  <si>
-    <t>113年工務局暨所屬職員總計524人，其中男生332人、女生192人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局職員總計191人，其中男生118人、女生70人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局職員簡任6人，其中男生5人、女生1人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局職員薦任143人，其中男生94人、女生49人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局職員委任39人，其中男生19人、女生20人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年新建工程處職員總計131人，其中男生80人、女生51人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年新建工程處職員簡任3人，其中男生3人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年新建工程處職員薦任94人，其中男生59人、女生35人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年新建工程處職員委任34人，其中男生18人、女生16人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員總計82人，其中男生53人、女生29人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員簡任3人，其中男生3人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員薦任49人，其中男生34人、女生15人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員委任30人，其中男生16人、女生14人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年公園處職員總計94人，其中男生59人、女生35人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年公園處職員簡任3人，其中男生3人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年公園處職員薦任61人，其中男生41人、女生20人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年公園處職員委任30人，其中男生15人、女生15人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員總計30人，其中男生23人、女生7人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員簡任0人，其中男生0人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員薦任15人，其中男生13人、女生2人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員委任15人，其中男生10人、女生5人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局主管預算數合計8,194,228千元，執行數5,786,539千元，執行率89.70%。來源:113年工務統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局主管經常門預算數2,023,521千元，執行數1,952,014千元，執行率96.47%。來源:113年工務統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局主管資本門預算數6,170,707千元，執行數5,831,206千元，執行率94.50%。來源:113年工務統計年報。</t>
-  </si>
-  <si>
-    <t>112年工務局主管預算數合計11176272千元，執行數9724004千元，執行率87.01%。來源112年工務統計年報。</t>
-  </si>
-  <si>
-    <t>112年工務局主管經常門預算數合計1869536千元，執行數1865531千元，執行率99.79%。來源112年工務統計年報。</t>
-  </si>
-  <si>
-    <t>112年工務局主管資本門預算數合計9306736千元，執行數9306736千元，執行率84.44%。來源112年工務統計年報。</t>
-  </si>
-  <si>
-    <t>工務局暨所屬,工務局,工務局本部,工務局與所屬機關,工務局加所屬,整體工務局,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局,工務局本部,本局,局本部,工務局(本部),職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局,工務局本部,本局,局本部,工務局(本部),簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局,工務局本部,本局,局本部,工務局(本部),薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局,工務局本部,本局,局本部,工務局(本部),委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>公園處,公園管理處,公園科,公園局,公園單位,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>公園處,公園管理處,公園科,公園局,公園單位,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>公園處,公園管理處,公園科,公園局,公園單位,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>公園處,公園管理處,公園科,公園局,公園單位,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,預算,預算數,核定數,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,預算,預算數,核定數,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,預算,預算數,核定數,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,預算,預算數,核定數,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,預算,預算數,核定數,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,預算,預算數,核定數,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>統計|工務局暨所屬|職員人數</t>
-  </si>
-  <si>
-    <t>統計|工務局|職員人數</t>
-  </si>
-  <si>
-    <t>統計|工務局|簡任人數</t>
-  </si>
-  <si>
-    <t>統計|工務局|薦任人數</t>
-  </si>
-  <si>
-    <t>統計|工務局|委任人數</t>
-  </si>
-  <si>
-    <t>統計|新建工程處|職員總數</t>
-  </si>
-  <si>
-    <t>統計|新建工程處|簡任人數</t>
-  </si>
-  <si>
-    <t>統計|新建工程處|薦任人數</t>
-  </si>
-  <si>
-    <t>統計|新建工程處|委任人數</t>
-  </si>
-  <si>
-    <t>統計|道路養護工程處|職員總數</t>
-  </si>
-  <si>
-    <t>統計|道路養護工程處|簡任人數</t>
-  </si>
-  <si>
-    <t>統計|道路養護工程處|薦任人數</t>
-  </si>
-  <si>
-    <t>統計|道路養護工程處|委任人數</t>
-  </si>
-  <si>
-    <t>統計|公園處|職員總數</t>
-  </si>
-  <si>
-    <t>統計|公園處|簡任人數</t>
-  </si>
-  <si>
-    <t>統計|公園處|薦任人數</t>
-  </si>
-  <si>
-    <t>統計|公園處|委任人數</t>
-  </si>
-  <si>
-    <t>統計|違章建築處理大隊|職員總數</t>
-  </si>
-  <si>
-    <t>統計|違章建築處理大隊|簡任人數</t>
-  </si>
-  <si>
-    <t>統計|違章建築處理大隊|薦任人數</t>
-  </si>
-  <si>
-    <t>統計|違章建築處理大隊|委任人數</t>
-  </si>
-  <si>
-    <t>預算|工務局主管|經資門合計</t>
-  </si>
-  <si>
-    <t>預算|工務局主管|預算數</t>
-  </si>
-  <si>
-    <t>預算|工務局主管|經常門</t>
-  </si>
-  <si>
-    <t>預算|工務局主管|資本門</t>
-  </si>
-  <si>
-    <t>決算|工務局主管|經資門合計</t>
-  </si>
-  <si>
-    <t>決算|工務局主管|決算數</t>
-  </si>
-  <si>
-    <t>決算|工務局主管|經常門</t>
-  </si>
-  <si>
-    <t>決算|工務局主管|資本門</t>
-  </si>
-  <si>
-    <t>統計 113年 113年度 工務局暨所屬 職員人數 工務局暨所屬,工務局,工務局本部,工務局與所屬機關,工務局加所屬,整體工務局,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>統計 113年 113年度 工務局 職員人數 工務局,工務局本部,本局,局本部,工務局(本部),職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>統計 113年 113年度 工務局 簡任人數 工務局,工務局本部,本局,局本部,工務局(本部),簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>統計 113年 113年度 工務局 薦任人數 工務局,工務局本部,本局,局本部,工務局(本部),薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>統計 113年 113年度 工務局 委任人數 工務局,工務局本部,本局,局本部,工務局(本部),委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>統計 113年 113年度 新建工程處 職員總數 新建工程處,新工處,新建處,新建工程,新建工程處(新工處),職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>統計 113年 113年度 新建工程處 簡任人數 新建工程處,新工處,新建處,新建工程,新建工程處(新工處),簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>統計 113年 113年度 新建工程處 薦任人數 新建工程處,新工處,新建處,新建工程,新建工程處(新工處),薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>統計 113年 113年度 新建工程處 委任人數 新建工程處,新工處,新建處,新建工程,新建工程處(新工處),委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>統計 113年 113年度 道路養護工程處 職員總數 道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>統計 113年 113年度 道路養護工程處 簡任人數 道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>統計 113年 113年度 道路養護工程處 薦任人數 道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>統計 113年 113年度 道路養護工程處 委任人數 道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>統計 113年 113年度 公園處 職員總數 公園處,公園管理處,公園科,公園局,公園單位,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>統計 113年 113年度 公園處 簡任人數 公園處,公園管理處,公園科,公園局,公園單位,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>統計 113年 113年度 公園處 薦任人數 公園處,公園管理處,公園科,公園局,公園單位,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>統計 113年 113年度 公園處 委任人數 公園處,公園管理處,公園科,公園局,公園單位,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>統計 113年 113年度 違章建築處理大隊 職員總數 違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>統計 113年 113年度 違章建築處理大隊 簡任人數 違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>統計 113年 113年度 違章建築處理大隊 薦任人數 違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>統計 113年 113年度 違章建築處理大隊 委任人數 違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>預算 113年 113年度 工務局主管 經資門合計 工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,預算,預算數,核定數,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>預算 113年 113年度 工務局主管 預算數 工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,預算,預算數,核定數,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>預算 113年 113年度 工務局主管 經常門 工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,預算,預算數,核定數,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>預算 113年 113年度 工務局主管 資本門 工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,預算,預算數,核定數,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>決算 113年 113年度 工務局主管 經資門合計 工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>決算 113年 113年度 工務局主管 決算數 工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>決算 113年 113年度 工務局主管 經常門 工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>決算 113年 113年度 工務局主管 資本門 工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,決算,實際支出,執行數,執行金額,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>預算 112年 112年度 工務局主管 經資門合計 工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,預算,預算數,核定數,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>預算 112年 112年度 工務局主管 預算數 工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,預算,預算數,核定數,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>預算 112年 112年度 工務局主管 經常門 工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,預算,預算數,核定數,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>預算 112年 112年度 工務局主管 資本門 工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,預算,預算數,核定數,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>決算 112年 112年度 工務局主管 經資門合計 工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>決算 112年 112年度 工務局主管 決算數 工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>決算 112年 112年度 工務局主管 經常門 工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
-  </si>
-  <si>
-    <t>決算 112年 112年度 工務局主管 資本門 工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,決算,實際支出,執行數,執行金額,112,112年,112年度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -864,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -910,7 +911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -918,28 +919,28 @@
         <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2">
         <v>524</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -947,28 +948,28 @@
         <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2">
         <v>191</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -976,28 +977,28 @@
         <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2">
         <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1005,28 +1006,28 @@
         <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2">
         <v>143</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1034,28 +1035,28 @@
         <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2">
         <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1063,28 +1064,28 @@
         <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2">
         <v>131</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1092,28 +1093,28 @@
         <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2">
         <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1121,28 +1122,28 @@
         <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2">
         <v>94</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1150,28 +1151,28 @@
         <v>113</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2">
         <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1179,28 +1180,28 @@
         <v>113</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2">
         <v>82</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1208,28 +1209,28 @@
         <v>113</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2">
         <v>3</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1237,28 +1238,28 @@
         <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2">
         <v>49</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1266,28 +1267,28 @@
         <v>113</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2">
         <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1295,28 +1296,28 @@
         <v>113</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2">
         <v>94</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1324,28 +1325,28 @@
         <v>113</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2">
         <v>3</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1353,28 +1354,28 @@
         <v>113</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2">
         <v>61</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1382,28 +1383,28 @@
         <v>113</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="2">
         <v>30</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1411,28 +1412,28 @@
         <v>113</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="2">
         <v>30</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1440,28 +1441,28 @@
         <v>113</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1469,28 +1470,28 @@
         <v>113</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2">
         <v>15</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1498,28 +1499,28 @@
         <v>113</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="2">
         <v>15</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -1527,28 +1528,28 @@
         <v>113</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="2">
         <v>8194228</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -1556,28 +1557,28 @@
         <v>113</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="2">
         <v>8194228</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -1585,28 +1586,28 @@
         <v>113</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="2">
         <v>1676504</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -1614,28 +1615,28 @@
         <v>113</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26" s="2">
         <v>4774582</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
@@ -1643,28 +1644,28 @@
         <v>113</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="2">
         <v>7783220</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
@@ -1672,28 +1673,28 @@
         <v>113</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28" s="2">
         <v>7783220</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
@@ -1701,28 +1702,28 @@
         <v>113</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" s="2">
         <v>1952014</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
@@ -1730,28 +1731,28 @@
         <v>113</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E30" s="2">
         <v>5831206</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -1759,28 +1760,28 @@
         <v>112</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="2">
         <v>11176272.18</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
@@ -1788,28 +1789,28 @@
         <v>112</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="2">
         <v>11176272.18</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
@@ -1817,28 +1818,28 @@
         <v>112</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E33" s="2">
         <v>1869536.4550000001</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>10</v>
       </c>
@@ -1846,28 +1847,28 @@
         <v>112</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E34" s="2">
         <v>9306735.7249999996</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>11</v>
       </c>
@@ -1875,28 +1876,28 @@
         <v>112</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35" s="2">
         <v>9724003.8690000009</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>11</v>
       </c>
@@ -1904,28 +1905,28 @@
         <v>112</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E36" s="2">
         <v>9724003.8690000009</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>11</v>
       </c>
@@ -1933,28 +1934,28 @@
         <v>112</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E37" s="2">
         <v>1865531.2549999999</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
@@ -1962,25 +1963,25 @@
         <v>112</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E38" s="2">
         <v>7858472.6140000001</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pwb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE21CB0-D721-4550-9AF0-683CFEBB921A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7486E8-CA1E-4EDB-AB1C-D4D04AD28D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>113年工務局職員總計191人，其中男生118人、女生70人。來源:高雄市政府工務局113年度性別統計年報。</t>
   </si>
@@ -96,78 +96,6 @@
   </si>
   <si>
     <t>113年工務局主管資本門預算數6,170,707千元，執行數5,831,206千元，執行率94.50%。來源:113年工務統計年報。</t>
-  </si>
-  <si>
-    <t>工務局暨所屬,工務局,工務局本部,工務局與所屬機關,工務局加所屬,整體工務局,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局,工務局本部,本局,局本部,工務局(本部),職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局,工務局本部,本局,局本部,工務局(本部),簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局,工務局本部,本局,局本部,工務局(本部),薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局,工務局本部,本局,局本部,工務局(本部),委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>新建工程處,新工處,新建處,新建工程,新建工程處(新工處),委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>道路養護工程處,道路養護處,養工處,道路養工處,道路養護工程,養護工程處,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>公園處,公園管理處,公園科,公園局,公園單位,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>公園處,公園管理處,公園科,公園局,公園單位,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>公園處,公園管理處,公園科,公園局,公園單位,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>公園處,公園管理處,公園科,公園局,公園單位,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,職員總數,職員,人數,員工數,職員數,人力總數,總員額,編制人數,全部職員,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,簡任人數,簡任,簡任職員,簡任人,簡任官,簡任職缺,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,薦任人數,薦任,薦任職員,薦任人,薦任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>違章建築處理大隊,違建大隊,拆違建大隊,違章建築隊,違章建築處理隊,拆除違建大隊,委任人數,委任,委任職員,委任人,委任官,統計,統計數,性別統計,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經資門合計,經資門,經常門加資本門,經常門與資本門合計,預算總額,預算合計,總預算,整體預算,總經費,預算,預算數,核定數,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,經常門,經常支出,經常預算,日常支出,人事經費,維持經費,預算,預算數,核定數,113,113年,113年度</t>
-  </si>
-  <si>
-    <t>工務局主管,資本門,工程預算,資本支出,建設經費,投資支出,資本,工程計畫預算,預算,預算數,核定數,113,113年,113年度</t>
   </si>
   <si>
     <t>description</t>
@@ -186,9 +114,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>113年工務局暨所屬職員人數</t>
-  </si>
-  <si>
     <t>113年工務局職員人數</t>
   </si>
   <si>
@@ -260,11 +185,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>keywords_range</t>
+    <t>keywords</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>keywords</t>
+    <t>113年工務局暨所屬職員人數</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -343,7 +268,27 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -674,302 +619,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="60.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pwb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7486E8-CA1E-4EDB-AB1C-D4D04AD28D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B43A44D-760D-442E-A369-5E47D0DE0F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>113年工務局職員總計191人，其中男生118人、女生70人。來源:高雄市政府工務局113年度性別統計年報。</t>
   </si>
@@ -114,82 +114,93 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>113年工務局薦任人數</t>
+  </si>
+  <si>
+    <t>113年工務局委任人數</t>
+  </si>
+  <si>
+    <t>113年新建工程處簡任人數</t>
+  </si>
+  <si>
+    <t>113年新建工程處薦任人數</t>
+  </si>
+  <si>
+    <t>113年新建工程處委任人數</t>
+  </si>
+  <si>
+    <t>113年道路養護工程處簡任人數</t>
+  </si>
+  <si>
+    <t>113年道路養護工程處薦任人數</t>
+  </si>
+  <si>
+    <t>113年道路養護工程處委任人數</t>
+  </si>
+  <si>
+    <t>113年公園處簡任人數</t>
+  </si>
+  <si>
+    <t>113年公園處薦任人數</t>
+  </si>
+  <si>
+    <t>113年公園處委任人數</t>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊簡任人數</t>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊薦任人數</t>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊委任人數</t>
+  </si>
+  <si>
+    <t>113年工務局主管經常門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局主管資本門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>keywords</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局暨所屬職員人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>113年工務局職員人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年工務局簡任人數</t>
-  </si>
-  <si>
-    <t>113年工務局薦任人數</t>
-  </si>
-  <si>
-    <t>113年工務局委任人數</t>
-  </si>
-  <si>
-    <t>113年新建工程處職員總數</t>
-  </si>
-  <si>
-    <t>113年新建工程處簡任人數</t>
-  </si>
-  <si>
-    <t>113年新建工程處薦任人數</t>
-  </si>
-  <si>
-    <t>113年新建工程處委任人數</t>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員總數</t>
-  </si>
-  <si>
-    <t>113年道路養護工程處簡任人數</t>
-  </si>
-  <si>
-    <t>113年道路養護工程處薦任人數</t>
-  </si>
-  <si>
-    <t>113年道路養護工程處委任人數</t>
-  </si>
-  <si>
-    <t>113年公園處職員總數</t>
-  </si>
-  <si>
-    <t>113年公園處簡任人數</t>
-  </si>
-  <si>
-    <t>113年公園處薦任人數</t>
-  </si>
-  <si>
-    <t>113年公園處委任人數</t>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員總數</t>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊簡任人數</t>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊薦任人數</t>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊委任人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新建工程處職員人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年公園處職員人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年工務局主管預算數</t>
-  </si>
-  <si>
-    <t>113年工務局主管經常門</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年工務局主管資本門</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>keywords</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年工務局暨所屬職員人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局主管決算數</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -619,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -633,7 +644,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>21</v>
@@ -641,7 +652,7 @@
     </row>
     <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>22</v>
@@ -649,7 +660,7 @@
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -657,7 +668,7 @@
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -665,7 +676,7 @@
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -673,7 +684,7 @@
     </row>
     <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
@@ -681,7 +692,7 @@
     </row>
     <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
@@ -689,7 +700,7 @@
     </row>
     <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -697,7 +708,7 @@
     </row>
     <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -705,7 +716,7 @@
     </row>
     <row r="10" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
@@ -713,7 +724,7 @@
     </row>
     <row r="11" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -721,7 +732,7 @@
     </row>
     <row r="12" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
@@ -729,7 +740,7 @@
     </row>
     <row r="13" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>8</v>
@@ -737,7 +748,7 @@
     </row>
     <row r="14" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
@@ -745,7 +756,7 @@
     </row>
     <row r="15" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>10</v>
@@ -753,7 +764,7 @@
     </row>
     <row r="16" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
@@ -761,7 +772,7 @@
     </row>
     <row r="17" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>12</v>
@@ -769,7 +780,7 @@
     </row>
     <row r="18" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>13</v>
@@ -777,7 +788,7 @@
     </row>
     <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>14</v>
@@ -785,7 +796,7 @@
     </row>
     <row r="20" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>15</v>
@@ -793,7 +804,7 @@
     </row>
     <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>16</v>
@@ -801,7 +812,7 @@
     </row>
     <row r="22" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>17</v>
@@ -809,7 +820,7 @@
     </row>
     <row r="23" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>18</v>
@@ -817,7 +828,7 @@
     </row>
     <row r="24" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>19</v>
@@ -825,18 +836,26 @@
     </row>
     <row r="25" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pwb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B43A44D-760D-442E-A369-5E47D0DE0F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCB1C5F-E2BB-4EF2-AC31-3DFAF076165A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,87 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
-  <si>
-    <t>113年工務局職員總計191人，其中男生118人、女生70人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局職員簡任6人，其中男生5人、女生1人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局職員薦任143人，其中男生94人、女生49人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局職員委任39人，其中男生19人、女生20人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年新建工程處職員簡任3人，其中男生3人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年新建工程處職員薦任94人，其中男生59人、女生35人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年新建工程處職員委任34人，其中男生18人、女生16人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員簡任3人，其中男生3人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員薦任49人，其中男生34人、女生15人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員委任30人，其中男生16人、女生14人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年公園處職員總計94人，其中男生59人、女生35人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年公園處職員簡任3人，其中男生3人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年公園處職員薦任61人，其中男生41人、女生20人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年公園處職員委任30人，其中男生15人、女生15人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員總計30人，其中男生23人、女生7人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員簡任0人，其中男生0人、女生0人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員薦任15人，其中男生13人、女生2人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員委任15人，其中男生10人、女生5人。來源:高雄市政府工務局113年度性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局主管預算數合計8,194,228千元，執行數5,786,539千元，執行率89.70%。來源:113年工務統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局主管經常門預算數2,023,521千元，執行數1,952,014千元，執行率96.47%。來源:113年工務統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局主管資本門預算數6,170,707千元，執行數5,831,206千元，執行率94.50%。來源:113年工務統計年報。</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>description</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>113年工務局暨所屬職員總計524人，其中男生332人、女生192人。來源:高雄市政府工務局113年度性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員總計82人，其中男生53人、女生29人。來源:高雄市政府工務局113年度性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年新建工程處職員總計131人，其中男生80人、女生51人。來源:高雄市政府工務局113年度性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>113年工務局薦任人數</t>
   </si>
   <si>
@@ -201,6 +126,195 @@
   </si>
   <si>
     <t>113年工務局主管決算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局暨所屬職員總計524人，其中男生332人、女生192人。
+來源:高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局職員總計191人，其中男生118人、女生70人。
+來源:高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局職員簡任6人，其中男生5人、女生1人。
+來源:高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局職員薦任143人，其中男生94人、女生49人。
+來源:高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局職員委任39人，其中男生19人、女生20人。
+來源:高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新建工程處職員總計131人，其中男生80人、女生51人。
+來源:高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新建工程處職員簡任3人，其中男生3人、女生0人。
+來源:高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新建工程處職員薦任94人，其中男生59人、女生35人。
+來源:高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新建工程處職員委任34人，其中男生18人、女生16人。
+來源:高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員總計82人，其中男生53人、女生29人。
+來源:高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員簡任3人，其中男生3人、女生0人。
+來源:高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員薦任49人，其中男生34人、女生15人。
+來源:高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員委任30人，其中男生16人、女生14人。
+來源:高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年公園處職員總計94人，其中男生59人、女生35人。
+來源:高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年公園處職員簡任3人，其中男生3人、女生0人。
+來源:高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年公園處職員薦任61人，其中男生41人、女生20人。
+來源:高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年公園處職員委任30人，其中男生15人、女生15人。
+來源:高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員總計30人，其中男生23人、女生7人。
+來源:高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員簡任0人，其中男生0人、女生0人。
+來源:高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員薦任15人，其中男生13人、女生2人。
+來源:高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員委任15人，其中男生10人、女生5人。
+來源:高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局主管預算數合計8,194,228千元，執行數5,786,539千元，執行率89.70%。
+來源:113年工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局主管經常門預算數2,023,521千元，執行數1,952,014千元，執行率96.47%。
+來源:113年工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局主管資本門預算數6,170,707千元，執行數5,831,206千元，執行率94.50%。
+來源:113年工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7093</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7094</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7095</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7096</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7097</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7098</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7099</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7100</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7101</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7102</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7103</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7104</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7105</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7106</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7107</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7108</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7109</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7110</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7111</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004100.aspx?CategoryID=f41e2ae5-b3bd-45ff-8c35-969765348635</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -208,7 +322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +343,14 @@
       <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -264,10 +386,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -275,31 +398,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -630,233 +737,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="60.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="C16" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C19" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>18</v>
+      <c r="C26" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E04A5E3F-0E4A-45C8-AC0D-2A8449678D21}"/>
+    <hyperlink ref="C3:C21" r:id="rId2" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{EA3AC9AF-EA97-4DBD-B8B5-96938C306CE5}"/>
+    <hyperlink ref="C22" r:id="rId3" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{64333BB2-A31D-4B2B-8F05-97511FBBBB7B}"/>
+    <hyperlink ref="C23" r:id="rId4" xr:uid="{C6D28A8B-8BBD-4090-9C7B-D52D5806A8C3}"/>
+    <hyperlink ref="C24" r:id="rId5" xr:uid="{E5D812E6-D622-4BA0-BA42-4D37F52E1387}"/>
+    <hyperlink ref="C25" r:id="rId6" xr:uid="{BBF3DF66-9DF8-43DC-866D-94FA07AE0FDF}"/>
+    <hyperlink ref="C26" r:id="rId7" xr:uid="{ED1FAE6C-9B5E-4867-A9A6-B18ADEF40C05}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/training.xlsx
+++ b/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pwb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCB1C5F-E2BB-4EF2-AC31-3DFAF076165A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C434FCF4-AD91-45C2-BC61-0403F8051490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t>description</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -72,9 +72,6 @@
     <t>113年公園處委任人數</t>
   </si>
   <si>
-    <t>113年違章建築處理大隊簡任人數</t>
-  </si>
-  <si>
     <t>113年違章建築處理大隊薦任人數</t>
   </si>
   <si>
@@ -129,192 +126,207 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>113年工務局暨所屬職員總計524人，其中男生332人、女生192人。
-來源:高雄市政府工務局113年度性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年工務局職員總計191人，其中男生118人、女生70人。
-來源:高雄市政府工務局113年度性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年工務局職員簡任6人，其中男生5人、女生1人。
-來源:高雄市政府工務局113年度性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年工務局職員薦任143人，其中男生94人、女生49人。
-來源:高雄市政府工務局113年度性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年工務局職員委任39人，其中男生19人、女生20人。
-來源:高雄市政府工務局113年度性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年新建工程處職員總計131人，其中男生80人、女生51人。
-來源:高雄市政府工務局113年度性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年新建工程處職員簡任3人，其中男生3人、女生0人。
-來源:高雄市政府工務局113年度性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年新建工程處職員薦任94人，其中男生59人、女生35人。
-來源:高雄市政府工務局113年度性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年新建工程處職員委任34人，其中男生18人、女生16人。
-來源:高雄市政府工務局113年度性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員總計82人，其中男生53人、女生29人。
-來源:高雄市政府工務局113年度性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員簡任3人，其中男生3人、女生0人。
-來源:高雄市政府工務局113年度性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員薦任49人，其中男生34人、女生15人。
-來源:高雄市政府工務局113年度性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員委任30人，其中男生16人、女生14人。
-來源:高雄市政府工務局113年度性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年公園處職員總計94人，其中男生59人、女生35人。
-來源:高雄市政府工務局113年度性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年公園處職員簡任3人，其中男生3人、女生0人。
-來源:高雄市政府工務局113年度性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年公園處職員薦任61人，其中男生41人、女生20人。
-來源:高雄市政府工務局113年度性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年公園處職員委任30人，其中男生15人、女生15人。
-來源:高雄市政府工務局113年度性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員總計30人，其中男生23人、女生7人。
-來源:高雄市政府工務局113年度性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員簡任0人，其中男生0人、女生0人。
-來源:高雄市政府工務局113年度性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員薦任15人，其中男生13人、女生2人。
-來源:高雄市政府工務局113年度性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員委任15人，其中男生10人、女生5人。
-來源:高雄市政府工務局113年度性別統計年報。</t>
+    <t>source_url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7093</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7094</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7095</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7096</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7097</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7098</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7099</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7100</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7101</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7102</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7103</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7104</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7105</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7106</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7107</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7108</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7109</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7111</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004100.aspx?CategoryID=f41e2ae5-b3bd-45ff-8c35-969765348635</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局暨所屬職員總計524人，其中男生332人(占63.36%)、女生192人(占36.64%)。
+（資料來源）
+高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局職員總計191人，其中男生118人(占61.78%)、女生70人(占38.22%)。
+（資料來源）
+高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局職員簡任6人，其中男生5人(占83.33%)、女生1人(占16.67%)。
+（資料來源）
+高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局職員薦任143人，其中男生94人(占65.73%)、女生49人(占34.27%)。
+（資料來源）
+高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局職員委任39人，其中男生19人(占48.72%)、女生20人(占51.28%)。
+（資料來源）
+高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新建工程處職員總計131人，其中男生80人(占61.07%)、女生51人(占38.93%)。
+（資料來源）
+高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新建工程處職員簡任3人，均為男生。
+（資料來源）
+高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新建工程處職員薦任94人，其中男生59人(占62.77%)、女生35人(占37.23%)。
+（資料來源）
+高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新建工程處職員委任34人，其中男生18人(占52.94%)、女生16人(占47.06%)。
+（資料來源）
+高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員總計82人，其中男生53人(占64.63%)、女生29人(占35.37%)。
+（資料來源）
+高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員簡任3人，均為男生。
+（資料來源）
+高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員薦任49人，其中男生34人(占69.39%)、女生15人(占30.61%)。
+（資料來源）
+高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員委任30人，其中男生16人(占53.33%)、女生14人(占46.67%)。
+（資料來源）
+高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年公園處職員總計94人，其中男生59人(占62.77%)、女生35人(占37.23%)。
+（資料來源）
+高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年公園處職員簡任3人，均為男生。
+（資料來源）
+高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年公園處職員薦任61人，其中男生41人(占67.21%)、女生20人(占32.79%)。
+（資料來源）
+高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年公園處職員委任30人，其中男生15人(占50.00%)、女生15人(占50.00%)。
+（資料來源）
+高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員總計30人，其中男生23人(占76.67%)、女生7人(占23.33%)。
+（資料來源）
+高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員薦任15人，其中男生13人(占86.67%)、女生2人(占13.33%)。
+（資料來源）
+高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員委任15人，其中男生10人(占66.67%)、女生5人(占33.33%)。
+（資料來源）
+高雄市政府工務局113年度性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局主管經常門預算數2,023,521千元，執行數1,952,014千元，執行率96.47%。
+（資料來源）
+高雄市政府工務局113年工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年工務局主管預算數合計8,194,228千元，執行數5,786,539千元，執行率89.70%。
-來源:113年工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年工務局主管經常門預算數2,023,521千元，執行數1,952,014千元，執行率96.47%。
-來源:113年工務統計年報。</t>
+（資料來源）
+高雄市政府工務局113年工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年工務局主管資本門預算數6,170,707千元，執行數5,831,206千元，執行率94.50%。
-來源:113年工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>source_url</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7093</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7094</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7095</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7096</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7097</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7098</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7099</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7100</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7101</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7102</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7103</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7104</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7105</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7106</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7107</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7108</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7109</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7110</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7111</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004100.aspx?CategoryID=f41e2ae5-b3bd-45ff-8c35-969765348635</t>
+（資料來源）
+高雄市政府工務局113年工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -737,10 +749,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -752,46 +765,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
@@ -799,10 +812,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
@@ -810,21 +823,21 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
@@ -832,10 +845,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
@@ -843,10 +856,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
@@ -854,21 +867,21 @@
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
@@ -876,10 +889,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
@@ -887,10 +900,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
@@ -898,21 +911,21 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
@@ -920,10 +933,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
@@ -931,10 +944,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
@@ -942,21 +955,21 @@
         <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
@@ -964,10 +977,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
@@ -975,32 +988,32 @@
         <v>13</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
@@ -1008,32 +1021,21 @@
         <v>15</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1045,12 +1047,12 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{E04A5E3F-0E4A-45C8-AC0D-2A8449678D21}"/>
-    <hyperlink ref="C3:C21" r:id="rId2" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{EA3AC9AF-EA97-4DBD-B8B5-96938C306CE5}"/>
-    <hyperlink ref="C22" r:id="rId3" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{64333BB2-A31D-4B2B-8F05-97511FBBBB7B}"/>
-    <hyperlink ref="C23" r:id="rId4" xr:uid="{C6D28A8B-8BBD-4090-9C7B-D52D5806A8C3}"/>
-    <hyperlink ref="C24" r:id="rId5" xr:uid="{E5D812E6-D622-4BA0-BA42-4D37F52E1387}"/>
-    <hyperlink ref="C25" r:id="rId6" xr:uid="{BBF3DF66-9DF8-43DC-866D-94FA07AE0FDF}"/>
-    <hyperlink ref="C26" r:id="rId7" xr:uid="{ED1FAE6C-9B5E-4867-A9A6-B18ADEF40C05}"/>
+    <hyperlink ref="C3:C20" r:id="rId2" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{EA3AC9AF-EA97-4DBD-B8B5-96938C306CE5}"/>
+    <hyperlink ref="C21" r:id="rId3" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{64333BB2-A31D-4B2B-8F05-97511FBBBB7B}"/>
+    <hyperlink ref="C22" r:id="rId4" xr:uid="{C6D28A8B-8BBD-4090-9C7B-D52D5806A8C3}"/>
+    <hyperlink ref="C23" r:id="rId5" xr:uid="{E5D812E6-D622-4BA0-BA42-4D37F52E1387}"/>
+    <hyperlink ref="C24" r:id="rId6" xr:uid="{BBF3DF66-9DF8-43DC-866D-94FA07AE0FDF}"/>
+    <hyperlink ref="C25" r:id="rId7" xr:uid="{ED1FAE6C-9B5E-4867-A9A6-B18ADEF40C05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pwb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C434FCF4-AD91-45C2-BC61-0403F8051490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A1C045-CC1B-4574-AB5A-9B20C6E88820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>description</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -192,141 +192,151 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>112年工務局暨所屬職員人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>113年工務局暨所屬職員總計524人，其中男生332人(占63.36%)、女生192人(占36.64%)。
 （資料來源）
-高雄市政府工務局113年度性別統計年報。</t>
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年工務局職員總計191人，其中男生118人(占61.78%)、女生70人(占38.22%)。
 （資料來源）
-高雄市政府工務局113年度性別統計年報。</t>
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年工務局職員簡任6人，其中男生5人(占83.33%)、女生1人(占16.67%)。
 （資料來源）
-高雄市政府工務局113年度性別統計年報。</t>
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年工務局職員薦任143人，其中男生94人(占65.73%)、女生49人(占34.27%)。
 （資料來源）
-高雄市政府工務局113年度性別統計年報。</t>
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年工務局職員委任39人，其中男生19人(占48.72%)、女生20人(占51.28%)。
 （資料來源）
-高雄市政府工務局113年度性別統計年報。</t>
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年新建工程處職員總計131人，其中男生80人(占61.07%)、女生51人(占38.93%)。
 （資料來源）
-高雄市政府工務局113年度性別統計年報。</t>
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年新建工程處職員簡任3人，均為男生。
 （資料來源）
-高雄市政府工務局113年度性別統計年報。</t>
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年新建工程處職員薦任94人，其中男生59人(占62.77%)、女生35人(占37.23%)。
 （資料來源）
-高雄市政府工務局113年度性別統計年報。</t>
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年新建工程處職員委任34人，其中男生18人(占52.94%)、女生16人(占47.06%)。
 （資料來源）
-高雄市政府工務局113年度性別統計年報。</t>
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年道路養護工程處職員總計82人，其中男生53人(占64.63%)、女生29人(占35.37%)。
 （資料來源）
-高雄市政府工務局113年度性別統計年報。</t>
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年道路養護工程處職員簡任3人，均為男生。
 （資料來源）
-高雄市政府工務局113年度性別統計年報。</t>
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年道路養護工程處職員薦任49人，其中男生34人(占69.39%)、女生15人(占30.61%)。
 （資料來源）
-高雄市政府工務局113年度性別統計年報。</t>
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年道路養護工程處職員委任30人，其中男生16人(占53.33%)、女生14人(占46.67%)。
 （資料來源）
-高雄市政府工務局113年度性別統計年報。</t>
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年公園處職員總計94人，其中男生59人(占62.77%)、女生35人(占37.23%)。
 （資料來源）
-高雄市政府工務局113年度性別統計年報。</t>
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年公園處職員簡任3人，均為男生。
 （資料來源）
-高雄市政府工務局113年度性別統計年報。</t>
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年公園處職員薦任61人，其中男生41人(占67.21%)、女生20人(占32.79%)。
 （資料來源）
-高雄市政府工務局113年度性別統計年報。</t>
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年公園處職員委任30人，其中男生15人(占50.00%)、女生15人(占50.00%)。
 （資料來源）
-高雄市政府工務局113年度性別統計年報。</t>
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年違章建築處理大隊職員總計30人，其中男生23人(占76.67%)、女生7人(占23.33%)。
 （資料來源）
-高雄市政府工務局113年度性別統計年報。</t>
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年違章建築處理大隊職員薦任15人，其中男生13人(占86.67%)、女生2人(占13.33%)。
 （資料來源）
-高雄市政府工務局113年度性別統計年報。</t>
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年違章建築處理大隊職員委任15人，其中男生10人(占66.67%)、女生5人(占33.33%)。
 （資料來源）
-高雄市政府工務局113年度性別統計年報。</t>
+高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局主管預算數合計8,194,228千元，執行數5,786,539千元，執行率89.70%。
+（資料來源）
+高雄市政府工務局工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年工務局主管經常門預算數2,023,521千元，執行數1,952,014千元，執行率96.47%。
 （資料來源）
-高雄市政府工務局113年工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年工務局主管預算數合計8,194,228千元，執行數5,786,539千元，執行率89.70%。
-（資料來源）
-高雄市政府工務局113年工務統計年報。</t>
+高雄市政府工務局工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年工務局主管資本門預算數6,170,707千元，執行數5,831,206千元，執行率94.50%。
 （資料來源）
-高雄市政府工務局113年工務統計年報。</t>
+高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年工務局暨所屬職員總計519人，其中男生331人(占63.78%)、女生188人(占36.22%)。
+（資料來源）
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -749,17 +759,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="65.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="23" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -779,7 +789,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>27</v>
@@ -787,205 +797,205 @@
     </row>
     <row r="3" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>66</v>
@@ -996,21 +1006,21 @@
     </row>
     <row r="22" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>46</v>
@@ -1018,7 +1028,7 @@
     </row>
     <row r="24" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>69</v>
@@ -1029,12 +1039,23 @@
     </row>
     <row r="25" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1047,12 +1068,13 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{E04A5E3F-0E4A-45C8-AC0D-2A8449678D21}"/>
-    <hyperlink ref="C3:C20" r:id="rId2" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{EA3AC9AF-EA97-4DBD-B8B5-96938C306CE5}"/>
-    <hyperlink ref="C21" r:id="rId3" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{64333BB2-A31D-4B2B-8F05-97511FBBBB7B}"/>
-    <hyperlink ref="C22" r:id="rId4" xr:uid="{C6D28A8B-8BBD-4090-9C7B-D52D5806A8C3}"/>
-    <hyperlink ref="C23" r:id="rId5" xr:uid="{E5D812E6-D622-4BA0-BA42-4D37F52E1387}"/>
-    <hyperlink ref="C24" r:id="rId6" xr:uid="{BBF3DF66-9DF8-43DC-866D-94FA07AE0FDF}"/>
-    <hyperlink ref="C25" r:id="rId7" xr:uid="{ED1FAE6C-9B5E-4867-A9A6-B18ADEF40C05}"/>
+    <hyperlink ref="C4:C21" r:id="rId2" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{EA3AC9AF-EA97-4DBD-B8B5-96938C306CE5}"/>
+    <hyperlink ref="C22" r:id="rId3" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{64333BB2-A31D-4B2B-8F05-97511FBBBB7B}"/>
+    <hyperlink ref="C23" r:id="rId4" xr:uid="{C6D28A8B-8BBD-4090-9C7B-D52D5806A8C3}"/>
+    <hyperlink ref="C24" r:id="rId5" xr:uid="{E5D812E6-D622-4BA0-BA42-4D37F52E1387}"/>
+    <hyperlink ref="C25" r:id="rId6" xr:uid="{BBF3DF66-9DF8-43DC-866D-94FA07AE0FDF}"/>
+    <hyperlink ref="C26" r:id="rId7" xr:uid="{ED1FAE6C-9B5E-4867-A9A6-B18ADEF40C05}"/>
+    <hyperlink ref="C3" r:id="rId8" xr:uid="{50FD11EF-4F8C-4909-88AE-155E7EE298DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pwb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A1C045-CC1B-4574-AB5A-9B20C6E88820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76627095-615B-4647-B7AB-EFAD6D40BBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,145 +198,145 @@
   <si>
     <t>113年工務局暨所屬職員總計524人，其中男生332人(占63.36%)、女生192人(占36.64%)。
 （資料來源）
-高雄市政府工務局性別統計年報。</t>
+高雄市政府工務局113年性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年工務局暨所屬職員總計519人，其中男生331人(占63.78%)、女生188人(占36.22%)。
+（資料來源）
+高雄市政府工務局112年性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年工務局職員總計191人，其中男生118人(占61.78%)、女生70人(占38.22%)。
 （資料來源）
-高雄市政府工務局性別統計年報。</t>
+高雄市政府工務局113年性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年工務局職員簡任6人，其中男生5人(占83.33%)、女生1人(占16.67%)。
 （資料來源）
-高雄市政府工務局性別統計年報。</t>
+高雄市政府工務局113年性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年工務局職員薦任143人，其中男生94人(占65.73%)、女生49人(占34.27%)。
 （資料來源）
-高雄市政府工務局性別統計年報。</t>
+高雄市政府工務局113年性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年工務局職員委任39人，其中男生19人(占48.72%)、女生20人(占51.28%)。
 （資料來源）
-高雄市政府工務局性別統計年報。</t>
+高雄市政府工務局113年性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年新建工程處職員總計131人，其中男生80人(占61.07%)、女生51人(占38.93%)。
 （資料來源）
-高雄市政府工務局性別統計年報。</t>
+高雄市政府工務局113年性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年新建工程處職員簡任3人，均為男生。
 （資料來源）
-高雄市政府工務局性別統計年報。</t>
+高雄市政府工務局113年性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年新建工程處職員薦任94人，其中男生59人(占62.77%)、女生35人(占37.23%)。
 （資料來源）
-高雄市政府工務局性別統計年報。</t>
+高雄市政府工務局113年性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年新建工程處職員委任34人，其中男生18人(占52.94%)、女生16人(占47.06%)。
 （資料來源）
-高雄市政府工務局性別統計年報。</t>
+高雄市政府工務局113年性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年道路養護工程處職員總計82人，其中男生53人(占64.63%)、女生29人(占35.37%)。
 （資料來源）
-高雄市政府工務局性別統計年報。</t>
+高雄市政府工務局113年性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年道路養護工程處職員簡任3人，均為男生。
 （資料來源）
-高雄市政府工務局性別統計年報。</t>
+高雄市政府工務局113年性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年道路養護工程處職員薦任49人，其中男生34人(占69.39%)、女生15人(占30.61%)。
 （資料來源）
-高雄市政府工務局性別統計年報。</t>
+高雄市政府工務局113年性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年道路養護工程處職員委任30人，其中男生16人(占53.33%)、女生14人(占46.67%)。
 （資料來源）
-高雄市政府工務局性別統計年報。</t>
+高雄市政府工務局113年性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年公園處職員總計94人，其中男生59人(占62.77%)、女生35人(占37.23%)。
 （資料來源）
-高雄市政府工務局性別統計年報。</t>
+高雄市政府工務局113年性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年公園處職員簡任3人，均為男生。
 （資料來源）
-高雄市政府工務局性別統計年報。</t>
+高雄市政府工務局113年性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年公園處職員薦任61人，其中男生41人(占67.21%)、女生20人(占32.79%)。
 （資料來源）
-高雄市政府工務局性別統計年報。</t>
+高雄市政府工務局113年性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年公園處職員委任30人，其中男生15人(占50.00%)、女生15人(占50.00%)。
 （資料來源）
-高雄市政府工務局性別統計年報。</t>
+高雄市政府工務局113年性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年違章建築處理大隊職員總計30人，其中男生23人(占76.67%)、女生7人(占23.33%)。
 （資料來源）
-高雄市政府工務局性別統計年報。</t>
+高雄市政府工務局113年性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年違章建築處理大隊職員薦任15人，其中男生13人(占86.67%)、女生2人(占13.33%)。
 （資料來源）
-高雄市政府工務局性別統計年報。</t>
+高雄市政府工務局113年性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年違章建築處理大隊職員委任15人，其中男生10人(占66.67%)、女生5人(占33.33%)。
 （資料來源）
-高雄市政府工務局性別統計年報。</t>
+高雄市政府工務局113年性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年工務局主管預算數合計8,194,228千元，執行數5,786,539千元，執行率89.70%。
 （資料來源）
-高雄市政府工務局工務統計年報。</t>
+高雄市政府工務局113年工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年工務局主管經常門預算數2,023,521千元，執行數1,952,014千元，執行率96.47%。
 （資料來源）
-高雄市政府工務局工務統計年報。</t>
+高雄市政府工務局113年工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年工務局主管資本門預算數6,170,707千元，執行數5,831,206千元，執行率94.50%。
 （資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年工務局暨所屬職員總計519人，其中男生331人(占63.78%)、女生188人(占36.22%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
+高雄市政府工務局113年工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -762,8 +762,8 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -800,7 +800,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>27</v>
@@ -811,7 +811,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>28</v>
@@ -822,7 +822,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>29</v>
@@ -833,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>30</v>
@@ -844,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>31</v>
@@ -855,7 +855,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>32</v>
@@ -866,7 +866,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>33</v>
@@ -877,7 +877,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>34</v>
@@ -888,7 +888,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
@@ -899,7 +899,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>36</v>
@@ -910,7 +910,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>37</v>
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>38</v>
@@ -932,7 +932,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>39</v>
@@ -943,7 +943,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>40</v>
@@ -954,7 +954,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>41</v>
@@ -965,7 +965,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>42</v>
@@ -976,7 +976,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>43</v>
@@ -987,7 +987,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>44</v>
@@ -998,7 +998,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>45</v>
@@ -1009,7 +1009,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>45</v>
@@ -1020,7 +1020,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>46</v>
@@ -1031,7 +1031,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>46</v>
@@ -1042,7 +1042,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>46</v>
@@ -1053,7 +1053,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>46</v>

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pwb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76627095-615B-4647-B7AB-EFAD6D40BBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037A407C-295F-450B-9E00-7DCD40D35FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,114 +214,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>113年工務局職員簡任6人，其中男生5人(占83.33%)、女生1人(占16.67%)。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年工務局職員薦任143人，其中男生94人(占65.73%)、女生49人(占34.27%)。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年工務局職員委任39人，其中男生19人(占48.72%)、女生20人(占51.28%)。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>113年新建工程處職員總計131人，其中男生80人(占61.07%)、女生51人(占38.93%)。
 （資料來源）
 高雄市政府工務局113年性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>113年新建工程處職員簡任3人，均為男生。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年新建工程處職員薦任94人，其中男生59人(占62.77%)、女生35人(占37.23%)。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年新建工程處職員委任34人，其中男生18人(占52.94%)、女生16人(占47.06%)。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>113年道路養護工程處職員總計82人，其中男生53人(占64.63%)、女生29人(占35.37%)。
 （資料來源）
 高雄市政府工務局113年性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>113年道路養護工程處職員簡任3人，均為男生。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員薦任49人，其中男生34人(占69.39%)、女生15人(占30.61%)。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員委任30人，其中男生16人(占53.33%)、女生14人(占46.67%)。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>113年公園處職員總計94人，其中男生59人(占62.77%)、女生35人(占37.23%)。
 （資料來源）
 高雄市政府工務局113年性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>113年公園處職員簡任3人，均為男生。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年公園處職員薦任61人，其中男生41人(占67.21%)、女生20人(占32.79%)。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年公園處職員委任30人，其中男生15人(占50.00%)、女生15人(占50.00%)。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>113年違章建築處理大隊職員總計30人，其中男生23人(占76.67%)、女生7人(占23.33%)。
 （資料來源）
 高雄市政府工務局113年性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>113年違章建築處理大隊職員薦任15人，其中男生13人(占86.67%)、女生2人(占13.33%)。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員委任15人，其中男生10人(占66.67%)、女生5人(占33.33%)。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>113年工務局主管預算數合計8,194,228千元，執行數5,786,539千元，執行率89.70%。
 （資料來源）
 高雄市政府工務局113年工務統計年報。</t>
@@ -337,6 +253,90 @@
     <t>113年工務局主管資本門預算數6,170,707千元，執行數5,831,206千元，執行率94.50%。
 （資料來源）
 高雄市政府工務局113年工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局職員簡任總計6人，其中男生5人(占83.33%)、女生1人(占16.67%)。
+（資料來源）
+高雄市政府工務局113年性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局職員薦任總計143人，其中男生94人(占65.73%)、女生49人(占34.27%)。
+（資料來源）
+高雄市政府工務局113年性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局職員委任總計39人，其中男生19人(占48.72%)、女生20人(占51.28%)。
+（資料來源）
+高雄市政府工務局113年性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新建工程處職員簡任總計3人，均為男生。
+（資料來源）
+高雄市政府工務局113年性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新建工程處職員薦任總計94人，其中男生59人(占62.77%)、女生35人(占37.23%)。
+（資料來源）
+高雄市政府工務局113年性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新建工程處職員委任總計34人，其中男生18人(占52.94%)、女生16人(占47.06%)。
+（資料來源）
+高雄市政府工務局113年性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員簡任總計3人，均為男生。
+（資料來源）
+高雄市政府工務局113年性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員薦任總計49人，其中男生34人(占69.39%)、女生15人(占30.61%)。
+（資料來源）
+高雄市政府工務局113年性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員委任總計30人，其中男生16人(占53.33%)、女生14人(占46.67%)。
+（資料來源）
+高雄市政府工務局113年性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年公園處職員簡任總計3人，均為男生。
+（資料來源）
+高雄市政府工務局113年性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年公園處職員薦任總計61人，其中男生41人(占67.21%)、女生20人(占32.79%)。
+（資料來源）
+高雄市政府工務局113年性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年公園處職員委任總計30人，其中男生15人(占50.00%)、女生15人(占50.00%)。
+（資料來源）
+高雄市政府工務局113年性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員薦任總計15人，其中男生13人(占86.67%)、女生2人(占13.33%)。
+（資料來源）
+高雄市政府工務局113年性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員委任總計15人，其中男生10人(占66.67%)、女生5人(占33.33%)。
+（資料來源）
+高雄市政府工務局113年性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -762,8 +762,8 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -822,7 +822,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>29</v>
@@ -833,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>30</v>
@@ -844,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>31</v>
@@ -855,7 +855,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>32</v>
@@ -866,7 +866,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>33</v>
@@ -877,7 +877,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>34</v>
@@ -888,7 +888,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
@@ -899,7 +899,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>36</v>
@@ -910,7 +910,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>37</v>
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>38</v>
@@ -932,7 +932,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>39</v>
@@ -943,7 +943,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>40</v>
@@ -954,7 +954,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>41</v>
@@ -965,7 +965,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>42</v>
@@ -976,7 +976,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>43</v>
@@ -987,7 +987,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>44</v>
@@ -998,7 +998,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>45</v>
@@ -1009,7 +1009,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>45</v>
@@ -1020,7 +1020,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>46</v>
@@ -1031,7 +1031,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>46</v>
@@ -1042,7 +1042,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>46</v>
@@ -1053,7 +1053,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>46</v>

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pwb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037A407C-295F-450B-9E00-7DCD40D35FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A230C6F-70CE-444F-B637-C0389C2C6737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>description</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -196,147 +196,157 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>111年工務局暨所屬職員人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>113年工務局暨所屬職員總計524人，其中男生332人(占63.36%)、女生192人(占36.64%)。
 （資料來源）
-高雄市政府工務局113年性別統計年報。</t>
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>112年工務局暨所屬職員總計519人，其中男生331人(占63.78%)、女生188人(占36.22%)。
 （資料來源）
-高雄市政府工務局112年性別統計年報。</t>
+高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年工務局暨所屬職員總計500人，其中男生326人(占65.20%)、女生174人(占34.80%)。
+（資料來源）
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年工務局職員總計191人，其中男生118人(占61.78%)、女生70人(占38.22%)。
 （資料來源）
-高雄市政府工務局113年性別統計年報。</t>
+高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局職員簡任總計6人，其中男生5人(占83.33%)、女生1人(占16.67%)。
+（資料來源）
+高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局職員薦任總計143人，其中男生94人(占65.73%)、女生49人(占34.27%)。
+（資料來源）
+高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局職員委任總計39人，其中男生19人(占48.72%)、女生20人(占51.28%)。
+（資料來源）
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年新建工程處職員總計131人，其中男生80人(占61.07%)、女生51人(占38.93%)。
 （資料來源）
-高雄市政府工務局113年性別統計年報。</t>
+高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新建工程處職員簡任總計3人，均為男生。
+（資料來源）
+高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新建工程處職員薦任總計94人，其中男生59人(占62.77%)、女生35人(占37.23%)。
+（資料來源）
+高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新建工程處職員委任總計34人，其中男生18人(占52.94%)、女生16人(占47.06%)。
+（資料來源）
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年道路養護工程處職員總計82人，其中男生53人(占64.63%)、女生29人(占35.37%)。
 （資料來源）
-高雄市政府工務局113年性別統計年報。</t>
+高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員簡任總計3人，均為男生。
+（資料來源）
+高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員薦任總計49人，其中男生34人(占69.39%)、女生15人(占30.61%)。
+（資料來源）
+高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年道路養護工程處職員委任總計30人，其中男生16人(占53.33%)、女生14人(占46.67%)。
+（資料來源）
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年公園處職員總計94人，其中男生59人(占62.77%)、女生35人(占37.23%)。
 （資料來源）
-高雄市政府工務局113年性別統計年報。</t>
+高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年公園處職員簡任總計3人，均為男生。
+（資料來源）
+高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年公園處職員薦任總計61人，其中男生41人(占67.21%)、女生20人(占32.79%)。
+（資料來源）
+高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年公園處職員委任總計30人，其中男生15人(占50.00%)、女生15人(占50.00%)。
+（資料來源）
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年違章建築處理大隊職員總計30人，其中男生23人(占76.67%)、女生7人(占23.33%)。
 （資料來源）
-高雄市政府工務局113年性別統計年報。</t>
+高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員薦任總計15人，其中男生13人(占86.67%)、女生2人(占13.33%)。
+（資料來源）
+高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年違章建築處理大隊職員委任總計15人，其中男生10人(占66.67%)、女生5人(占33.33%)。
+（資料來源）
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年工務局主管預算數合計8,194,228千元，執行數5,786,539千元，執行率89.70%。
 （資料來源）
-高雄市政府工務局113年工務統計年報。</t>
+高雄市政府工務局工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年工務局主管經常門預算數2,023,521千元，執行數1,952,014千元，執行率96.47%。
 （資料來源）
-高雄市政府工務局113年工務統計年報。</t>
+高雄市政府工務局工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年工務局主管資本門預算數6,170,707千元，執行數5,831,206千元，執行率94.50%。
 （資料來源）
-高雄市政府工務局113年工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年工務局職員簡任總計6人，其中男生5人(占83.33%)、女生1人(占16.67%)。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年工務局職員薦任總計143人，其中男生94人(占65.73%)、女生49人(占34.27%)。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年工務局職員委任總計39人，其中男生19人(占48.72%)、女生20人(占51.28%)。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年新建工程處職員簡任總計3人，均為男生。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年新建工程處職員薦任總計94人，其中男生59人(占62.77%)、女生35人(占37.23%)。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年新建工程處職員委任總計34人，其中男生18人(占52.94%)、女生16人(占47.06%)。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員簡任總計3人，均為男生。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員薦任總計49人，其中男生34人(占69.39%)、女生15人(占30.61%)。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年道路養護工程處職員委任總計30人，其中男生16人(占53.33%)、女生14人(占46.67%)。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年公園處職員簡任總計3人，均為男生。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年公園處職員薦任總計61人，其中男生41人(占67.21%)、女生20人(占32.79%)。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年公園處職員委任總計30人，其中男生15人(占50.00%)、女生15人(占50.00%)。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員薦任總計15人，其中男生13人(占86.67%)、女生2人(占13.33%)。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年違章建築處理大隊職員委任總計15人，其中男生10人(占66.67%)、女生5人(占33.33%)。
-（資料來源）
-高雄市政府工務局113年性別統計年報。</t>
+高雄市政府工務局工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -759,11 +769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -789,7 +799,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>27</v>
@@ -800,7 +810,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>27</v>
@@ -808,208 +818,208 @@
     </row>
     <row r="4" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>45</v>
@@ -1017,21 +1027,21 @@
     </row>
     <row r="23" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>46</v>
@@ -1039,10 +1049,10 @@
     </row>
     <row r="25" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>46</v>
@@ -1050,12 +1060,23 @@
     </row>
     <row r="26" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1068,13 +1089,14 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{E04A5E3F-0E4A-45C8-AC0D-2A8449678D21}"/>
-    <hyperlink ref="C4:C21" r:id="rId2" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{EA3AC9AF-EA97-4DBD-B8B5-96938C306CE5}"/>
-    <hyperlink ref="C22" r:id="rId3" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{64333BB2-A31D-4B2B-8F05-97511FBBBB7B}"/>
-    <hyperlink ref="C23" r:id="rId4" xr:uid="{C6D28A8B-8BBD-4090-9C7B-D52D5806A8C3}"/>
-    <hyperlink ref="C24" r:id="rId5" xr:uid="{E5D812E6-D622-4BA0-BA42-4D37F52E1387}"/>
-    <hyperlink ref="C25" r:id="rId6" xr:uid="{BBF3DF66-9DF8-43DC-866D-94FA07AE0FDF}"/>
-    <hyperlink ref="C26" r:id="rId7" xr:uid="{ED1FAE6C-9B5E-4867-A9A6-B18ADEF40C05}"/>
+    <hyperlink ref="C5:C22" r:id="rId2" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{EA3AC9AF-EA97-4DBD-B8B5-96938C306CE5}"/>
+    <hyperlink ref="C23" r:id="rId3" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{64333BB2-A31D-4B2B-8F05-97511FBBBB7B}"/>
+    <hyperlink ref="C24" r:id="rId4" xr:uid="{C6D28A8B-8BBD-4090-9C7B-D52D5806A8C3}"/>
+    <hyperlink ref="C25" r:id="rId5" xr:uid="{E5D812E6-D622-4BA0-BA42-4D37F52E1387}"/>
+    <hyperlink ref="C26" r:id="rId6" xr:uid="{BBF3DF66-9DF8-43DC-866D-94FA07AE0FDF}"/>
+    <hyperlink ref="C27" r:id="rId7" xr:uid="{ED1FAE6C-9B5E-4867-A9A6-B18ADEF40C05}"/>
     <hyperlink ref="C3" r:id="rId8" xr:uid="{50FD11EF-4F8C-4909-88AE-155E7EE298DD}"/>
+    <hyperlink ref="C4" r:id="rId9" xr:uid="{91F80006-BEC8-4D81-9C09-8935715CCCC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pwb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A230C6F-70CE-444F-B637-C0389C2C6737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B7C3B4-B552-45E5-AA5C-BFABF2E7A13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
   <si>
     <t>description</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -134,9 +134,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7093</t>
-  </si>
-  <si>
     <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7094</t>
   </si>
   <si>
@@ -212,18 +209,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>111年工務局暨所屬職員總計500人，其中男生326人(占65.20%)、女生174人(占34.80%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年工務局職員總計191人，其中男生118人(占61.78%)、女生70人(占38.22%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>113年工務局職員簡任總計6人，其中男生5人(占83.33%)、女生1人(占16.67%)。
 （資料來源）
 高雄市政府工務局性別統計年報。</t>
@@ -347,6 +332,78 @@
     <t>113年工務局主管資本門預算數6,170,707千元，執行數5,831,206千元，執行率94.50%。
 （資料來源）
 高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年工務局暨所屬職員人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年工務局暨所屬職員人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年工務局暨所屬職員總計527人。
+（資料來源）
+高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年工務局暨所屬職員總計512人。
+（資料來源）
+高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年工務局暨所屬職員總計500人。
+（資料來源）
+高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年工務局職員人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年工務局職員人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年工務局職員人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年工務局職員人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局職員總計524人，其中男生332人(占63.36%)、女生192人(占36.64%)。
+（資料來源）
+高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年工務局職員總計519人，其中男生331人(占63.78%)、女生188人(占36.22%)。
+（資料來源）
+高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年工務局職員總計500人。
+（資料來源）
+高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年工務局職員總計512人。
+（資料來源）
+高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年工務局職員總計527人。
+（資料來源）
+高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -422,7 +479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -433,6 +490,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -769,11 +833,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R23" sqref="R23"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -799,7 +863,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>27</v>
@@ -807,277 +871,343 @@
     </row>
     <row r="3" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
+      <c r="A9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>33</v>
+      <c r="A10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>34</v>
+      <c r="A11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>46</v>
+      <c r="B33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1089,14 +1219,21 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{E04A5E3F-0E4A-45C8-AC0D-2A8449678D21}"/>
-    <hyperlink ref="C5:C22" r:id="rId2" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{EA3AC9AF-EA97-4DBD-B8B5-96938C306CE5}"/>
-    <hyperlink ref="C23" r:id="rId3" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{64333BB2-A31D-4B2B-8F05-97511FBBBB7B}"/>
-    <hyperlink ref="C24" r:id="rId4" xr:uid="{C6D28A8B-8BBD-4090-9C7B-D52D5806A8C3}"/>
-    <hyperlink ref="C25" r:id="rId5" xr:uid="{E5D812E6-D622-4BA0-BA42-4D37F52E1387}"/>
-    <hyperlink ref="C26" r:id="rId6" xr:uid="{BBF3DF66-9DF8-43DC-866D-94FA07AE0FDF}"/>
-    <hyperlink ref="C27" r:id="rId7" xr:uid="{ED1FAE6C-9B5E-4867-A9A6-B18ADEF40C05}"/>
+    <hyperlink ref="C7:C28" r:id="rId2" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{EA3AC9AF-EA97-4DBD-B8B5-96938C306CE5}"/>
+    <hyperlink ref="C29" r:id="rId3" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{64333BB2-A31D-4B2B-8F05-97511FBBBB7B}"/>
+    <hyperlink ref="C30" r:id="rId4" xr:uid="{C6D28A8B-8BBD-4090-9C7B-D52D5806A8C3}"/>
+    <hyperlink ref="C31" r:id="rId5" xr:uid="{E5D812E6-D622-4BA0-BA42-4D37F52E1387}"/>
+    <hyperlink ref="C32" r:id="rId6" xr:uid="{BBF3DF66-9DF8-43DC-866D-94FA07AE0FDF}"/>
+    <hyperlink ref="C33" r:id="rId7" xr:uid="{ED1FAE6C-9B5E-4867-A9A6-B18ADEF40C05}"/>
     <hyperlink ref="C3" r:id="rId8" xr:uid="{50FD11EF-4F8C-4909-88AE-155E7EE298DD}"/>
     <hyperlink ref="C4" r:id="rId9" xr:uid="{91F80006-BEC8-4D81-9C09-8935715CCCC0}"/>
+    <hyperlink ref="C5" r:id="rId10" xr:uid="{E72753EF-C0D8-44A6-AC0E-5A3528C4D371}"/>
+    <hyperlink ref="C6" r:id="rId11" xr:uid="{34C6E3FF-39CA-4992-84FD-4FB8013C9274}"/>
+    <hyperlink ref="C7" r:id="rId12" xr:uid="{1CFD1646-7E23-49A3-89CF-A5B43FBE88E4}"/>
+    <hyperlink ref="C8" r:id="rId13" xr:uid="{E894FFFD-6790-414B-AB53-CA3F7BE5EBD0}"/>
+    <hyperlink ref="C9" r:id="rId14" xr:uid="{0B7D3769-EE31-43A5-B3CF-D55507AC3D1A}"/>
+    <hyperlink ref="C10" r:id="rId15" xr:uid="{08118288-1C17-4AC3-81BC-6052C20295DE}"/>
+    <hyperlink ref="C11" r:id="rId16" xr:uid="{566D15A6-6786-430F-B9F0-0F47E6191CB6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pwb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9887758A-B5B7-4209-8986-2320822B0F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14CEAB5-09EB-47D3-BB9E-E0083D6876A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="279">
   <si>
     <t>description</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1264,6 +1267,22 @@
 （資料來源）
 內政部國土管理署。</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>件</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1353,24 +1372,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1701,1266 +1749,1602 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B112" sqref="B112"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B106" sqref="B106:B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="65.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="2" width="37.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="65.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>206</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>220</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>224</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D54" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D55" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D56" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D57" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D58" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D59" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D60" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D61" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D62" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D63" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D64" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D65" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D66" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D67" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D68" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D69" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D70" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D71" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D72" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D73" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D74" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D75" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D76" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D77" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D78" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D79" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D80" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D81" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D82" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D83" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D84" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D85" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D86" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D87" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D88" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D89" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D90" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D91" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D92" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D93" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D94" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D95" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D96" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D97" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D98" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D99" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D100" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D101" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D102" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D103" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D104" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="D105" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>267</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>269</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>271</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>232</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{E04A5E3F-0E4A-45C8-AC0D-2A8449678D21}"/>
-    <hyperlink ref="C54" r:id="rId2" xr:uid="{C6D28A8B-8BBD-4090-9C7B-D52D5806A8C3}"/>
-    <hyperlink ref="C3:C53" r:id="rId3" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{CCB64119-5E05-450D-A450-16B31360075D}"/>
-    <hyperlink ref="C55:C73" r:id="rId4" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004100.aspx?CategoryID=f41e2ae5-b3bd-45ff-8c35-969765348635" xr:uid="{A9197B14-6D8D-4E3E-B739-D9936BE56CA9}"/>
-    <hyperlink ref="C74:C105" r:id="rId5" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004100.aspx?CategoryID=f41e2ae5-b3bd-45ff-8c35-969765348635" xr:uid="{532D07CA-436D-462D-B6A8-F132CFD78A3D}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{E04A5E3F-0E4A-45C8-AC0D-2A8449678D21}"/>
+    <hyperlink ref="D54" r:id="rId2" xr:uid="{C6D28A8B-8BBD-4090-9C7B-D52D5806A8C3}"/>
+    <hyperlink ref="D3:D53" r:id="rId3" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{CCB64119-5E05-450D-A450-16B31360075D}"/>
+    <hyperlink ref="D55:D73" r:id="rId4" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004100.aspx?CategoryID=f41e2ae5-b3bd-45ff-8c35-969765348635" xr:uid="{A9197B14-6D8D-4E3E-B739-D9936BE56CA9}"/>
+    <hyperlink ref="D74:D105" r:id="rId5" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004100.aspx?CategoryID=f41e2ae5-b3bd-45ff-8c35-969765348635" xr:uid="{532D07CA-436D-462D-B6A8-F132CFD78A3D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pwb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14CEAB5-09EB-47D3-BB9E-E0083D6876A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4A27D1-8F73-4908-A173-BFE971452E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$133</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="323">
   <si>
     <t>description</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1162,36 +1162,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>113年新北市工務局核發建築物使用執照統計件數432件。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年臺北市工務局核發建築物使用執照統計件數191件。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年桃園市工務局核發建築物使用執照統計件數1317件。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年臺中市工務局核發建築物使用執照統計件數1927件。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年臺南市工務局核發建築物使用執照統計件數3370件。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>113年工務局使照件數</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1213,16 +1183,6 @@
   </si>
   <si>
     <t>113年臺南市使照件數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年高雄市工務局核發建築物使用執照統計件數2,117件。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年六都使照比較</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1283,6 +1243,378 @@
   </si>
   <si>
     <t>件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年六都使照件數比較</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局使照總樓地板面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新北市使照總樓地板面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺北市使照總樓地板面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年桃園市使照總樓地板面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺中市使照總樓地板面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺南市使照總樓地板面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年六都使照總樓地板面積比較</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方公尺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>113年六都核發建築物使用執照統計總樓地板面積
+桃園市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>5,596,805平方公尺
+臺中市：5,109,022平方公尺
+新北市：3,613,488平方公尺
+高雄市：3,367,164平方公尺
+臺南市：2,995,382平方公尺
+臺北市：2,580,751平方公尺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+（資料來源）
+內政部國土管理署。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局使照棟數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新北市使照棟數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺北市使照棟數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年桃園市使照棟數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺中市使照棟數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺南市使照棟數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年六都使照棟數比較</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>棟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>113年六都核發建築物使用執照統計棟數
+臺南市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>4,685棟
+臺中市：4,666棟
+桃園市：3,613棟
+高雄市：3,260棟
+新北市：748棟
+臺北市：234棟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+（資料來源）
+內政部國土管理署。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局使照工程造價</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新北市使照工程造價</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺北市使照工程造價</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年桃園市使照工程造價</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺中市使照工程造價</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺南市使照工程造價</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年六都使照工程造價比較</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>113年六都核發建築物使用執照統計工程造價
+桃園市：62,138,632千元
+臺中市：54,792,612千元
+新北市：48,548,753千元
+臺北市：43,418,798千元
+高雄市：27,049,819千元
+臺南市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">20,492,126千元
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（資料來源）
+內政部國土管理署。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年高雄市核發建築物使用執照統計件數2,117件。
+（資料來源）
+內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新北市核發建築物使用執照統計件數432件。
+（資料來源）
+內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺北市核發建築物使用執照統計件數191件。
+（資料來源）
+內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年桃園市核發建築物使用執照統計件數1317件。
+（資料來源）
+內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺中市核發建築物使用執照統計件數1927件。
+（資料來源）
+內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺南市核發建築物使用執照統計件數3370件。
+（資料來源）
+內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年高雄市核發建築物使用執照統計總樓地板面積3,367,164平方公尺。
+（資料來源）
+內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新北市核發建築物使用執照統計總樓地板面積3,613,488平方公尺。
+（資料來源）
+內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺北市核發建築物使用執照統計總樓地板面積2,580,751平方公尺。
+（資料來源）
+內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年桃園市核發建築物使用執照統計總樓地板面積5,596,805平方公尺。
+（資料來源）
+內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺中市核發建築物使用執照統計總樓地板面積5,109,022平方公尺。
+（資料來源）
+內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺南市核發建築物使用執照統計總樓地板面積2,995,382平方公尺。
+（資料來源）
+內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年高雄市核發建築物使用執照統計總樓地板面積3,260棟。
+（資料來源）
+內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新北市核發建築物使用執照統計總樓地板面積748棟。
+（資料來源）
+內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺北市核發建築物使用執照統計總樓地板面積234棟。
+（資料來源）
+內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年桃園市核發建築物使用執照統計總樓地板面積3,613棟。
+（資料來源）
+內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺中市核發建築物使用執照統計總樓地板面積4,666棟。
+（資料來源）
+內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺南市核發建築物使用執照統計總樓地板面積4,685棟。
+（資料來源）
+內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年高雄市核發建築物使用執照統計工程造價27,049,819千元。
+（資料來源）
+內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新北市核發建築物使用執照統計工程造價48,548,753千元。
+（資料來源）
+內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺北市核發建築物使用執照統計工程造價43,418,798千元。
+（資料來源）
+內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年桃園市核發建築物使用執照統計工程造價62,138,632千元。
+（資料來源）
+內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺中市核發建築物使用執照統計工程造價54,792,612千元。
+（資料來源）
+內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺南市核發建築物使用執照統計工程造價20,492,126千元。
+（資料來源）
+內政部國土管理署。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1388,37 +1720,7 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1749,11 +2051,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B106" sqref="B106:B112"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1768,7 +2070,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1782,7 +2084,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>36</v>
@@ -1796,7 +2098,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>37</v>
@@ -1810,7 +2112,7 @@
         <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>49</v>
@@ -1824,7 +2126,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>48</v>
@@ -1838,7 +2140,7 @@
         <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>47</v>
@@ -1852,7 +2154,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>54</v>
@@ -1866,7 +2168,7 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>55</v>
@@ -1880,7 +2182,7 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>56</v>
@@ -1894,7 +2196,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>57</v>
@@ -1908,7 +2210,7 @@
         <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>58</v>
@@ -1922,7 +2224,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>38</v>
@@ -1936,7 +2238,7 @@
         <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>61</v>
@@ -1950,7 +2252,7 @@
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>39</v>
@@ -1964,7 +2266,7 @@
         <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>63</v>
@@ -1978,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>40</v>
@@ -1992,7 +2294,7 @@
         <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>65</v>
@@ -2006,7 +2308,7 @@
         <v>176</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>177</v>
@@ -2020,7 +2322,7 @@
         <v>178</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>179</v>
@@ -2034,7 +2336,7 @@
         <v>180</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>181</v>
@@ -2048,7 +2350,7 @@
         <v>182</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>183</v>
@@ -2062,7 +2364,7 @@
         <v>184</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>185</v>
@@ -2076,7 +2378,7 @@
         <v>186</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>187</v>
@@ -2090,7 +2392,7 @@
         <v>188</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>189</v>
@@ -2104,7 +2406,7 @@
         <v>190</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>191</v>
@@ -2118,7 +2420,7 @@
         <v>192</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>193</v>
@@ -2132,7 +2434,7 @@
         <v>194</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>195</v>
@@ -2146,7 +2448,7 @@
         <v>196</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>197</v>
@@ -2160,7 +2462,7 @@
         <v>198</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>199</v>
@@ -2174,7 +2476,7 @@
         <v>200</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>201</v>
@@ -2188,7 +2490,7 @@
         <v>202</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>203</v>
@@ -2202,7 +2504,7 @@
         <v>204</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>205</v>
@@ -2216,7 +2518,7 @@
         <v>206</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>207</v>
@@ -2230,7 +2532,7 @@
         <v>208</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>209</v>
@@ -2244,7 +2546,7 @@
         <v>210</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>211</v>
@@ -2258,7 +2560,7 @@
         <v>212</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>213</v>
@@ -2272,7 +2574,7 @@
         <v>11</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>41</v>
@@ -2286,7 +2588,7 @@
         <v>66</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>67</v>
@@ -2300,7 +2602,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>42</v>
@@ -2314,7 +2616,7 @@
         <v>68</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>69</v>
@@ -2328,7 +2630,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>43</v>
@@ -2342,7 +2644,7 @@
         <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>71</v>
@@ -2356,7 +2658,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>44</v>
@@ -2370,7 +2672,7 @@
         <v>72</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>73</v>
@@ -2384,7 +2686,7 @@
         <v>214</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>215</v>
@@ -2398,7 +2700,7 @@
         <v>216</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>217</v>
@@ -2412,7 +2714,7 @@
         <v>218</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>219</v>
@@ -2426,7 +2728,7 @@
         <v>220</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>221</v>
@@ -2440,7 +2742,7 @@
         <v>222</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>223</v>
@@ -2454,7 +2756,7 @@
         <v>224</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>225</v>
@@ -2468,7 +2770,7 @@
         <v>226</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>227</v>
@@ -2482,7 +2784,7 @@
         <v>228</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>229</v>
@@ -2496,7 +2798,7 @@
         <v>230</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>231</v>
@@ -2510,7 +2812,7 @@
         <v>12</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>79</v>
@@ -2524,7 +2826,7 @@
         <v>74</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>81</v>
@@ -2538,7 +2840,7 @@
         <v>75</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>83</v>
@@ -2552,7 +2854,7 @@
         <v>76</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>233</v>
@@ -2566,7 +2868,7 @@
         <v>77</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>234</v>
@@ -2580,7 +2882,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>235</v>
@@ -2594,7 +2896,7 @@
         <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>236</v>
@@ -2608,7 +2910,7 @@
         <v>85</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>237</v>
@@ -2622,7 +2924,7 @@
         <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>238</v>
@@ -2636,7 +2938,7 @@
         <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>239</v>
@@ -2650,7 +2952,7 @@
         <v>6</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>240</v>
@@ -2664,7 +2966,7 @@
         <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>241</v>
@@ -2678,7 +2980,7 @@
         <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>242</v>
@@ -2692,7 +2994,7 @@
         <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>243</v>
@@ -2706,7 +3008,7 @@
         <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>244</v>
@@ -2720,7 +3022,7 @@
         <v>13</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>78</v>
@@ -2734,7 +3036,7 @@
         <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>80</v>
@@ -2748,7 +3050,7 @@
         <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>82</v>
@@ -2762,7 +3064,7 @@
         <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>233</v>
@@ -2776,7 +3078,7 @@
         <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>234</v>
@@ -2790,7 +3092,7 @@
         <v>132</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>134</v>
@@ -2804,7 +3106,7 @@
         <v>133</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>135</v>
@@ -2818,7 +3120,7 @@
         <v>130</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>134</v>
@@ -2832,7 +3134,7 @@
         <v>131</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>135</v>
@@ -2846,7 +3148,7 @@
         <v>138</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>245</v>
@@ -2860,7 +3162,7 @@
         <v>139</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>246</v>
@@ -2874,7 +3176,7 @@
         <v>136</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>247</v>
@@ -2888,7 +3190,7 @@
         <v>137</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>248</v>
@@ -2902,7 +3204,7 @@
         <v>140</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>145</v>
@@ -2916,7 +3218,7 @@
         <v>141</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>147</v>
@@ -2930,7 +3232,7 @@
         <v>142</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>144</v>
@@ -2944,7 +3246,7 @@
         <v>143</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>146</v>
@@ -2958,7 +3260,7 @@
         <v>148</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>249</v>
@@ -2972,7 +3274,7 @@
         <v>149</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>250</v>
@@ -2986,7 +3288,7 @@
         <v>150</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>251</v>
@@ -3000,7 +3302,7 @@
         <v>151</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>252</v>
@@ -3014,7 +3316,7 @@
         <v>152</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>155</v>
@@ -3028,7 +3330,7 @@
         <v>153</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>154</v>
@@ -3042,7 +3344,7 @@
         <v>156</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>253</v>
@@ -3056,7 +3358,7 @@
         <v>157</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>254</v>
@@ -3070,7 +3372,7 @@
         <v>158</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>163</v>
@@ -3084,7 +3386,7 @@
         <v>159</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>162</v>
@@ -3098,7 +3400,7 @@
         <v>160</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>255</v>
@@ -3112,7 +3414,7 @@
         <v>161</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>256</v>
@@ -3126,7 +3428,7 @@
         <v>164</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>173</v>
@@ -3140,7 +3442,7 @@
         <v>165</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>175</v>
@@ -3154,7 +3456,7 @@
         <v>166</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>172</v>
@@ -3168,7 +3470,7 @@
         <v>167</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>174</v>
@@ -3182,7 +3484,7 @@
         <v>168</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>257</v>
@@ -3196,7 +3498,7 @@
         <v>169</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>258</v>
@@ -3210,7 +3512,7 @@
         <v>170</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>259</v>
@@ -3224,7 +3526,7 @@
         <v>171</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>260</v>
@@ -3235,13 +3537,13 @@
     </row>
     <row r="106" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>232</v>
@@ -3249,13 +3551,13 @@
     </row>
     <row r="107" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>232</v>
@@ -3263,13 +3565,13 @@
     </row>
     <row r="108" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>232</v>
@@ -3277,13 +3579,13 @@
     </row>
     <row r="109" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>232</v>
@@ -3291,13 +3593,13 @@
     </row>
     <row r="110" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>232</v>
@@ -3305,13 +3607,13 @@
     </row>
     <row r="111" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="C111" s="2" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>232</v>
@@ -3319,25 +3621,318 @@
     </row>
     <row r="112" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>232</v>
       </c>
     </row>
+    <row r="113" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{E04A5E3F-0E4A-45C8-AC0D-2A8449678D21}"/>

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pwb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4A27D1-8F73-4908-A173-BFE971452E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7886B53-1D06-4CA5-A70E-D217C94EBA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$133</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="328">
   <si>
     <t>description</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1615,6 +1615,26 @@
     <t>113年臺南市核發建築物使用執照統計工程造價20,492,126千元。
 （資料來源）
 內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>決算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六都使照</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2051,1895 +2071,2296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="37.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="65.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="3" width="37.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="65.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C3" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C4" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C5" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C6" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C7" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C8" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C9" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C10" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C11" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C12" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C13" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C14" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C15" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C16" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C17" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C18" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C19" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C20" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C21" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C22" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C23" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C24" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C25" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C26" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C27" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C28" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C29" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C30" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C31" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C32" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C33" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C34" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C35" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C36" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C37" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C38" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C39" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C40" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C41" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C42" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C43" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C44" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C45" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C46" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C47" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C48" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C49" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C50" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C51" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C52" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C53" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C54" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E54" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C55" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E55" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C56" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E56" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C57" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E57" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C58" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E58" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C59" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E59" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C60" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E60" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C61" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E61" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C62" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E62" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C63" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E63" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C64" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E64" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C65" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E65" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C66" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E66" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C67" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E67" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C68" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E68" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C69" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E69" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E70" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C71" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E71" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C72" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E72" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C73" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E73" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C74" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E74" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C75" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E75" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C76" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E76" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C77" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E77" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C78" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E78" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C79" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E79" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C80" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E80" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C81" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E81" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C82" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E82" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C83" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E83" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C84" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E84" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C85" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E85" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C86" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E86" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C87" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E87" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C88" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E88" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C89" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E89" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C90" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E90" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C91" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E91" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C92" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E92" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C93" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E93" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C94" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E94" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C95" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E95" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C96" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E96" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C97" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E97" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C98" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E98" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C99" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E99" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C100" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E100" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C101" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E101" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C102" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E102" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C103" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E103" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C104" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E104" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C105" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="E105" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="C118" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="C121" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="E121" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="D124" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="E124" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="D125" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="E125" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="C126" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="D126" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C127" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C128" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C129" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C130" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="E130" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C131" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C132" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C133" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>232</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{E04A5E3F-0E4A-45C8-AC0D-2A8449678D21}"/>
-    <hyperlink ref="D54" r:id="rId2" xr:uid="{C6D28A8B-8BBD-4090-9C7B-D52D5806A8C3}"/>
-    <hyperlink ref="D3:D53" r:id="rId3" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{CCB64119-5E05-450D-A450-16B31360075D}"/>
-    <hyperlink ref="D55:D73" r:id="rId4" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004100.aspx?CategoryID=f41e2ae5-b3bd-45ff-8c35-969765348635" xr:uid="{A9197B14-6D8D-4E3E-B739-D9936BE56CA9}"/>
-    <hyperlink ref="D74:D105" r:id="rId5" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004100.aspx?CategoryID=f41e2ae5-b3bd-45ff-8c35-969765348635" xr:uid="{532D07CA-436D-462D-B6A8-F132CFD78A3D}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{E04A5E3F-0E4A-45C8-AC0D-2A8449678D21}"/>
+    <hyperlink ref="E54" r:id="rId2" xr:uid="{C6D28A8B-8BBD-4090-9C7B-D52D5806A8C3}"/>
+    <hyperlink ref="E3:E53" r:id="rId3" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{CCB64119-5E05-450D-A450-16B31360075D}"/>
+    <hyperlink ref="E55:E73" r:id="rId4" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004100.aspx?CategoryID=f41e2ae5-b3bd-45ff-8c35-969765348635" xr:uid="{A9197B14-6D8D-4E3E-B739-D9936BE56CA9}"/>
+    <hyperlink ref="E74:E105" r:id="rId5" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004100.aspx?CategoryID=f41e2ae5-b3bd-45ff-8c35-969765348635" xr:uid="{532D07CA-436D-462D-B6A8-F132CFD78A3D}"/>
+    <hyperlink ref="E132" r:id="rId6" xr:uid="{2CCF6CC1-E385-4592-9ACF-B2EE89B82D98}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pwb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7886B53-1D06-4CA5-A70E-D217C94EBA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED847DAE-3E7B-494B-AD30-3B3D41C04038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="變動" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">變動!$A$1:$F$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="332">
   <si>
     <t>description</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -975,11 +977,6 @@
   </si>
   <si>
     <t>113年違建大隊委任人數</t>
-  </si>
-  <si>
-    <t>113年違建大隊職員委任總計15人，其中男生10人(占66.67%)、女生5人(占33.33%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
   </si>
   <si>
     <t>112年違建大隊委任人數</t>
@@ -1635,6 +1632,30 @@
   </si>
   <si>
     <t>六都使照</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年違建大隊職員委任總計15人，其中男生10人(占66.67%)、女生5人(占33.33%)。
+（資料來源）
+高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_url_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（資料來源）
+高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（資料來源）
+高雄市政府工務局工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1724,7 +1745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1735,12 +1756,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2073,9 +2127,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K127" sqref="K127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2088,13 +2142,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -2105,13 +2159,13 @@
     </row>
     <row r="2" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>36</v>
@@ -2122,13 +2176,13 @@
     </row>
     <row r="3" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>37</v>
@@ -2139,13 +2193,13 @@
     </row>
     <row r="4" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>49</v>
@@ -2156,13 +2210,13 @@
     </row>
     <row r="5" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>48</v>
@@ -2173,13 +2227,13 @@
     </row>
     <row r="6" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>47</v>
@@ -2190,13 +2244,13 @@
     </row>
     <row r="7" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>54</v>
@@ -2207,13 +2261,13 @@
     </row>
     <row r="8" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>55</v>
@@ -2224,13 +2278,13 @@
     </row>
     <row r="9" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>56</v>
@@ -2241,13 +2295,13 @@
     </row>
     <row r="10" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>57</v>
@@ -2258,13 +2312,13 @@
     </row>
     <row r="11" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>58</v>
@@ -2275,13 +2329,13 @@
     </row>
     <row r="12" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>38</v>
@@ -2292,13 +2346,13 @@
     </row>
     <row r="13" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>61</v>
@@ -2309,13 +2363,13 @@
     </row>
     <row r="14" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>39</v>
@@ -2326,13 +2380,13 @@
     </row>
     <row r="15" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>63</v>
@@ -2343,13 +2397,13 @@
     </row>
     <row r="16" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>40</v>
@@ -2360,13 +2414,13 @@
     </row>
     <row r="17" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>65</v>
@@ -2377,13 +2431,13 @@
     </row>
     <row r="18" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>177</v>
@@ -2394,13 +2448,13 @@
     </row>
     <row r="19" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>179</v>
@@ -2411,13 +2465,13 @@
     </row>
     <row r="20" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>181</v>
@@ -2428,13 +2482,13 @@
     </row>
     <row r="21" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>182</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>183</v>
@@ -2445,13 +2499,13 @@
     </row>
     <row r="22" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>185</v>
@@ -2462,13 +2516,13 @@
     </row>
     <row r="23" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>187</v>
@@ -2479,13 +2533,13 @@
     </row>
     <row r="24" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>188</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>189</v>
@@ -2496,13 +2550,13 @@
     </row>
     <row r="25" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>191</v>
@@ -2513,13 +2567,13 @@
     </row>
     <row r="26" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>192</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>193</v>
@@ -2530,13 +2584,13 @@
     </row>
     <row r="27" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>195</v>
@@ -2547,13 +2601,13 @@
     </row>
     <row r="28" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>197</v>
@@ -2564,13 +2618,13 @@
     </row>
     <row r="29" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>198</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>199</v>
@@ -2581,13 +2635,13 @@
     </row>
     <row r="30" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>201</v>
@@ -2598,13 +2652,13 @@
     </row>
     <row r="31" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>203</v>
@@ -2615,13 +2669,13 @@
     </row>
     <row r="32" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>205</v>
@@ -2632,13 +2686,13 @@
     </row>
     <row r="33" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>206</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>207</v>
@@ -2649,13 +2703,13 @@
     </row>
     <row r="34" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>209</v>
@@ -2666,13 +2720,13 @@
     </row>
     <row r="35" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>210</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>211</v>
@@ -2683,13 +2737,13 @@
     </row>
     <row r="36" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>213</v>
@@ -2700,13 +2754,13 @@
     </row>
     <row r="37" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>41</v>
@@ -2717,13 +2771,13 @@
     </row>
     <row r="38" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>67</v>
@@ -2734,13 +2788,13 @@
     </row>
     <row r="39" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>42</v>
@@ -2751,13 +2805,13 @@
     </row>
     <row r="40" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>69</v>
@@ -2768,13 +2822,13 @@
     </row>
     <row r="41" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>43</v>
@@ -2785,13 +2839,13 @@
     </row>
     <row r="42" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>71</v>
@@ -2802,13 +2856,13 @@
     </row>
     <row r="43" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>44</v>
@@ -2819,13 +2873,13 @@
     </row>
     <row r="44" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>73</v>
@@ -2836,13 +2890,13 @@
     </row>
     <row r="45" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>215</v>
@@ -2853,13 +2907,13 @@
     </row>
     <row r="46" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>217</v>
@@ -2870,13 +2924,13 @@
     </row>
     <row r="47" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>218</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>219</v>
@@ -2887,13 +2941,13 @@
     </row>
     <row r="48" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>221</v>
@@ -2904,13 +2958,13 @@
     </row>
     <row r="49" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>223</v>
@@ -2921,13 +2975,13 @@
     </row>
     <row r="50" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>225</v>
@@ -2938,13 +2992,13 @@
     </row>
     <row r="51" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>227</v>
@@ -2955,16 +3009,16 @@
     </row>
     <row r="52" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>229</v>
+        <v>327</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>128</v>
@@ -2972,16 +3026,16 @@
     </row>
     <row r="53" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>129</v>
@@ -2989,13 +3043,13 @@
     </row>
     <row r="54" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>79</v>
@@ -3006,13 +3060,13 @@
     </row>
     <row r="55" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>81</v>
@@ -3023,13 +3077,13 @@
     </row>
     <row r="56" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>83</v>
@@ -3040,16 +3094,16 @@
     </row>
     <row r="57" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>33</v>
@@ -3057,16 +3111,16 @@
     </row>
     <row r="58" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>33</v>
@@ -3074,16 +3128,16 @@
     </row>
     <row r="59" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>33</v>
@@ -3091,16 +3145,16 @@
     </row>
     <row r="60" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>33</v>
@@ -3108,16 +3162,16 @@
     </row>
     <row r="61" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>33</v>
@@ -3125,16 +3179,16 @@
     </row>
     <row r="62" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>33</v>
@@ -3142,16 +3196,16 @@
     </row>
     <row r="63" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>33</v>
@@ -3159,16 +3213,16 @@
     </row>
     <row r="64" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>33</v>
@@ -3176,16 +3230,16 @@
     </row>
     <row r="65" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>33</v>
@@ -3193,16 +3247,16 @@
     </row>
     <row r="66" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>33</v>
@@ -3210,16 +3264,16 @@
     </row>
     <row r="67" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>33</v>
@@ -3227,16 +3281,16 @@
     </row>
     <row r="68" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>33</v>
@@ -3244,13 +3298,13 @@
     </row>
     <row r="69" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>78</v>
@@ -3261,13 +3315,13 @@
     </row>
     <row r="70" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>80</v>
@@ -3278,13 +3332,13 @@
     </row>
     <row r="71" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>82</v>
@@ -3295,16 +3349,16 @@
     </row>
     <row r="72" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>33</v>
@@ -3312,16 +3366,16 @@
     </row>
     <row r="73" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>33</v>
@@ -3329,13 +3383,13 @@
     </row>
     <row r="74" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>134</v>
@@ -3346,13 +3400,13 @@
     </row>
     <row r="75" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>135</v>
@@ -3363,13 +3417,13 @@
     </row>
     <row r="76" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>134</v>
@@ -3380,13 +3434,13 @@
     </row>
     <row r="77" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>135</v>
@@ -3397,16 +3451,16 @@
     </row>
     <row r="78" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>33</v>
@@ -3414,16 +3468,16 @@
     </row>
     <row r="79" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>33</v>
@@ -3431,16 +3485,16 @@
     </row>
     <row r="80" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>33</v>
@@ -3448,16 +3502,16 @@
     </row>
     <row r="81" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>33</v>
@@ -3465,13 +3519,13 @@
     </row>
     <row r="82" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>145</v>
@@ -3482,13 +3536,13 @@
     </row>
     <row r="83" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>147</v>
@@ -3499,13 +3553,13 @@
     </row>
     <row r="84" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>144</v>
@@ -3516,13 +3570,13 @@
     </row>
     <row r="85" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>146</v>
@@ -3533,16 +3587,16 @@
     </row>
     <row r="86" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>33</v>
@@ -3550,16 +3604,16 @@
     </row>
     <row r="87" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>33</v>
@@ -3567,16 +3621,16 @@
     </row>
     <row r="88" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>33</v>
@@ -3584,16 +3638,16 @@
     </row>
     <row r="89" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>33</v>
@@ -3601,13 +3655,13 @@
     </row>
     <row r="90" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>155</v>
@@ -3618,13 +3672,13 @@
     </row>
     <row r="91" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>154</v>
@@ -3635,16 +3689,16 @@
     </row>
     <row r="92" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>33</v>
@@ -3652,16 +3706,16 @@
     </row>
     <row r="93" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>33</v>
@@ -3669,13 +3723,13 @@
     </row>
     <row r="94" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>163</v>
@@ -3686,13 +3740,13 @@
     </row>
     <row r="95" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>162</v>
@@ -3703,16 +3757,16 @@
     </row>
     <row r="96" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>33</v>
@@ -3720,16 +3774,16 @@
     </row>
     <row r="97" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>33</v>
@@ -3737,13 +3791,13 @@
     </row>
     <row r="98" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>173</v>
@@ -3754,13 +3808,13 @@
     </row>
     <row r="99" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>175</v>
@@ -3771,13 +3825,13 @@
     </row>
     <row r="100" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>172</v>
@@ -3788,13 +3842,13 @@
     </row>
     <row r="101" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>174</v>
@@ -3805,16 +3859,16 @@
     </row>
     <row r="102" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>33</v>
@@ -3822,16 +3876,16 @@
     </row>
     <row r="103" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>33</v>
@@ -3839,16 +3893,16 @@
     </row>
     <row r="104" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>33</v>
@@ -3856,16 +3910,16 @@
     </row>
     <row r="105" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>33</v>
@@ -3873,486 +3927,486 @@
     </row>
     <row r="106" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="E119" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="D126" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="E126" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="E133" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{E04A5E3F-0E4A-45C8-AC0D-2A8449678D21}"/>
@@ -4361,6 +4415,463 @@
     <hyperlink ref="E55:E73" r:id="rId4" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004100.aspx?CategoryID=f41e2ae5-b3bd-45ff-8c35-969765348635" xr:uid="{A9197B14-6D8D-4E3E-B739-D9936BE56CA9}"/>
     <hyperlink ref="E74:E105" r:id="rId5" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004100.aspx?CategoryID=f41e2ae5-b3bd-45ff-8c35-969765348635" xr:uid="{532D07CA-436D-462D-B6A8-F132CFD78A3D}"/>
     <hyperlink ref="E132" r:id="rId6" xr:uid="{2CCF6CC1-E385-4592-9ACF-B2EE89B82D98}"/>
+    <hyperlink ref="E131" r:id="rId7" xr:uid="{226B9A5F-E52E-497F-A3E9-03F336CF69E6}"/>
+    <hyperlink ref="E97" r:id="rId8" xr:uid="{DC1711A3-EA39-46CB-BD50-47E60F79C0E7}"/>
+    <hyperlink ref="E133" r:id="rId9" xr:uid="{98F73A7D-080E-4A70-B55F-6D3BD4259CAA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930C632C-357C-434E-ACAC-E04327E9DDAD}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="4" width="37.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="65.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" s="2">
+        <v>524</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="2">
+        <v>519</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="2">
+        <v>500</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="2">
+        <v>512</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="2">
+        <v>527</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="2">
+        <v>524</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="2">
+        <v>519</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="2">
+        <v>500</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10" s="2">
+        <v>512</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" s="2">
+        <v>527</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="2">
+        <v>8194228</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="4">
+        <v>11176272</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D14" s="4">
+        <v>6451086</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="4">
+        <v>8245850</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="4">
+        <v>10282647</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="4">
+        <v>5786539</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D18" s="4">
+        <v>9724004</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5786539</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" s="4">
+        <v>7802477</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="4">
+        <v>7956981</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{EB35A56F-9226-4643-BEA2-ACC781812936}"/>
+    <hyperlink ref="F12" r:id="rId2" xr:uid="{F39B1FB2-595F-4653-9F66-6E3D228E078E}"/>
+    <hyperlink ref="F3:F11" r:id="rId3" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{54F0F109-215D-42BF-B272-549DFB296071}"/>
+    <hyperlink ref="F13:F21" r:id="rId4" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004100.aspx?CategoryID=f41e2ae5-b3bd-45ff-8c35-969765348635" xr:uid="{7D3B283A-2612-4495-9DAB-91B983297E96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pwb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED847DAE-3E7B-494B-AD30-3B3D41C04038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457B9C93-B921-4CA7-A858-865E0DDF97B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="323">
   <si>
     <t>description</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -163,1023 +163,1112 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>113年工務局暨所屬職員總計524人，其中男生332人(占63.36%)、女生192人(占36.64%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
+    <t>110年工務局暨所屬職員人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年工務局暨所屬職員人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年工務局職員人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年工務局職員人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年工務局職員人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年工務局職員人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局薦任人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年工務局簡任人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年工務局薦任人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年工務局委任人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年公園處職員人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年公園處簡任人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年公園處薦任人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年公園處委任人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年工務局主管預算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年工務局主管預算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年工務局主管預算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年工務局主管預算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年工務局主管經常門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年工務局主管經常門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年工務局主管經常門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年工務局主管經常門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年工務局主管資本門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年工務局主管資本門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年工務局主管資本門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年工務局主管資本門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年工務局主管決算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年工務局主管決算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年工務局主管決算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年工務局主管決算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7093</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7110</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7112</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7113</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7114</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7115</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7116</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7117</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7118</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7119</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7120</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7121</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7122</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7123</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7124</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7125</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7126</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7127</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7128</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7129</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7130</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7131</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7132</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7133</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7134</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7135</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7136</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7137</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7138</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7139</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7140</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7141</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7142</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7143</t>
+  </si>
+  <si>
+    <t>113年工務局決算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年工務局決算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局預算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年工務局預算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局資本門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年工務局資本門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局經常門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年工務局經常門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新工處預算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年新工處預算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新工處決算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年新工處決算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新工處經常門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年新工處經常門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新工處資本門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年新工處資本門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年道工處預算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年道工處決算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年道工處經常門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年道工處資本門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年公園處預算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年公園處決算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年公園處經常門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年公園處資本門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年違建大隊預算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年違建大隊預算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年違建大隊決算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年違建大隊決算數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年違建大隊經常門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年違建大隊經常門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年違建大隊資本門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年違建大隊資本門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新工處職員人數</t>
+  </si>
+  <si>
+    <t>112年新工處職員人數</t>
+  </si>
+  <si>
+    <t>111年新工處職員人數</t>
+  </si>
+  <si>
+    <t>110年新工處職員人數</t>
+  </si>
+  <si>
+    <t>109年新工處職員人數</t>
+  </si>
+  <si>
+    <t>113年新工處簡任人數</t>
+  </si>
+  <si>
+    <t>112年新工處簡任人數</t>
+  </si>
+  <si>
+    <t>113年新工處薦任人數</t>
+  </si>
+  <si>
+    <t>112年新工處薦任人數</t>
+  </si>
+  <si>
+    <t>113年新工處委任人數</t>
+  </si>
+  <si>
+    <t>112年新工處委任人數</t>
+  </si>
+  <si>
+    <t>113年道工處職員人數</t>
+  </si>
+  <si>
+    <t>112年道工處職員人數</t>
+  </si>
+  <si>
+    <t>113年道工處簡任人數</t>
+  </si>
+  <si>
+    <t>112年道工處簡任人數</t>
+  </si>
+  <si>
+    <t>113年道工處薦任人數</t>
+  </si>
+  <si>
+    <t>112年道工處薦任人數</t>
+  </si>
+  <si>
+    <t>113年道工處委任人數</t>
+  </si>
+  <si>
+    <t>112年道工處委任人數</t>
+  </si>
+  <si>
+    <t>113年違建大隊職員人數</t>
+  </si>
+  <si>
+    <t>112年違建大隊職員人數</t>
+  </si>
+  <si>
+    <t>111年違建大隊職員人數</t>
+  </si>
+  <si>
+    <t>110年違建大隊職員人數</t>
+  </si>
+  <si>
+    <t>109年違建大隊職員人數</t>
+  </si>
+  <si>
+    <t>113年違建大隊薦任人數</t>
+  </si>
+  <si>
+    <t>112年違建大隊薦任人數</t>
+  </si>
+  <si>
+    <t>113年違建大隊委任人數</t>
+  </si>
+  <si>
+    <t>112年違建大隊委任人數</t>
+  </si>
+  <si>
+    <t>https://www.nlma.gov.tw/ch/titlelist/stats</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局使照件數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新北市使照件數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺北市使照件數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年桃園市使照件數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺中市使照件數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺南市使照件數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年六都使照件數比較</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局使照總樓地板面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新北市使照總樓地板面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺北市使照總樓地板面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年桃園市使照總樓地板面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺中市使照總樓地板面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺南市使照總樓地板面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年六都使照總樓地板面積比較</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方公尺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局使照棟數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新北市使照棟數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺北市使照棟數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年桃園市使照棟數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺中市使照棟數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺南市使照棟數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年六都使照棟數比較</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>棟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局使照工程造價</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新北市使照工程造價</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺北市使照工程造價</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年桃園市使照工程造價</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺中市使照工程造價</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺南市使照工程造價</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年六都使照工程造價比較</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>決算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六都使照</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_url_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>113年工務局暨所屬職員總計524人，其中男生332人(占63.36%)、女生192人(占36.64%)。
+資料來源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>高雄市政府工務局性別統計年報。</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>112年工務局暨所屬職員總計519人，其中男生331人(占63.78%)、女生188人(占36.22%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年工務局暨所屬職員總計500人。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年工務局暨所屬職員總計512人。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年工務局暨所屬職員總計527人。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局職員總計524人，其中男生332人(占63.36%)、女生192人(占36.64%)。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年工務局職員總計519人，其中男生331人(占63.78%)、女生188人(占36.22%)。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年工務局職員總計500人。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年工務局職員總計512人。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年工務局職員總計527人。
+資料來源：高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年工務局職員簡任總計6人，其中男生5人(占83.33%)、女生1人(占16.67%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年工務局職員簡任總計7人，其中男生5人(占71.43%)、女生2人(占28.57%)。
+資料來源：高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年工務局職員薦任總計143人，其中男生94人(占65.73%)、女生49人(占34.27%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年工務局職員薦任總計148人，其中男生97人(占65.54%)、女生51人(占34.46%)。
+資料來源：高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年工務局職員委任總計39人，其中男生19人(占48.72%)、女生20人(占51.28%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年工務局職員委任總計40人，其中男生19人(占47.50%)、女生21人(占52.50%)。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新工處職員總計131人，其中男生80人(占61.07%)、女生51人(占38.93%)。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年新工處職員總計129人，其中男生80人(占62.02%)、女生49人(占37.98%)。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年新工處職員總計123人。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年新工處職員總計135人。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年新工處職員總計143人。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新工處職員簡任總計3人，均為男生。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年新工處職員簡任總計3人，均為男生。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新工處職員薦任總計94人，其中男生59人(占62.77%)、女生35人(占37.23%)。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年新工處職員薦任總計92人，其中男生61人(占66.30%)、女生31人(占33.70%)。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新工處職員委任總計34人，其中男生18人(占52.94%)、女生16人(占47.06%)。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年新工處職員委任總計34人，其中男生16人(占47.06%)、女生18人(占52.94%)。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年道工處職員總計82人，其中男生53人(占64.63%)、女生29人(占35.37%)。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年道工處職員總計75人，其中男生51人(占68.00%)、女生24人(占32.00%)。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年道工處職員簡任總計3人，均為男生。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年道工處職員簡任總計3人，均為男生。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年道工處職員薦任總計49人，其中男生34人(占69.39%)、女生15人(占30.61%)。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年道工處職員薦任總計51人，其中男生37人(占72.55%)、女生14人(占27.45%)。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年道工處職員委任總計30人，其中男生16人(占53.33%)、女生14人(占46.67%)。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年道工處職員委任總計21人，其中男生11人(占52.38%)、女生10人(占47.62%)。
+資料來源：高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年公園處職員總計94人，其中男生59人(占62.77%)、女生35人(占37.23%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年公園處職員總計90人，其中男生55人(占61.11%)、女生35人(占38.89%)。
+資料來源：高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年公園處職員簡任總計3人，均為男生。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年公園處職員簡任總計3人，其中男生2人(占66.67%)、女生1人(占33.33%)。
+資料來源：高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年公園處職員薦任總計61人，其中男生41人(占67.21%)、女生20人(占32.79%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年公園處職員薦任總計65人，其中男生43人(占66.115%)、女生22人(占33.85%)。
+資料來源：高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年公園處職員委任總計30人，其中男生15人(占50.00%)、女生15人(占50.00%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年工務局暨所屬職員人數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年工務局暨所屬職員人數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年工務局暨所屬職員總計527人。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年工務局暨所屬職員總計512人。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>111年工務局暨所屬職員總計500人。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年工務局職員人數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年工務局職員人數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>111年工務局職員人數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年工務局職員人數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年工務局職員總計524人，其中男生332人(占63.36%)、女生192人(占36.64%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年工務局職員總計519人，其中男生331人(占63.78%)、女生188人(占36.22%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>111年工務局職員總計500人。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年工務局職員總計512人。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年工務局職員總計527人。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年工務局薦任人數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年工務局簡任人數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年工務局職員簡任總計7人，其中男生5人(占71.43%)、女生2人(占28.57%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年工務局薦任人數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年工務局職員薦任總計148人，其中男生97人(占65.54%)、女生51人(占34.46%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年工務局委任人數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年工務局職員委任總計40人，其中男生19人(占47.50%)、女生21人(占52.50%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年公園處職員人數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年公園處職員總計90人，其中男生55人(占61.11%)、女生35人(占38.89%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年公園處簡任人數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年公園處職員簡任總計3人，其中男生2人(占66.67%)、女生1人(占33.33%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年公園處薦任人數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年公園處職員薦任總計65人，其中男生43人(占66.115%)、女生22人(占33.85%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年公園處委任人數</t>
+資料來源：高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>112年公園處職員委任總計22人，其中男生10人(占45.45%)、女生12人(占54.55%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年工務局主管預算數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>111年工務局主管預算數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年工務局主管預算數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年工務局主管預算數</t>
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年違建大隊職員總計30人，其中男生23人(占76.67%)、女生7人(占23.33%)。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年違建大隊職員總計30人，其中男生24人(占80.00%)、女生6人(占20.00%)。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年違建大隊職員總計30人。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年違建大隊職員總計31人。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年違建大隊職員總計32人。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年違建大隊職員薦任總計15人，其中男生13人(占86.67%)、女生2人(占13.33%)。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年違建大隊職員薦任總計16人，其中男生14人(占87.50%)、女生2人(占12.50%)。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年違建大隊職員委任總計15人，其中男生10人(占66.67%)、女生5人(占33.33%)。
+資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年違建大隊職員委任總計14人，其中男生10人(占71.43%)、女生4人(占28.57%)。
+資料來源：高雄市政府工務局性別統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年工務局主管預算數總計8,194,228千元，執行數5,786,539千元，執行率89.70%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-  </si>
-  <si>
-    <t>113年工務局主管預算數總計8,194,228千元，執行數5,786,539千元，執行率89.70%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
+資料來源：高雄市政府工務局工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>112年工務局主管預算數總計11,176,272千元，執行數9,724,004千元，執行率87.01%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-  </si>
-  <si>
-    <t>112年工務局主管預算數總計11,176,272千元，執行數9,724,004千元，執行率87.01%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
+資料來源：高雄市政府工務局工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>111年工務局主管預算數總計6,451,086千元，執行數5,786,539千元，執行率89.70%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-  </si>
-  <si>
-    <t>111年工務局主管預算數總計6,451,086千元，執行數5,786,539千元，執行率89.70%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年工務局主管經常門</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>111年工務局主管經常門</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年工務局主管經常門</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年工務局主管經常門</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年工務局主管資本門</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>111年工務局主管資本門</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年工務局主管資本門</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年工務局主管資本門</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年工務局主管決算數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>111年工務局主管決算數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年工務局主管決算數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年工務局主管決算數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7093</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7110</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7112</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7113</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7114</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7115</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7116</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7117</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7118</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7119</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7120</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7121</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7122</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7123</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7124</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7125</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7126</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7127</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7128</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7129</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7130</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7131</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7132</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7133</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7134</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7135</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7136</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7137</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7138</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7139</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7140</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7141</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7142</t>
-  </si>
-  <si>
-    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7143</t>
-  </si>
-  <si>
-    <t>113年工務局決算數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年工務局決算數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年工務局預算數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年工務局預算數</t>
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年工務局主管預算數總計8,245,850千元，執行數7,802,477千元，執行率94.62%。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年工務局主管預算數總計10,282,647千元，執行數7,956,981千元，執行率77.38%。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局主管經常門預算數總計2,023,521千元，執行數1,952,014千元，執行率96.47%。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年工務局主管經常門預算數總計1,869,536千元，執行數1,865,531千元，執行率99.79%。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年工務局主管經常門預算數總計1,676,504千元，執行數1,668,945千元，執行率99.55%。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年工務局主管經常門預算數總計1,589,348千元，執行數1,588,762千元，執行率99.96%。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年工務局主管經常門預算數總計1,675,272千元，執行數1,638,359千元，執行率97.80%。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局主管資本門預算數總計6,170,707千元，執行數5,831,206千元，執行率94.50%。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年工務局主管資本門預算數總計9,306,736千元，執行數7,858,473千元，執行率84.44%。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年工務局主管資本門預算數總計4,774,582千元，執行數4,117,594千元，執行率86.24%。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年工務局主管資本門預算數總計6,656,502千元，執行數6,213,715千元，執行率93.35%。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年工務局主管資本門預算數總計8,607,375千元，執行數6,318,622千元，執行率73.41%。
+資料來源：高雄市政府工務局工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年工務局預算數總計2,027,872千元，執行數1,949,643千元，執行率96.14%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
+資料來源：高雄市政府工務局工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>112年工務局預算數總計1,189,274千元，執行數1,171,922千元，執行率98.54%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年工務局資本門</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年工務局資本門</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年工務局經常門</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年工務局經常門</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年新工處預算數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年新工處預算數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年新工處決算數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年新工處決算數</t>
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局經常門預算數總計452,943千元，執行數405,914千元，執行率89.62%。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年工務局經常門預算數總計461,625千元，執行數457,619千元，執行率99.13%。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年工務局資本門預算數總計1,574,929千元，執行數1,543,729千元，執行率98.02%。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年工務局資本門預算數總計727,649千元，執行數714,302千元，執行率98.17%。
+資料來源：高雄市政府工務局工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年新工處預算數總計2,422,872千元，執行數2,276,432千元，執行率93.96%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-  </si>
-  <si>
-    <t>113年新工處預算數總計2,422,872千元，執行數2,276,432千元，執行率93.96%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
+資料來源：高雄市政府工務局工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>112年新工處預算數總計3,918,643千元，執行數3,191,298千元，執行率81.44%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-  </si>
-  <si>
-    <t>112年新工處預算數總計3,918,643千元，執行數3,191,298千元，執行率81.44%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年新工處經常門</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年新工處經常門</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年新工處資本門</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年新工處資本門</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年道工處預算數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年道工處決算數</t>
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新工處經常門預算數總計204,827千元，執行數203,183千元，執行率99.20%。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年新工處經常門預算數總計200,394千元，執行數200,394千元，執行率100.00%。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新工處資本門預算數總計2,218,045千元，執行數2,073,249千元，執行率93.47%。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年新工處資本門預算數總計3,718,249千元，執行數2,990,905千元，執行率80.44%。
+資料來源：高雄市政府工務局工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年道工處預算數總計1,104,230千元，執行數1,050,178千元，執行率95.11%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-  </si>
-  <si>
-    <t>113年道工處預算數總計1,104,230千元，執行數1,050,178千元，執行率95.11%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年道工處經常門</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年道工處資本門</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年公園處預算數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年公園處決算數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年公園處經常門</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年公園處資本門</t>
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年道工處經常門預算數總計215,007千元，執行數215,007千元，執行率100.00%。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年道工處資本門預算數總計889,223千元，執行數835,171千元，執行率93.92%。
+資料來源：高雄市政府工務局工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年公園處預算數總計2,547,412千元，執行數2,415,125千元，執行率94.81%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-  </si>
-  <si>
-    <t>113年公園處預算數總計2,547,412千元，執行數2,415,125千元，執行率94.81%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年違建大隊預算數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年違建大隊預算數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年違建大隊決算數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年違建大隊決算數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年違建大隊經常門</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年違建大隊經常門</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年違建大隊資本門</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年違建大隊資本門</t>
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年公園處經常門預算數總計1,062,260千元，執行數1,039,426千元，執行率97.85%。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年公園處資本門預算數總計1,485,152千元，執行數1,375,699千元，執行率92.63%。
+資料來源：高雄市政府工務局工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年違建大隊預算數總計91,842千元，執行數91,842千元，執行率100.00%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-  </si>
-  <si>
-    <t>113年違建大隊預算數總計91,842千元，執行數91,842千元，執行率100.00%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
+資料來源：高雄市政府工務局工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>112年違建大隊預算數總計95,551千元，執行數95,551千元，執行率100.00%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-  </si>
-  <si>
-    <t>112年違建大隊預算數總計95,551千元，執行數95,551千元，執行率100.00%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年新工處職員人數</t>
-  </si>
-  <si>
-    <t>113年新工處職員總計131人，其中男生80人(占61.07%)、女生51人(占38.93%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-  </si>
-  <si>
-    <t>112年新工處職員人數</t>
-  </si>
-  <si>
-    <t>112年新工處職員總計129人，其中男生80人(占62.02%)、女生49人(占37.98%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-  </si>
-  <si>
-    <t>111年新工處職員人數</t>
-  </si>
-  <si>
-    <t>111年新工處職員總計123人。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-  </si>
-  <si>
-    <t>110年新工處職員人數</t>
-  </si>
-  <si>
-    <t>110年新工處職員總計135人。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-  </si>
-  <si>
-    <t>109年新工處職員人數</t>
-  </si>
-  <si>
-    <t>109年新工處職員總計143人。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年新工處簡任人數</t>
-  </si>
-  <si>
-    <t>113年新工處職員簡任總計3人，均為男生。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-  </si>
-  <si>
-    <t>112年新工處簡任人數</t>
-  </si>
-  <si>
-    <t>112年新工處職員簡任總計3人，均為男生。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年新工處薦任人數</t>
-  </si>
-  <si>
-    <t>113年新工處職員薦任總計94人，其中男生59人(占62.77%)、女生35人(占37.23%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-  </si>
-  <si>
-    <t>112年新工處薦任人數</t>
-  </si>
-  <si>
-    <t>112年新工處職員薦任總計92人，其中男生61人(占66.30%)、女生31人(占33.70%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年新工處委任人數</t>
-  </si>
-  <si>
-    <t>113年新工處職員委任總計34人，其中男生18人(占52.94%)、女生16人(占47.06%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-  </si>
-  <si>
-    <t>112年新工處委任人數</t>
-  </si>
-  <si>
-    <t>112年新工處職員委任總計34人，其中男生16人(占47.06%)、女生18人(占52.94%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年道工處職員人數</t>
-  </si>
-  <si>
-    <t>113年道工處職員總計82人，其中男生53人(占64.63%)、女生29人(占35.37%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-  </si>
-  <si>
-    <t>112年道工處職員人數</t>
-  </si>
-  <si>
-    <t>112年道工處職員總計75人，其中男生51人(占68.00%)、女生24人(占32.00%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年道工處簡任人數</t>
-  </si>
-  <si>
-    <t>113年道工處職員簡任總計3人，均為男生。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-  </si>
-  <si>
-    <t>112年道工處簡任人數</t>
-  </si>
-  <si>
-    <t>112年道工處職員簡任總計3人，均為男生。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年道工處薦任人數</t>
-  </si>
-  <si>
-    <t>113年道工處職員薦任總計49人，其中男生34人(占69.39%)、女生15人(占30.61%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-  </si>
-  <si>
-    <t>112年道工處薦任人數</t>
-  </si>
-  <si>
-    <t>112年道工處職員薦任總計51人，其中男生37人(占72.55%)、女生14人(占27.45%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年道工處委任人數</t>
-  </si>
-  <si>
-    <t>113年道工處職員委任總計30人，其中男生16人(占53.33%)、女生14人(占46.67%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-  </si>
-  <si>
-    <t>112年道工處委任人數</t>
-  </si>
-  <si>
-    <t>112年道工處職員委任總計21人，其中男生11人(占52.38%)、女生10人(占47.62%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年違建大隊職員人數</t>
-  </si>
-  <si>
-    <t>113年違建大隊職員總計30人，其中男生23人(占76.67%)、女生7人(占23.33%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-  </si>
-  <si>
-    <t>112年違建大隊職員人數</t>
-  </si>
-  <si>
-    <t>112年違建大隊職員總計30人，其中男生24人(占80.00%)、女生6人(占20.00%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-  </si>
-  <si>
-    <t>111年違建大隊職員人數</t>
-  </si>
-  <si>
-    <t>111年違建大隊職員總計30人。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-  </si>
-  <si>
-    <t>110年違建大隊職員人數</t>
-  </si>
-  <si>
-    <t>110年違建大隊職員總計31人。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-  </si>
-  <si>
-    <t>109年違建大隊職員人數</t>
-  </si>
-  <si>
-    <t>109年違建大隊職員總計32人。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年違建大隊薦任人數</t>
-  </si>
-  <si>
-    <t>113年違建大隊職員薦任總計15人，其中男生13人(占86.67%)、女生2人(占13.33%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-  </si>
-  <si>
-    <t>112年違建大隊薦任人數</t>
-  </si>
-  <si>
-    <t>112年違建大隊職員薦任總計16人，其中男生14人(占87.50%)、女生2人(占12.50%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-  </si>
-  <si>
-    <t>113年違建大隊委任人數</t>
-  </si>
-  <si>
-    <t>112年違建大隊委任人數</t>
-  </si>
-  <si>
-    <t>112年違建大隊職員委任總計14人，其中男生10人(占71.43%)、女生4人(占28.57%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-  </si>
-  <si>
-    <t>https://www.nlma.gov.tw/ch/titlelist/stats</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年工務局主管預算數總計8,245,850千元，執行數7,802,477千元，執行率94.62%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年工務局主管預算數總計10,282,647千元，執行數7,956,981千元，執行率77.38%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年工務局主管經常門預算數總計2,023,521千元，執行數1,952,014千元，執行率96.47%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年工務局主管經常門預算數總計1,869,536千元，執行數1,865,531千元，執行率99.79%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>111年工務局主管經常門預算數總計1,676,504千元，執行數1,668,945千元，執行率99.55%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年工務局主管經常門預算數總計1,589,348千元，執行數1,588,762千元，執行率99.96%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年工務局主管經常門預算數總計1,675,272千元，執行數1,638,359千元，執行率97.80%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年工務局主管資本門預算數總計6,170,707千元，執行數5,831,206千元，執行率94.50%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年工務局主管資本門預算數總計9,306,736千元，執行數7,858,473千元，執行率84.44%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>111年工務局主管資本門預算數總計4,774,582千元，執行數4,117,594千元，執行率86.24%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年工務局主管資本門預算數總計6,656,502千元，執行數6,213,715千元，執行率93.35%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年工務局主管資本門預算數總計8,607,375千元，執行數6,318,622千元，執行率73.41%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年工務局經常門預算數總計452,943千元，執行數405,914千元，執行率89.62%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年工務局經常門預算數總計461,625千元，執行數457,619千元，執行率99.13%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年工務局資本門預算數總計1,574,929千元，執行數1,543,729千元，執行率98.02%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年工務局資本門預算數總計727,649千元，執行數714,302千元，執行率98.17%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年新工處經常門預算數總計204,827千元，執行數203,183千元，執行率99.20%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年新工處經常門預算數總計200,394千元，執行數200,394千元，執行率100.00%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年新工處資本門預算數總計2,218,045千元，執行數2,073,249千元，執行率93.47%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年新工處資本門預算數總計3,718,249千元，執行數2,990,905千元，執行率80.44%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年道工處經常門預算數總計215,007千元，執行數215,007千元，執行率100.00%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年道工處資本門預算數總計889,223千元，執行數835,171千元，執行率93.92%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年公園處經常門預算數總計1,062,260千元，執行數1,039,426千元，執行率97.85%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年公園處資本門預算數總計1,485,152千元，執行數1,375,699千元，執行率92.63%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
+資料來源：高雄市政府工務局工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年違建大隊經常門預算數總計88,484千元，執行數88,484千元，執行率100.00%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
+資料來源：高雄市政府工務局工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>112年違建大隊經常門預算數總計92,315千元，執行數92,315千元，執行率100.00%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
+資料來源：高雄市政府工務局工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年違建大隊資本門預算數總計3,358千元，執行數3,358千元，執行率100.00%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
+資料來源：高雄市政府工務局工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>112年違建大隊資本門預算數總計3,236千元，執行數3,236千元，執行率100.00%。
-（資料來源）
-高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年工務局使照件數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年新北市使照件數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年臺北市使照件數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年桃園市使照件數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年臺中市使照件數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年臺南市使照件數</t>
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年高雄市核發建築物使用執照統計件數2,117件。
+資料來源：內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新北市核發建築物使用執照統計件數432件。
+資料來源：內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺北市核發建築物使用執照統計件數191件。
+資料來源：內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年桃園市核發建築物使用執照統計件數1317件。
+資料來源：內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺中市核發建築物使用執照統計件數1927件。
+資料來源：內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺南市核發建築物使用執照統計件數3370件。
+資料來源：內政部國土管理署。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1221,61 +1310,38 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-（資料來源）
-內政部國土管理署。</t>
+資料來源：內政部國土管理署。</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>unit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>千元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年六都使照件數比較</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年工務局使照總樓地板面積</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年新北市使照總樓地板面積</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年臺北市使照總樓地板面積</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年桃園市使照總樓地板面積</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年臺中市使照總樓地板面積</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年臺南市使照總樓地板面積</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年六都使照總樓地板面積比較</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方公尺</t>
+    <t>113年高雄市核發建築物使用執照統計總樓地板面積3,367,164平方公尺。
+資料來源：內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新北市核發建築物使用執照統計總樓地板面積3,613,488平方公尺。
+資料來源：內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺北市核發建築物使用執照統計總樓地板面積2,580,751平方公尺。
+資料來源：內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年桃園市核發建築物使用執照統計總樓地板面積5,596,805平方公尺。
+資料來源：內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺中市核發建築物使用執照統計總樓地板面積5,109,022平方公尺。
+資料來源：內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺南市核發建築物使用執照統計總樓地板面積2,995,382平方公尺。
+資料來源：內政部國土管理署。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1317,41 +1383,38 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-（資料來源）
-內政部國土管理署。</t>
+資料來源：內政部國土管理署。</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>113年工務局使照棟數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年新北市使照棟數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年臺北市使照棟數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年桃園市使照棟數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年臺中市使照棟數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年臺南市使照棟數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年六都使照棟數比較</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>棟</t>
+    <t>113年高雄市核發建築物使用執照統計總樓地板面積3,260棟。
+資料來源：內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新北市核發建築物使用執照統計總樓地板面積748棟。
+資料來源：內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺北市核發建築物使用執照統計總樓地板面積234棟。
+資料來源：內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年桃園市核發建築物使用執照統計總樓地板面積3,613棟。
+資料來源：內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺中市核發建築物使用執照統計總樓地板面積4,666棟。
+資料來源：內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺南市核發建築物使用執照統計總樓地板面積4,685棟。
+資料來源：內政部國土管理署。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1393,37 +1456,38 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-（資料來源）
-內政部國土管理署。</t>
+資料來源：內政部國土管理署。</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>113年工務局使照工程造價</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年新北市使照工程造價</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年臺北市使照工程造價</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年桃園市使照工程造價</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年臺中市使照工程造價</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年臺南市使照工程造價</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年六都使照工程造價比較</t>
+    <t>113年高雄市核發建築物使用執照統計工程造價27,049,819千元。
+資料來源：內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年新北市核發建築物使用執照統計工程造價48,548,753千元。
+資料來源：內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺北市核發建築物使用執照統計工程造價43,418,798千元。
+資料來源：內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年桃園市核發建築物使用執照統計工程造價62,138,632千元。
+資料來源：內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺中市核發建築物使用執照統計工程造價54,792,612千元。
+資料來源：內政部國土管理署。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年臺南市核發建築物使用執照統計工程造價20,492,126千元。
+資料來源：內政部國土管理署。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1465,197 +1529,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（資料來源）
-內政部國土管理署。</t>
+      <t>資料來源：內政部國土管理署。</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>113年高雄市核發建築物使用執照統計件數2,117件。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年新北市核發建築物使用執照統計件數432件。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年臺北市核發建築物使用執照統計件數191件。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年桃園市核發建築物使用執照統計件數1317件。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年臺中市核發建築物使用執照統計件數1927件。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年臺南市核發建築物使用執照統計件數3370件。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年高雄市核發建築物使用執照統計總樓地板面積3,367,164平方公尺。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年新北市核發建築物使用執照統計總樓地板面積3,613,488平方公尺。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年臺北市核發建築物使用執照統計總樓地板面積2,580,751平方公尺。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年桃園市核發建築物使用執照統計總樓地板面積5,596,805平方公尺。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年臺中市核發建築物使用執照統計總樓地板面積5,109,022平方公尺。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年臺南市核發建築物使用執照統計總樓地板面積2,995,382平方公尺。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年高雄市核發建築物使用執照統計總樓地板面積3,260棟。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年新北市核發建築物使用執照統計總樓地板面積748棟。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年臺北市核發建築物使用執照統計總樓地板面積234棟。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年桃園市核發建築物使用執照統計總樓地板面積3,613棟。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年臺中市核發建築物使用執照統計總樓地板面積4,666棟。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年臺南市核發建築物使用執照統計總樓地板面積4,685棟。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年高雄市核發建築物使用執照統計工程造價27,049,819千元。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年新北市核發建築物使用執照統計工程造價48,548,753千元。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年臺北市核發建築物使用執照統計工程造價43,418,798千元。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年桃園市核發建築物使用執照統計工程造價62,138,632千元。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年臺中市核發建築物使用執照統計工程造價54,792,612千元。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年臺南市核發建築物使用執照統計工程造價20,492,126千元。
-（資料來源）
-內政部國土管理署。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人事</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>預算</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>決算</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>六都使照</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年違建大隊職員委任總計15人，其中男生10人(占66.67%)、女生5人(占33.33%)。
-（資料來源）
-高雄市政府工務局性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>source_url_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（資料來源）
-高雄市政府工務局性別統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（資料來源）
-高雄市政府工務局工務統計年報。</t>
+    <t>資料來源：高雄市政府工務局性別統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料來源：高雄市政府工務局工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2128,8 +2011,8 @@
   <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K127" sqref="K127"/>
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2142,13 +2025,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>322</v>
+        <v>195</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>267</v>
+        <v>167</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -2159,16 +2042,16 @@
     </row>
     <row r="2" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -2176,33 +2059,33 @@
     </row>
     <row r="3" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -2210,16 +2093,16 @@
     </row>
     <row r="5" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
@@ -2227,16 +2110,16 @@
     </row>
     <row r="6" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>206</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -2244,16 +2127,16 @@
     </row>
     <row r="7" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
@@ -2261,16 +2144,16 @@
     </row>
     <row r="8" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>208</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>20</v>
@@ -2278,16 +2161,16 @@
     </row>
     <row r="9" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>209</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>21</v>
@@ -2295,16 +2178,16 @@
     </row>
     <row r="10" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>210</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>22</v>
@@ -2312,16 +2195,16 @@
     </row>
     <row r="11" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>211</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
@@ -2329,16 +2212,16 @@
     </row>
     <row r="12" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>212</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>24</v>
@@ -2346,16 +2229,16 @@
     </row>
     <row r="13" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>213</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>25</v>
@@ -2363,16 +2246,16 @@
     </row>
     <row r="14" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>214</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>26</v>
@@ -2380,16 +2263,16 @@
     </row>
     <row r="15" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>27</v>
@@ -2397,16 +2280,16 @@
     </row>
     <row r="16" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>28</v>
@@ -2414,16 +2297,16 @@
     </row>
     <row r="17" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>29</v>
@@ -2431,16 +2314,16 @@
     </row>
     <row r="18" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>30</v>
@@ -2448,16 +2331,16 @@
     </row>
     <row r="19" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>31</v>
@@ -2465,33 +2348,33 @@
     </row>
     <row r="20" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>32</v>
@@ -2499,560 +2382,560 @@
     </row>
     <row r="22" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>210</v>
+        <v>149</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>237</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>67</v>
+        <v>238</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>241</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>71</v>
+        <v>242</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>73</v>
+        <v>244</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>226</v>
+        <v>157</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>228</v>
+        <v>158</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>327</v>
+        <v>252</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>33</v>
@@ -3060,16 +2943,16 @@
     </row>
     <row r="55" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>33</v>
@@ -3077,16 +2960,16 @@
     </row>
     <row r="56" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>256</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>33</v>
@@ -3094,16 +2977,16 @@
     </row>
     <row r="57" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>33</v>
@@ -3111,16 +2994,16 @@
     </row>
     <row r="58" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>33</v>
@@ -3128,16 +3011,16 @@
     </row>
     <row r="59" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>33</v>
@@ -3145,16 +3028,16 @@
     </row>
     <row r="60" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>33</v>
@@ -3162,16 +3045,16 @@
     </row>
     <row r="61" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>33</v>
@@ -3179,16 +3062,16 @@
     </row>
     <row r="62" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>33</v>
@@ -3196,16 +3079,16 @@
     </row>
     <row r="63" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>33</v>
@@ -3213,16 +3096,16 @@
     </row>
     <row r="64" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>33</v>
@@ -3230,16 +3113,16 @@
     </row>
     <row r="65" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>33</v>
@@ -3247,16 +3130,16 @@
     </row>
     <row r="66" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>33</v>
@@ -3264,16 +3147,16 @@
     </row>
     <row r="67" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>33</v>
@@ -3281,16 +3164,16 @@
     </row>
     <row r="68" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>33</v>
@@ -3298,16 +3181,16 @@
     </row>
     <row r="69" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>33</v>
@@ -3315,16 +3198,16 @@
     </row>
     <row r="70" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>33</v>
@@ -3332,16 +3215,16 @@
     </row>
     <row r="71" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>82</v>
+        <v>256</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>33</v>
@@ -3349,16 +3232,16 @@
     </row>
     <row r="72" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>33</v>
@@ -3366,16 +3249,16 @@
     </row>
     <row r="73" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>33</v>
@@ -3383,16 +3266,16 @@
     </row>
     <row r="74" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>33</v>
@@ -3400,16 +3283,16 @@
     </row>
     <row r="75" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>33</v>
@@ -3417,16 +3300,16 @@
     </row>
     <row r="76" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>33</v>
@@ -3434,16 +3317,16 @@
     </row>
     <row r="77" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>33</v>
@@ -3451,16 +3334,16 @@
     </row>
     <row r="78" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>33</v>
@@ -3468,16 +3351,16 @@
     </row>
     <row r="79" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>33</v>
@@ -3485,16 +3368,16 @@
     </row>
     <row r="80" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>33</v>
@@ -3502,16 +3385,16 @@
     </row>
     <row r="81" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>33</v>
@@ -3519,16 +3402,16 @@
     </row>
     <row r="82" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>145</v>
+        <v>275</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>33</v>
@@ -3536,16 +3419,16 @@
     </row>
     <row r="83" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>147</v>
+        <v>276</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>33</v>
@@ -3553,16 +3436,16 @@
     </row>
     <row r="84" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>144</v>
+        <v>275</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>33</v>
@@ -3570,16 +3453,16 @@
     </row>
     <row r="85" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>146</v>
+        <v>276</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>33</v>
@@ -3587,16 +3470,16 @@
     </row>
     <row r="86" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>33</v>
@@ -3604,16 +3487,16 @@
     </row>
     <row r="87" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>33</v>
@@ -3621,16 +3504,16 @@
     </row>
     <row r="88" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>33</v>
@@ -3638,16 +3521,16 @@
     </row>
     <row r="89" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>33</v>
@@ -3655,16 +3538,16 @@
     </row>
     <row r="90" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>155</v>
+        <v>281</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>33</v>
@@ -3672,16 +3555,16 @@
     </row>
     <row r="91" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>154</v>
+        <v>281</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>33</v>
@@ -3689,16 +3572,16 @@
     </row>
     <row r="92" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>33</v>
@@ -3706,16 +3589,16 @@
     </row>
     <row r="93" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>33</v>
@@ -3723,16 +3606,16 @@
     </row>
     <row r="94" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>33</v>
@@ -3740,16 +3623,16 @@
     </row>
     <row r="95" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>162</v>
+        <v>284</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>33</v>
@@ -3757,16 +3640,16 @@
     </row>
     <row r="96" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>33</v>
@@ -3774,16 +3657,16 @@
     </row>
     <row r="97" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>33</v>
@@ -3791,16 +3674,16 @@
     </row>
     <row r="98" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>173</v>
+        <v>287</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>33</v>
@@ -3808,16 +3691,16 @@
     </row>
     <row r="99" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>175</v>
+        <v>288</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>33</v>
@@ -3825,16 +3708,16 @@
     </row>
     <row r="100" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>172</v>
+        <v>287</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>33</v>
@@ -3842,16 +3725,16 @@
     </row>
     <row r="101" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>174</v>
+        <v>288</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>33</v>
@@ -3859,16 +3742,16 @@
     </row>
     <row r="102" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>33</v>
@@ -3876,16 +3759,16 @@
     </row>
     <row r="103" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>33</v>
@@ -3893,16 +3776,16 @@
     </row>
     <row r="104" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>33</v>
@@ -3910,495 +3793,495 @@
     </row>
     <row r="105" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D107" s="2" t="s">
+      <c r="C112" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="E112" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D109" s="2" t="s">
+      <c r="E113" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D110" s="2" t="s">
+      <c r="E114" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D111" s="2" t="s">
+      <c r="E115" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D113" s="2" t="s">
+      <c r="E116" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="E117" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="E118" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D116" s="2" t="s">
+      <c r="E119" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D117" s="2" t="s">
+      <c r="E120" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="E121" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D120" s="2" t="s">
+      <c r="E122" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D121" s="2" t="s">
+      <c r="E123" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D122" s="2" t="s">
+      <c r="E124" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D123" s="2" t="s">
+      <c r="E125" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D124" s="2" t="s">
+      <c r="E126" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D125" s="2" t="s">
+      <c r="E127" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D127" s="2" t="s">
+      <c r="E128" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D128" s="2" t="s">
+      <c r="E129" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="E130" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="E131" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D131" s="2" t="s">
+      <c r="E132" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="E133" s="1" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4420,6 +4303,7 @@
     <hyperlink ref="E133" r:id="rId9" xr:uid="{98F73A7D-080E-4A70-B55F-6D3BD4259CAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -4428,33 +4312,35 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="4" width="37.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="65.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="23" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>322</v>
+        <v>195</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>267</v>
+        <v>167</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>328</v>
+        <v>200</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>329</v>
+        <v>201</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>14</v>
@@ -4462,19 +4348,19 @@
     </row>
     <row r="2" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D2" s="2">
         <v>524</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
@@ -4482,39 +4368,39 @@
     </row>
     <row r="3" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D3" s="2">
         <v>519</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D4" s="2">
         <v>500</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>16</v>
@@ -4522,19 +4408,19 @@
     </row>
     <row r="5" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D5" s="2">
         <v>512</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
@@ -4542,19 +4428,19 @@
     </row>
     <row r="6" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D6" s="2">
         <v>527</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>18</v>
@@ -4562,19 +4448,19 @@
     </row>
     <row r="7" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D7" s="2">
         <v>524</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>19</v>
@@ -4582,19 +4468,19 @@
     </row>
     <row r="8" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D8" s="2">
         <v>519</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
@@ -4602,19 +4488,19 @@
     </row>
     <row r="9" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D9" s="2">
         <v>500</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>21</v>
@@ -4622,19 +4508,19 @@
     </row>
     <row r="10" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D10" s="2">
         <v>512</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>22</v>
@@ -4642,19 +4528,19 @@
     </row>
     <row r="11" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D11" s="2">
         <v>527</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>23</v>
@@ -4662,19 +4548,19 @@
     </row>
     <row r="12" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D12" s="2">
         <v>8194228</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>33</v>
@@ -4682,19 +4568,19 @@
     </row>
     <row r="13" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D13" s="4">
         <v>11176272</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>33</v>
@@ -4702,19 +4588,19 @@
     </row>
     <row r="14" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D14" s="4">
         <v>6451086</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>33</v>
@@ -4722,19 +4608,19 @@
     </row>
     <row r="15" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D15" s="4">
         <v>8245850</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>33</v>
@@ -4742,19 +4628,19 @@
     </row>
     <row r="16" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D16" s="4">
         <v>10282647</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>33</v>
@@ -4762,19 +4648,19 @@
     </row>
     <row r="17" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D17" s="4">
         <v>5786539</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>33</v>
@@ -4782,19 +4668,19 @@
     </row>
     <row r="18" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D18" s="4">
         <v>9724004</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>33</v>
@@ -4802,19 +4688,19 @@
     </row>
     <row r="19" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D19" s="4">
         <v>5786539</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>33</v>
@@ -4822,19 +4708,19 @@
     </row>
     <row r="20" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D20" s="4">
         <v>7802477</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>33</v>
@@ -4842,19 +4728,19 @@
     </row>
     <row r="21" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D21" s="4">
         <v>7956981</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>33</v>

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pwb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457B9C93-B921-4CA7-A858-865E0DDF97B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990D2B3C-2B0A-44FC-AF86-8AB2FEA0EFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="變動" sheetId="3" r:id="rId2"/>
+    <sheet name="行政區" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">行政區!$A$1:$F$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">變動!$A$1:$F$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="463">
   <si>
     <t>description</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -601,10 +603,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>113年工務局使照件數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>113年新北市使照件數</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -645,10 +643,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>113年工務局使照總樓地板面積</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>113年新北市使照總樓地板面積</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -677,10 +671,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>113年工務局使照棟數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>113年新北市使照棟數</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -706,10 +696,6 @@
   </si>
   <si>
     <t>棟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年工務局使照工程造價</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1540,6 +1526,631 @@
   <si>
     <t>資料來源：高雄市政府工務局工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企劃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年鐵路地下化經費</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料來源：高雄市政府工務局工務統計年報。</t>
+  </si>
+  <si>
+    <t>113年使照件數</t>
+  </si>
+  <si>
+    <t>113年使照件數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年使照總樓地板面積</t>
+  </si>
+  <si>
+    <t>113年使照總樓地板面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年使照棟數</t>
+  </si>
+  <si>
+    <t>113年使照棟數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年使照工程造價</t>
+  </si>
+  <si>
+    <t>113年使照工程造價</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>平方公尺</t>
+  </si>
+  <si>
+    <t>棟</t>
+  </si>
+  <si>
+    <t>千元</t>
+  </si>
+  <si>
+    <t>資料來源：內政部國土管理署。</t>
+  </si>
+  <si>
+    <t>112年使照件數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年鐵路地下化經費</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年鐵路地下化經費</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年鐵路地下化經費</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年鐵路地下化經費</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>109年高雄市鐵路地下化經費總經費25,291,495千元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，已分攤經費當年1,823,000千元，累計14,320,916千元，分攤經費執行率57.09%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>110年高雄市鐵路地下化經費總經費25,291,495千元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，已分攤經費當年2,499,000千元，累計16,869,916千元，分攤經費執行率67.25%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>111年高雄市鐵路地下化經費總經費25,291,495千元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，已分攤經費當年885,650千元，累計17,705,566千元，分攤經費執行率70.01%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>112年高雄市鐵路地下化經費總經費25,291,495千元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，已分攤經費當年616,000千元，累計18,321,566千元，分攤經費執行率72.44%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>113年高雄市鐵路地下化經費總經費25,291,495千元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，已分攤經費當年1,434,634千元，累計19,756,200千元，分攤經費執行率78.11%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年都市計畫區域已開闢道路長度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公尺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年高雄市都市計畫區域內現有已開闢道路長度總計2,721,934.59公尺。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年都市計畫區域已開闢道路長度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年都市計畫區域已開闢道路長度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年都市計畫區域已開闢道路長度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年都市計畫區域已開闢道路長度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年高雄市都市計畫區域內現有已開闢道路長度總計2,716,569.10公尺。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年高雄市都市計畫區域內現有已開闢道路長度總計2,703,675.94公尺。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年高雄市都市計畫區域內現有已開闢道路長度總計2,696,025.27公尺。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年高雄市都市計畫區域內現有已開闢道路長度總計2,454,872.47公尺。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年都市計畫區域已開闢道路面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年都市計畫區域已開闢道路面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年都市計畫區域已開闢道路面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年都市計畫區域已開闢道路面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年都市計畫區域已開闢道路面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年高雄市都市計畫區域內現有已開闢道路面積總計43,009,155.4平方公尺。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年高雄市都市計畫區域內現有已開闢道路面積總計42,100,413.95平方公尺。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年高雄市都市計畫區域內現有已開闢道路面積總計42,041,296.30平方公尺。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年高雄市都市計畫區域內現有已開闢道路面積總計40,964,293.81平方公尺。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年高雄市都市計畫區域內現有已開闢道路面積總計37,536,174.05平方公尺。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年市區道路養護長度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年市區道路養護長度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年市區道路養護長度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年市區道路養護長度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年市區道路養護長度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年高雄市市區道路養護長度總計5,323,940.21公尺。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年高雄市市區道路養護長度總計5,319,665.52公尺。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年高雄市市區道路養護長度總計5,319,396.76公尺。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年高雄市市區道路養護長度總計5,265,265.42公尺。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年高雄市市區道路養護長度總計5,275,049.54公尺。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年市區道路養護面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年市區道路養護面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年市區道路養護面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年市區道路養護面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年市區道路養護面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年高雄市市區道路養護面積總計60,842,045.14平方公尺。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年高雄市市區道路養護面積總計60,798,469.93平方公尺。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年高雄市市區道路養護面積總計60,796,314.25平方公尺。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年高雄市市區道路養護面積總計60,175,786.48平方公尺。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年高雄市市區道路養護面積總計60,992,720.9平方公尺。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年鹽埕區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年鼓山區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年左營區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年楠梓區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年三民區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年新興區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年前金區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年苓雅區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年前鎮區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年旗津區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年小港區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年鳳山區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年林園區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年大寮區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年大樹區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年大社區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年仁武區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年鳥松區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年岡山區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年橋頭區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年燕巢區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年田寮區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年阿蓮區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年路竹區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年湖內區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年茄萣區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年永安區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年彌陀區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年梓官區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年旗山區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年美濃區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年六龜區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年甲仙區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年杉林區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年內門區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年茂林區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年桃源區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年那瑪夏區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年鹽埕區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年鼓山區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年左營區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年楠梓區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年三民區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年新興區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年前金區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年苓雅區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年前鎮區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年旗津區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年小港區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年鳳山區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年林園區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年大寮區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年大樹區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年大社區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年仁武區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年鳥松區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年岡山區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年橋頭區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年燕巢區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年田寮區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年阿蓮區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年路竹區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年湖內區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年茄萣區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年永安區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年彌陀區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年梓官區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年旗山區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年美濃區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年六龜區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年甲仙區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年杉林區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年內門區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年茂林區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年桃源區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年那瑪夏區道路養護面積</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +2258,67 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2008,11 +2679,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C136" sqref="C136"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B149" sqref="B149:C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2025,13 +2696,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -2042,16 +2713,16 @@
     </row>
     <row r="2" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -2059,16 +2730,16 @@
     </row>
     <row r="3" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>66</v>
@@ -2076,16 +2747,16 @@
     </row>
     <row r="4" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -2093,16 +2764,16 @@
     </row>
     <row r="5" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
@@ -2110,16 +2781,16 @@
     </row>
     <row r="6" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -2127,16 +2798,16 @@
     </row>
     <row r="7" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
@@ -2144,16 +2815,16 @@
     </row>
     <row r="8" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>20</v>
@@ -2161,16 +2832,16 @@
     </row>
     <row r="9" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>21</v>
@@ -2178,16 +2849,16 @@
     </row>
     <row r="10" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>22</v>
@@ -2195,16 +2866,16 @@
     </row>
     <row r="11" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
@@ -2212,16 +2883,16 @@
     </row>
     <row r="12" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>24</v>
@@ -2229,16 +2900,16 @@
     </row>
     <row r="13" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>25</v>
@@ -2246,16 +2917,16 @@
     </row>
     <row r="14" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>26</v>
@@ -2263,16 +2934,16 @@
     </row>
     <row r="15" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>27</v>
@@ -2280,16 +2951,16 @@
     </row>
     <row r="16" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>28</v>
@@ -2297,16 +2968,16 @@
     </row>
     <row r="17" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>29</v>
@@ -2314,16 +2985,16 @@
     </row>
     <row r="18" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>30</v>
@@ -2331,16 +3002,16 @@
     </row>
     <row r="19" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>31</v>
@@ -2348,16 +3019,16 @@
     </row>
     <row r="20" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>67</v>
@@ -2365,16 +3036,16 @@
     </row>
     <row r="21" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>32</v>
@@ -2382,16 +3053,16 @@
     </row>
     <row r="22" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>68</v>
@@ -2399,16 +3070,16 @@
     </row>
     <row r="23" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>69</v>
@@ -2416,16 +3087,16 @@
     </row>
     <row r="24" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>70</v>
@@ -2433,16 +3104,16 @@
     </row>
     <row r="25" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>71</v>
@@ -2450,16 +3121,16 @@
     </row>
     <row r="26" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>72</v>
@@ -2467,16 +3138,16 @@
     </row>
     <row r="27" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>73</v>
@@ -2484,16 +3155,16 @@
     </row>
     <row r="28" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>74</v>
@@ -2501,16 +3172,16 @@
     </row>
     <row r="29" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>75</v>
@@ -2518,16 +3189,16 @@
     </row>
     <row r="30" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>76</v>
@@ -2535,16 +3206,16 @@
     </row>
     <row r="31" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>77</v>
@@ -2552,16 +3223,16 @@
     </row>
     <row r="32" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>78</v>
@@ -2569,16 +3240,16 @@
     </row>
     <row r="33" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>79</v>
@@ -2586,16 +3257,16 @@
     </row>
     <row r="34" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>80</v>
@@ -2603,16 +3274,16 @@
     </row>
     <row r="35" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>81</v>
@@ -2620,16 +3291,16 @@
     </row>
     <row r="36" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>82</v>
@@ -2637,16 +3308,16 @@
     </row>
     <row r="37" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>83</v>
@@ -2654,16 +3325,16 @@
     </row>
     <row r="38" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>84</v>
@@ -2671,16 +3342,16 @@
     </row>
     <row r="39" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>85</v>
@@ -2688,16 +3359,16 @@
     </row>
     <row r="40" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>86</v>
@@ -2705,16 +3376,16 @@
     </row>
     <row r="41" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>87</v>
@@ -2722,16 +3393,16 @@
     </row>
     <row r="42" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>88</v>
@@ -2739,16 +3410,16 @@
     </row>
     <row r="43" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>89</v>
@@ -2756,16 +3427,16 @@
     </row>
     <row r="44" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>90</v>
@@ -2773,16 +3444,16 @@
     </row>
     <row r="45" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>91</v>
@@ -2790,16 +3461,16 @@
     </row>
     <row r="46" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>92</v>
@@ -2807,16 +3478,16 @@
     </row>
     <row r="47" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>93</v>
@@ -2824,16 +3495,16 @@
     </row>
     <row r="48" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>94</v>
@@ -2841,16 +3512,16 @@
     </row>
     <row r="49" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>95</v>
@@ -2858,16 +3529,16 @@
     </row>
     <row r="50" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>96</v>
@@ -2875,16 +3546,16 @@
     </row>
     <row r="51" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>97</v>
@@ -2892,16 +3563,16 @@
     </row>
     <row r="52" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>98</v>
@@ -2909,16 +3580,16 @@
     </row>
     <row r="53" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>99</v>
@@ -2926,16 +3597,16 @@
     </row>
     <row r="54" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>33</v>
@@ -2943,16 +3614,16 @@
     </row>
     <row r="55" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>33</v>
@@ -2960,16 +3631,16 @@
     </row>
     <row r="56" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>33</v>
@@ -2977,16 +3648,16 @@
     </row>
     <row r="57" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>33</v>
@@ -2994,16 +3665,16 @@
     </row>
     <row r="58" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>33</v>
@@ -3011,16 +3682,16 @@
     </row>
     <row r="59" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>33</v>
@@ -3028,16 +3699,16 @@
     </row>
     <row r="60" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>33</v>
@@ -3045,16 +3716,16 @@
     </row>
     <row r="61" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>33</v>
@@ -3062,16 +3733,16 @@
     </row>
     <row r="62" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>33</v>
@@ -3079,16 +3750,16 @@
     </row>
     <row r="63" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>33</v>
@@ -3096,16 +3767,16 @@
     </row>
     <row r="64" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>33</v>
@@ -3113,16 +3784,16 @@
     </row>
     <row r="65" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>33</v>
@@ -3130,16 +3801,16 @@
     </row>
     <row r="66" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>33</v>
@@ -3147,16 +3818,16 @@
     </row>
     <row r="67" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>33</v>
@@ -3164,16 +3835,16 @@
     </row>
     <row r="68" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>33</v>
@@ -3181,16 +3852,16 @@
     </row>
     <row r="69" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>33</v>
@@ -3198,16 +3869,16 @@
     </row>
     <row r="70" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>33</v>
@@ -3215,16 +3886,16 @@
     </row>
     <row r="71" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>33</v>
@@ -3232,16 +3903,16 @@
     </row>
     <row r="72" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>33</v>
@@ -3249,16 +3920,16 @@
     </row>
     <row r="73" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>33</v>
@@ -3266,16 +3937,16 @@
     </row>
     <row r="74" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>33</v>
@@ -3283,16 +3954,16 @@
     </row>
     <row r="75" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>33</v>
@@ -3300,16 +3971,16 @@
     </row>
     <row r="76" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>33</v>
@@ -3317,16 +3988,16 @@
     </row>
     <row r="77" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>33</v>
@@ -3334,16 +4005,16 @@
     </row>
     <row r="78" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>33</v>
@@ -3351,16 +4022,16 @@
     </row>
     <row r="79" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>33</v>
@@ -3368,16 +4039,16 @@
     </row>
     <row r="80" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>33</v>
@@ -3385,16 +4056,16 @@
     </row>
     <row r="81" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>33</v>
@@ -3402,16 +4073,16 @@
     </row>
     <row r="82" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>33</v>
@@ -3419,16 +4090,16 @@
     </row>
     <row r="83" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>33</v>
@@ -3436,16 +4107,16 @@
     </row>
     <row r="84" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>33</v>
@@ -3453,16 +4124,16 @@
     </row>
     <row r="85" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>33</v>
@@ -3470,16 +4141,16 @@
     </row>
     <row r="86" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>33</v>
@@ -3487,16 +4158,16 @@
     </row>
     <row r="87" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>33</v>
@@ -3504,16 +4175,16 @@
     </row>
     <row r="88" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>33</v>
@@ -3521,16 +4192,16 @@
     </row>
     <row r="89" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>33</v>
@@ -3538,16 +4209,16 @@
     </row>
     <row r="90" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>33</v>
@@ -3555,16 +4226,16 @@
     </row>
     <row r="91" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>33</v>
@@ -3572,16 +4243,16 @@
     </row>
     <row r="92" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>33</v>
@@ -3589,16 +4260,16 @@
     </row>
     <row r="93" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>33</v>
@@ -3606,16 +4277,16 @@
     </row>
     <row r="94" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>33</v>
@@ -3623,16 +4294,16 @@
     </row>
     <row r="95" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>33</v>
@@ -3640,16 +4311,16 @@
     </row>
     <row r="96" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>33</v>
@@ -3657,16 +4328,16 @@
     </row>
     <row r="97" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>33</v>
@@ -3674,16 +4345,16 @@
     </row>
     <row r="98" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>33</v>
@@ -3691,16 +4362,16 @@
     </row>
     <row r="99" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>33</v>
@@ -3708,16 +4379,16 @@
     </row>
     <row r="100" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>33</v>
@@ -3725,16 +4396,16 @@
     </row>
     <row r="101" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>33</v>
@@ -3742,16 +4413,16 @@
     </row>
     <row r="102" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>33</v>
@@ -3759,16 +4430,16 @@
     </row>
     <row r="103" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>33</v>
@@ -3776,16 +4447,16 @@
     </row>
     <row r="104" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>33</v>
@@ -3793,16 +4464,16 @@
     </row>
     <row r="105" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>33</v>
@@ -3810,16 +4481,16 @@
     </row>
     <row r="106" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>160</v>
@@ -3827,16 +4498,16 @@
     </row>
     <row r="107" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>160</v>
@@ -3844,16 +4515,16 @@
     </row>
     <row r="108" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>160</v>
@@ -3861,16 +4532,16 @@
     </row>
     <row r="109" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>160</v>
@@ -3878,16 +4549,16 @@
     </row>
     <row r="110" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>160</v>
@@ -3895,16 +4566,16 @@
     </row>
     <row r="111" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>160</v>
@@ -3912,16 +4583,16 @@
     </row>
     <row r="112" spans="1:5" ht="126" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>160</v>
@@ -3929,16 +4600,16 @@
     </row>
     <row r="113" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>160</v>
@@ -3946,16 +4617,16 @@
     </row>
     <row r="114" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>160</v>
@@ -3963,16 +4634,16 @@
     </row>
     <row r="115" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>160</v>
@@ -3980,16 +4651,16 @@
     </row>
     <row r="116" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>160</v>
@@ -3997,16 +4668,16 @@
     </row>
     <row r="117" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>160</v>
@@ -4014,16 +4685,16 @@
     </row>
     <row r="118" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="D118" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>160</v>
@@ -4031,16 +4702,16 @@
     </row>
     <row r="119" spans="1:5" ht="126" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>160</v>
@@ -4048,16 +4719,16 @@
     </row>
     <row r="120" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>180</v>
+        <v>327</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>160</v>
@@ -4065,16 +4736,16 @@
     </row>
     <row r="121" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>160</v>
@@ -4082,16 +4753,16 @@
     </row>
     <row r="122" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>160</v>
@@ -4099,16 +4770,16 @@
     </row>
     <row r="123" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>160</v>
@@ -4116,16 +4787,16 @@
     </row>
     <row r="124" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="D124" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>160</v>
@@ -4133,16 +4804,16 @@
     </row>
     <row r="125" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>160</v>
@@ -4150,16 +4821,16 @@
     </row>
     <row r="126" spans="1:5" ht="126" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>160</v>
@@ -4167,16 +4838,16 @@
     </row>
     <row r="127" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>188</v>
+        <v>329</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>160</v>
@@ -4184,16 +4855,16 @@
     </row>
     <row r="128" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>160</v>
@@ -4201,16 +4872,16 @@
     </row>
     <row r="129" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>160</v>
@@ -4218,16 +4889,16 @@
     </row>
     <row r="130" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>160</v>
@@ -4235,16 +4906,16 @@
     </row>
     <row r="131" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>160</v>
@@ -4252,16 +4923,16 @@
     </row>
     <row r="132" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>160</v>
@@ -4269,27 +4940,377 @@
     </row>
     <row r="133" spans="1:5" ht="126" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{E04A5E3F-0E4A-45C8-AC0D-2A8449678D21}"/>
@@ -4301,19 +5322,20 @@
     <hyperlink ref="E131" r:id="rId7" xr:uid="{226B9A5F-E52E-497F-A3E9-03F336CF69E6}"/>
     <hyperlink ref="E97" r:id="rId8" xr:uid="{DC1711A3-EA39-46CB-BD50-47E60F79C0E7}"/>
     <hyperlink ref="E133" r:id="rId9" xr:uid="{98F73A7D-080E-4A70-B55F-6D3BD4259CAA}"/>
+    <hyperlink ref="E127" r:id="rId10" xr:uid="{A01AFB0D-F357-44EB-971E-4DD7CF1B8FFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930C632C-357C-434E-ACAC-E04327E9DDAD}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12:E21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4328,19 +5350,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>14</v>
@@ -4348,19 +5370,19 @@
     </row>
     <row r="2" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2">
         <v>524</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
@@ -4368,19 +5390,19 @@
     </row>
     <row r="3" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3" s="2">
         <v>519</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>66</v>
@@ -4388,19 +5410,19 @@
     </row>
     <row r="4" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" s="2">
         <v>500</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>16</v>
@@ -4408,19 +5430,19 @@
     </row>
     <row r="5" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D5" s="2">
         <v>512</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
@@ -4428,19 +5450,19 @@
     </row>
     <row r="6" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D6" s="2">
         <v>527</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>18</v>
@@ -4448,19 +5470,19 @@
     </row>
     <row r="7" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D7" s="2">
         <v>524</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>19</v>
@@ -4468,19 +5490,19 @@
     </row>
     <row r="8" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8" s="2">
         <v>519</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
@@ -4488,19 +5510,19 @@
     </row>
     <row r="9" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D9" s="2">
         <v>500</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>21</v>
@@ -4508,19 +5530,19 @@
     </row>
     <row r="10" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D10" s="2">
         <v>512</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>22</v>
@@ -4528,19 +5550,19 @@
     </row>
     <row r="11" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" s="2">
         <v>527</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>23</v>
@@ -4548,19 +5570,19 @@
     </row>
     <row r="12" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D12" s="2">
         <v>8194228</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>33</v>
@@ -4568,19 +5590,19 @@
     </row>
     <row r="13" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D13" s="4">
         <v>11176272</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>33</v>
@@ -4588,19 +5610,19 @@
     </row>
     <row r="14" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D14" s="4">
         <v>6451086</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>33</v>
@@ -4608,19 +5630,19 @@
     </row>
     <row r="15" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15" s="4">
         <v>8245850</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>33</v>
@@ -4628,19 +5650,19 @@
     </row>
     <row r="16" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D16" s="4">
         <v>10282647</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>33</v>
@@ -4648,19 +5670,19 @@
     </row>
     <row r="17" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D17" s="4">
         <v>5786539</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>33</v>
@@ -4668,19 +5690,19 @@
     </row>
     <row r="18" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D18" s="4">
         <v>9724004</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>33</v>
@@ -4688,19 +5710,19 @@
     </row>
     <row r="19" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D19" s="4">
         <v>5786539</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>33</v>
@@ -4708,19 +5730,19 @@
     </row>
     <row r="20" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D20" s="4">
         <v>7802477</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>33</v>
@@ -4728,30 +5750,106 @@
     </row>
     <row r="21" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D21" s="4">
         <v>7956981</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2117</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1645</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D24" s="4">
+        <v>3367164</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D26" s="4">
+        <v>3260</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D28" s="4">
+        <v>27049819</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{EB35A56F-9226-4643-BEA2-ACC781812936}"/>
@@ -4761,4 +5859,1657 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35CCE0C-2513-45B3-84A4-FC9AFB4675C1}">
+  <dimension ref="A1:F77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="37.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="65.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D2" s="2">
+        <v>27359.08</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" s="2">
+        <v>132456.66929999992</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D4" s="2">
+        <v>187102.88607400007</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D5" s="2">
+        <v>280114.03260000015</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D6" s="2">
+        <v>307454.23304000014</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D7" s="2">
+        <v>64350.099999999977</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D8" s="2">
+        <v>42969.490000000005</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D9" s="2">
+        <v>177948.55000000013</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D10" s="2">
+        <v>253036.13636099972</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D11" s="2">
+        <v>40014.86</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D12" s="2">
+        <v>259829.21599999978</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D13" s="4">
+        <v>369878.50783299998</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D14" s="4">
+        <v>124785.18466800003</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D15" s="4">
+        <v>298115.13264600025</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" s="4">
+        <v>136812.91029999999</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D17" s="4">
+        <v>97062.965699999986</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D18" s="4">
+        <v>369892.7341809998</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D19" s="4">
+        <v>141350.96300000005</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D20" s="4">
+        <v>232597.84263000003</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D21" s="4">
+        <v>131506.99470000001</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D22" s="2">
+        <v>192481.8</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D23" s="2">
+        <v>93845.419999999984</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D24" s="4">
+        <v>96775.27</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D25" s="4">
+        <v>116109.33559999998</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D26" s="4">
+        <v>80072.35500000001</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D27" s="4">
+        <v>84237.902331000005</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D28" s="4">
+        <v>63453.909999999989</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D29" s="2">
+        <v>46595.030000000013</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D30" s="2">
+        <v>50032.80999999999</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D31" s="2">
+        <v>146024.35999999999</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D32" s="2">
+        <v>242363.35459999993</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D33" s="2">
+        <v>92834.5</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D34" s="2">
+        <v>56363.710000000006</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D35" s="2">
+        <v>82863.89999999998</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D36" s="2">
+        <v>105500.6</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D37" s="2">
+        <v>36604.050000000003</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D38" s="2">
+        <v>29319.199999999997</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D39" s="2">
+        <v>33824.22</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="2">
+        <v>375919.74999999994</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1935469.6860000002</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2715155.8130000001</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="2">
+        <v>3850054.1960000005</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="2">
+        <v>4050514.4689999996</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="2">
+        <v>910958.67999999993</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" s="2">
+        <v>705290.66999999993</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2615309.8899999997</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48" s="2">
+        <v>3811752.3180000018</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" s="2">
+        <v>454314.16</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" s="2">
+        <v>3689834.9779999992</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" s="4">
+        <v>4270707.3609999996</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1207929.2707549999</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="4">
+        <v>3212617.6630000006</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1290761.605</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1054282.1939999999</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D56" s="4">
+        <v>3772180.8120000018</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1579055.7099999995</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" s="4">
+        <v>2756089.2207480012</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1510823.0519999997</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" s="2">
+        <v>2040507.4399999997</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D61" s="2">
+        <v>795814.44000000006</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" s="4">
+        <v>844101.15</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1321621.375</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D64" s="4">
+        <v>729968.4800000001</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1042886.355</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" s="4">
+        <v>648911.34</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" s="2">
+        <v>443229.39999999997</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D68" s="2">
+        <v>496439.82</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1230858.6499999999</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D70" s="2">
+        <v>2045953.9160000007</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" s="2">
+        <v>752230.8899999999</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D72" s="2">
+        <v>436839.6100000001</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" s="2">
+        <v>630721.53</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D74" s="2">
+        <v>842559.4</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D75" s="2">
+        <v>274790.43</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D76" s="2">
+        <v>225014.51</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D77" s="2">
+        <v>270574.90000000002</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B1 B78:B1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B77">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{95C2B718-0AD2-4F40-AF81-E9BB37E0D8F3}"/>
+    <hyperlink ref="F3" r:id="rId2" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{88ECDB18-FDE4-4DDD-B978-72296AF1C7C4}"/>
+    <hyperlink ref="F4" r:id="rId3" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{B67E8151-A700-4F86-82DC-2DCBB0C6E54B}"/>
+    <hyperlink ref="F5" r:id="rId4" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{F7F4FB44-A5C1-4800-B474-93081473515D}"/>
+    <hyperlink ref="F6" r:id="rId5" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{FB9BB7E3-29AE-4821-A3CF-BE2D96D92834}"/>
+    <hyperlink ref="F7" r:id="rId6" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{9E141DC1-4772-43FB-BBF6-BAF94D74C6B5}"/>
+    <hyperlink ref="F8" r:id="rId7" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{283EF1AA-F3A8-4498-BA4C-0B395B07A343}"/>
+    <hyperlink ref="F9" r:id="rId8" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{8862EE11-011B-44AF-98A7-94595C5CDCFE}"/>
+    <hyperlink ref="F10" r:id="rId9" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{C05D69BC-5A67-4600-ADAD-453B1B1B370E}"/>
+    <hyperlink ref="F11" r:id="rId10" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{171FE87D-7666-4FBE-84C5-8705AD3E6A44}"/>
+    <hyperlink ref="F12" r:id="rId11" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{D2EA2A51-3CBD-4C0F-970B-7065A8D0E86A}"/>
+    <hyperlink ref="F13" r:id="rId12" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{1D5499E0-7ACF-4145-8837-59ABC3805E15}"/>
+    <hyperlink ref="F14" r:id="rId13" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{55844555-44FC-4B2E-907F-A77ED88AEB9B}"/>
+    <hyperlink ref="F15" r:id="rId14" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{2B582E20-96B9-4A0E-971F-8E4C675DC96F}"/>
+    <hyperlink ref="F16" r:id="rId15" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{28C01EB4-899D-415D-ADF2-F6C8AD15FF3D}"/>
+    <hyperlink ref="F17" r:id="rId16" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{AAE17D6B-B6F6-4FB5-AB93-AC9C2DE16B0F}"/>
+    <hyperlink ref="F18" r:id="rId17" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{84F93D38-D95F-4727-8E3F-5AD3962E7AFB}"/>
+    <hyperlink ref="F19" r:id="rId18" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{34267C4A-8711-486B-AEE0-0E09D0CC3C96}"/>
+    <hyperlink ref="F20" r:id="rId19" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{4E0E9184-65E5-4471-8BD3-1FEB92B1D452}"/>
+    <hyperlink ref="F21" r:id="rId20" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{1ACD67A1-19A0-450A-B974-D95C547F5759}"/>
+    <hyperlink ref="F22" r:id="rId21" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{97E44626-9C99-4F88-BCC2-67F062226E39}"/>
+    <hyperlink ref="F23" r:id="rId22" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{E2305EA1-240A-4A94-B8EB-48661DF8CA8E}"/>
+    <hyperlink ref="F24" r:id="rId23" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{7EE3AF7B-8FC3-4100-8E29-A21AC38F2F27}"/>
+    <hyperlink ref="F25" r:id="rId24" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{41CEFC0E-C7E1-4BA4-88FE-DCFA47E72F96}"/>
+    <hyperlink ref="F26" r:id="rId25" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{E82FD449-0339-4E93-B957-D082EA300DFD}"/>
+    <hyperlink ref="F27" r:id="rId26" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{6CE33670-50A2-4343-A8DD-0E8F15FA023F}"/>
+    <hyperlink ref="F28" r:id="rId27" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{59D5D57E-1624-4A1A-946D-2385E789F95D}"/>
+    <hyperlink ref="F29" r:id="rId28" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{F81C8901-B478-411D-8F09-01476C505328}"/>
+    <hyperlink ref="F30" r:id="rId29" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{88B618FD-20EA-42DF-8133-70DD9D888EA6}"/>
+    <hyperlink ref="F31" r:id="rId30" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{BD7A20B6-3776-4F4C-949D-A2682A212653}"/>
+    <hyperlink ref="F32" r:id="rId31" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{24FE70DB-3265-4AB5-A187-DA41354E79AB}"/>
+    <hyperlink ref="F33" r:id="rId32" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{20B82E9B-A4F2-491A-AEED-4CE68A2997E2}"/>
+    <hyperlink ref="F34" r:id="rId33" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{6BBB94E2-27EE-4F33-8572-55F32B6B8DDC}"/>
+    <hyperlink ref="F35" r:id="rId34" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{4020B1CD-9752-4AAE-BA87-E96CC68D2768}"/>
+    <hyperlink ref="F36" r:id="rId35" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{FF1BBBA9-2F48-4908-AB6C-004EBA9C1AA6}"/>
+    <hyperlink ref="F37" r:id="rId36" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{ECF815B1-A4D1-468B-A4A8-ECE802852A66}"/>
+    <hyperlink ref="F38" r:id="rId37" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{A1A85D94-90F4-4919-B53E-E099FD549FB8}"/>
+    <hyperlink ref="F39" r:id="rId38" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{CBAEA930-1807-4557-8A7E-12FD9D124DB3}"/>
+    <hyperlink ref="F40" r:id="rId39" xr:uid="{F0DFF609-4E26-49AD-9510-B02EDCDBEBF0}"/>
+    <hyperlink ref="F41" r:id="rId40" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{DACB4599-65CD-4A25-B4A3-E44060FEEA7B}"/>
+    <hyperlink ref="F42" r:id="rId41" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{EB265792-FB35-4F5C-B767-4D0879AF7AD9}"/>
+    <hyperlink ref="F43" r:id="rId42" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{DC85BBE1-5A5E-4642-A8EC-F423CEF56770}"/>
+    <hyperlink ref="F44" r:id="rId43" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{4115DDFD-ACFE-4090-9392-2321A150F092}"/>
+    <hyperlink ref="F45" r:id="rId44" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{05D50217-8940-43C9-8680-05EEB61F9C9C}"/>
+    <hyperlink ref="F46" r:id="rId45" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{49A31C0E-46F3-4FBF-8D40-EFDDBEAC828A}"/>
+    <hyperlink ref="F47" r:id="rId46" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{7016C9EC-0ACC-4EF9-BB52-B19B4C474D19}"/>
+    <hyperlink ref="F48" r:id="rId47" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{2254FC8A-6E5A-4B52-A3A8-000133CFF769}"/>
+    <hyperlink ref="F49" r:id="rId48" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{DCD885F8-5281-4123-9238-BB20A6450D6C}"/>
+    <hyperlink ref="F50" r:id="rId49" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{3FC7D439-7774-46A3-B45E-08F345B5F086}"/>
+    <hyperlink ref="F51" r:id="rId50" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{6E3F498F-B928-4EAF-B376-2D3202869B78}"/>
+    <hyperlink ref="F52" r:id="rId51" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{A857C3ED-EE29-4987-9D54-B4BE00361AC9}"/>
+    <hyperlink ref="F53" r:id="rId52" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{40F7D90B-0361-4235-B801-8EC7B9745F93}"/>
+    <hyperlink ref="F54" r:id="rId53" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{60EF0D39-2314-457A-A69F-91D5315C6578}"/>
+    <hyperlink ref="F55" r:id="rId54" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{ADDC1C5B-C4D8-475A-9D5A-EB6ED73E2451}"/>
+    <hyperlink ref="F56" r:id="rId55" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{8F9B9EC3-7A3C-4155-BDAC-075EF859FF30}"/>
+    <hyperlink ref="F57" r:id="rId56" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{239D6495-C20B-43E4-B5F8-8C9B41A613C1}"/>
+    <hyperlink ref="F58" r:id="rId57" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{C2EE3003-2973-4685-9515-D4733CB994FB}"/>
+    <hyperlink ref="F59" r:id="rId58" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{44470BFC-06CC-4140-9209-FB4CE8F00FEF}"/>
+    <hyperlink ref="F60" r:id="rId59" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{0BD74041-501E-4581-AC63-E674BCA23E8C}"/>
+    <hyperlink ref="F61" r:id="rId60" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{8AF86690-4CFE-4CB2-BB5F-F2F931C1732E}"/>
+    <hyperlink ref="F62" r:id="rId61" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{7CC7F951-B11D-4A76-A175-2CDF2AE27210}"/>
+    <hyperlink ref="F63" r:id="rId62" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{261B5132-E04D-43B4-BD46-01EF47547D11}"/>
+    <hyperlink ref="F64" r:id="rId63" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{782797BF-6CB7-4C25-A54C-32BB8ACDD084}"/>
+    <hyperlink ref="F65" r:id="rId64" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{4AA9A7DE-3E90-46E0-951B-6DD870ED0E05}"/>
+    <hyperlink ref="F66" r:id="rId65" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{8BD91A95-01E8-4836-B06D-5CB6A306286E}"/>
+    <hyperlink ref="F67" r:id="rId66" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{449B03FB-7BD9-479B-869D-F592D4ACA6E5}"/>
+    <hyperlink ref="F68" r:id="rId67" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{435AAF12-9F2E-4CDE-9C37-F4C671A88478}"/>
+    <hyperlink ref="F69" r:id="rId68" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{9574B990-9B59-4E1F-820C-765771C640DE}"/>
+    <hyperlink ref="F70" r:id="rId69" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{9D735F6A-66F4-4948-A707-3B7FD37FD464}"/>
+    <hyperlink ref="F71" r:id="rId70" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{896CB0E1-562D-41D9-954D-73F6F74350BF}"/>
+    <hyperlink ref="F72" r:id="rId71" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{D248B330-D344-49BF-9B40-4BE60E69AD06}"/>
+    <hyperlink ref="F73" r:id="rId72" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{2EE73D67-91A6-43DC-B49A-4B910B7F19A0}"/>
+    <hyperlink ref="F74" r:id="rId73" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{12A6E989-5979-4102-BC57-1DF902A2E7C7}"/>
+    <hyperlink ref="F75" r:id="rId74" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{C8F27726-35B0-4F08-86CD-5F709384C7BC}"/>
+    <hyperlink ref="F76" r:id="rId75" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{38E855F3-1843-4470-8298-3556AC0CFBF1}"/>
+    <hyperlink ref="F77" r:id="rId76" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{FBC69F90-9D76-4B68-8CDD-D9700E7D3E51}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/training.xlsx
+++ b/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pwb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990D2B3C-2B0A-44FC-AF86-8AB2FEA0EFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE126B5-D8ED-41CD-9817-1372EFC76F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1925,232 +1925,233 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>113年鼓山區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年左營區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年楠梓區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年三民區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年新興區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年前金區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年苓雅區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年前鎮區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年旗津區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年小港區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年鳳山區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年林園區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年大寮區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年大樹區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年大社區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年仁武區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年鳥松區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年岡山區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年橋頭區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年燕巢區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年田寮區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年阿蓮區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年路竹區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年湖內區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年茄萣區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年永安區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年彌陀區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年梓官區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年旗山區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年美濃區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年六龜區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年甲仙區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年杉林區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年內門區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年茂林區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年桃源區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年那瑪夏區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年鹽埕區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年鼓山區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年左營區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年楠梓區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年三民區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年新興區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年前金區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年苓雅區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年前鎮區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年旗津區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年小港區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年鳳山區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年林園區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年大寮區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年大樹區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年大社區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年仁武區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年鳥松區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年岡山區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年橋頭區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年燕巢區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年田寮區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年阿蓮區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年路竹區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年湖內區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年茄萣區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年永安區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年彌陀區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年梓官區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年旗山區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年美濃區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年六龜區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年甲仙區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年杉林區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年內門區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年茂林區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年桃源區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年那瑪夏區道路養護面積</t>
+  </si>
+  <si>
     <t>113年鹽埕區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年鼓山區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年左營區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年楠梓區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年三民區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年新興區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年前金區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年苓雅區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年前鎮區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年旗津區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年小港區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年鳳山區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年林園區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年大寮區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年大樹區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年大社區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年仁武區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年鳥松區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年岡山區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年橋頭區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年燕巢區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年田寮區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年阿蓮區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年路竹區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年湖內區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年茄萣區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年永安區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年彌陀區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年梓官區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年旗山區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年美濃區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年六龜區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年甲仙區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年杉林區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年內門區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年茂林區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年桃源區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年那瑪夏區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年鹽埕區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年鼓山區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年左營區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年楠梓區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年三民區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年新興區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年前金區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年苓雅區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年前鎮區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年旗津區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年小港區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年鳳山區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年林園區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年大寮區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年大樹區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年大社區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年仁武區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年鳥松區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年岡山區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年橋頭區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年燕巢區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年田寮區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年阿蓮區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年路竹區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年湖內區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年茄萣區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年永安區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年彌陀區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年梓官區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年旗山區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年美濃區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年六龜區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年甲仙區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年杉林區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年內門區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年茂林區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年桃源區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年那瑪夏區道路養護面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2682,8 +2683,8 @@
   <dimension ref="A1:E158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B149" sqref="B149:C149"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5867,7 +5868,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5905,7 +5906,7 @@
         <v>366</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>387</v>
+        <v>462</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>346</v>
@@ -5925,13 +5926,13 @@
         <v>366</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D3" s="2">
-        <v>132456.66929999992</v>
+        <v>132456.67000000001</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>321</v>
@@ -5945,13 +5946,13 @@
         <v>366</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D4" s="2">
-        <v>187102.88607400007</v>
+        <v>187102.89</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>321</v>
@@ -5965,13 +5966,13 @@
         <v>366</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D5" s="2">
-        <v>280114.03260000015</v>
+        <v>280114.03000000003</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>321</v>
@@ -5985,13 +5986,13 @@
         <v>366</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D6" s="2">
-        <v>307454.23304000014</v>
+        <v>307454.23</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>321</v>
@@ -6005,13 +6006,13 @@
         <v>366</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D7" s="2">
-        <v>64350.099999999977</v>
+        <v>64350.1</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>321</v>
@@ -6025,13 +6026,13 @@
         <v>366</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D8" s="2">
-        <v>42969.490000000005</v>
+        <v>42969.49</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>321</v>
@@ -6045,13 +6046,13 @@
         <v>366</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D9" s="2">
-        <v>177948.55000000013</v>
+        <v>177948.55</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>321</v>
@@ -6065,13 +6066,13 @@
         <v>366</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D10" s="2">
-        <v>253036.13636099972</v>
+        <v>253036.14</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>321</v>
@@ -6085,7 +6086,7 @@
         <v>366</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>346</v>
@@ -6105,13 +6106,13 @@
         <v>366</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D12" s="2">
-        <v>259829.21599999978</v>
+        <v>259829.22</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>321</v>
@@ -6125,13 +6126,13 @@
         <v>366</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D13" s="4">
-        <v>369878.50783299998</v>
+        <v>369878.51</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>321</v>
@@ -6145,13 +6146,13 @@
         <v>366</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D14" s="4">
-        <v>124785.18466800003</v>
+        <v>124785.18</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>321</v>
@@ -6165,13 +6166,13 @@
         <v>366</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D15" s="4">
-        <v>298115.13264600025</v>
+        <v>298115.13</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>321</v>
@@ -6185,13 +6186,13 @@
         <v>366</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D16" s="4">
-        <v>136812.91029999999</v>
+        <v>136812.91</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>321</v>
@@ -6205,13 +6206,13 @@
         <v>366</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D17" s="4">
-        <v>97062.965699999986</v>
+        <v>97062.97</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>321</v>
@@ -6225,13 +6226,13 @@
         <v>366</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D18" s="4">
-        <v>369892.7341809998</v>
+        <v>369892.73</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>321</v>
@@ -6245,13 +6246,13 @@
         <v>366</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D19" s="4">
-        <v>141350.96300000005</v>
+        <v>141350.96</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>321</v>
@@ -6265,13 +6266,13 @@
         <v>366</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D20" s="4">
-        <v>232597.84263000003</v>
+        <v>232597.84</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>321</v>
@@ -6285,13 +6286,13 @@
         <v>366</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D21" s="4">
-        <v>131506.99470000001</v>
+        <v>131506.99</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>321</v>
@@ -6305,7 +6306,7 @@
         <v>366</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>346</v>
@@ -6325,13 +6326,13 @@
         <v>366</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D23" s="2">
-        <v>93845.419999999984</v>
+        <v>93845.42</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>321</v>
@@ -6345,7 +6346,7 @@
         <v>366</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>346</v>
@@ -6365,13 +6366,13 @@
         <v>366</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D25" s="4">
-        <v>116109.33559999998</v>
+        <v>116109.34</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>321</v>
@@ -6385,13 +6386,13 @@
         <v>366</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D26" s="4">
-        <v>80072.35500000001</v>
+        <v>80072.36</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>321</v>
@@ -6405,13 +6406,13 @@
         <v>366</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D27" s="4">
-        <v>84237.902331000005</v>
+        <v>84237.9</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>321</v>
@@ -6425,13 +6426,13 @@
         <v>366</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D28" s="4">
-        <v>63453.909999999989</v>
+        <v>63453.91</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>321</v>
@@ -6445,13 +6446,13 @@
         <v>366</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D29" s="2">
-        <v>46595.030000000013</v>
+        <v>46595.03</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>321</v>
@@ -6465,13 +6466,13 @@
         <v>366</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D30" s="2">
-        <v>50032.80999999999</v>
+        <v>50032.81</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>321</v>
@@ -6485,7 +6486,7 @@
         <v>366</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>346</v>
@@ -6505,13 +6506,13 @@
         <v>366</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D32" s="2">
-        <v>242363.35459999993</v>
+        <v>242363.35</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>321</v>
@@ -6525,7 +6526,7 @@
         <v>366</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>346</v>
@@ -6545,13 +6546,13 @@
         <v>366</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D34" s="2">
-        <v>56363.710000000006</v>
+        <v>56363.71</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>321</v>
@@ -6565,13 +6566,13 @@
         <v>366</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D35" s="2">
-        <v>82863.89999999998</v>
+        <v>82863.899999999994</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>321</v>
@@ -6585,7 +6586,7 @@
         <v>366</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>346</v>
@@ -6605,7 +6606,7 @@
         <v>366</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>346</v>
@@ -6625,13 +6626,13 @@
         <v>366</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D38" s="2">
-        <v>29319.199999999997</v>
+        <v>29319.200000000001</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>321</v>
@@ -6645,7 +6646,7 @@
         <v>366</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>346</v>
@@ -6665,13 +6666,13 @@
         <v>366</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D40" s="2">
-        <v>375919.74999999994</v>
+        <v>375919.75</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>321</v>
@@ -6685,13 +6686,13 @@
         <v>366</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D41" s="2">
-        <v>1935469.6860000002</v>
+        <v>1935469.69</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>321</v>
@@ -6705,13 +6706,13 @@
         <v>366</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D42" s="2">
-        <v>2715155.8130000001</v>
+        <v>2715155.81</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>321</v>
@@ -6725,13 +6726,13 @@
         <v>366</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D43" s="2">
-        <v>3850054.1960000005</v>
+        <v>3850054.2</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>321</v>
@@ -6745,13 +6746,13 @@
         <v>366</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D44" s="2">
-        <v>4050514.4689999996</v>
+        <v>4050514.47</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>321</v>
@@ -6765,13 +6766,13 @@
         <v>366</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D45" s="2">
-        <v>910958.67999999993</v>
+        <v>910958.68</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>321</v>
@@ -6785,13 +6786,13 @@
         <v>366</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D46" s="2">
-        <v>705290.66999999993</v>
+        <v>705290.67</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>321</v>
@@ -6805,13 +6806,13 @@
         <v>366</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D47" s="2">
-        <v>2615309.8899999997</v>
+        <v>2615309.89</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>321</v>
@@ -6825,13 +6826,13 @@
         <v>366</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D48" s="2">
-        <v>3811752.3180000018</v>
+        <v>3811752.32</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>321</v>
@@ -6845,7 +6846,7 @@
         <v>366</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>177</v>
@@ -6865,13 +6866,13 @@
         <v>366</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D50" s="2">
-        <v>3689834.9779999992</v>
+        <v>3689834.98</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>321</v>
@@ -6885,13 +6886,13 @@
         <v>366</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D51" s="4">
-        <v>4270707.3609999996</v>
+        <v>4270707.3600000003</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>321</v>
@@ -6905,13 +6906,13 @@
         <v>366</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D52" s="4">
-        <v>1207929.2707549999</v>
+        <v>1207929.27</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>321</v>
@@ -6925,13 +6926,13 @@
         <v>366</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D53" s="4">
-        <v>3212617.6630000006</v>
+        <v>3212617.66</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>321</v>
@@ -6945,13 +6946,13 @@
         <v>366</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D54" s="4">
-        <v>1290761.605</v>
+        <v>1290761.6100000001</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>321</v>
@@ -6965,13 +6966,13 @@
         <v>366</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D55" s="4">
-        <v>1054282.1939999999</v>
+        <v>1054282.19</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>321</v>
@@ -6985,13 +6986,13 @@
         <v>366</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D56" s="4">
-        <v>3772180.8120000018</v>
+        <v>3772180.81</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>321</v>
@@ -7005,13 +7006,13 @@
         <v>366</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D57" s="4">
-        <v>1579055.7099999995</v>
+        <v>1579055.71</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>321</v>
@@ -7025,13 +7026,13 @@
         <v>366</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D58" s="4">
-        <v>2756089.2207480012</v>
+        <v>2756089.22</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>321</v>
@@ -7045,13 +7046,13 @@
         <v>366</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D59" s="4">
-        <v>1510823.0519999997</v>
+        <v>1510823.05</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>321</v>
@@ -7065,13 +7066,13 @@
         <v>366</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D60" s="2">
-        <v>2040507.4399999997</v>
+        <v>2040507.44</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>321</v>
@@ -7085,13 +7086,13 @@
         <v>366</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D61" s="2">
-        <v>795814.44000000006</v>
+        <v>795814.44</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>321</v>
@@ -7105,7 +7106,7 @@
         <v>366</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>177</v>
@@ -7125,13 +7126,13 @@
         <v>366</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D63" s="4">
-        <v>1321621.375</v>
+        <v>1321621.3799999999</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>321</v>
@@ -7145,13 +7146,13 @@
         <v>366</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D64" s="4">
-        <v>729968.4800000001</v>
+        <v>729968.48</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>321</v>
@@ -7165,13 +7166,13 @@
         <v>366</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D65" s="4">
-        <v>1042886.355</v>
+        <v>1042886.36</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>321</v>
@@ -7185,7 +7186,7 @@
         <v>366</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>177</v>
@@ -7205,13 +7206,13 @@
         <v>366</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D67" s="2">
-        <v>443229.39999999997</v>
+        <v>443229.4</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>321</v>
@@ -7225,7 +7226,7 @@
         <v>366</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>177</v>
@@ -7245,7 +7246,7 @@
         <v>366</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>177</v>
@@ -7265,13 +7266,13 @@
         <v>366</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D70" s="2">
-        <v>2045953.9160000007</v>
+        <v>2045953.92</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>321</v>
@@ -7285,13 +7286,13 @@
         <v>366</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D71" s="2">
-        <v>752230.8899999999</v>
+        <v>752230.89</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>321</v>
@@ -7305,13 +7306,13 @@
         <v>366</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D72" s="2">
-        <v>436839.6100000001</v>
+        <v>436839.61</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>321</v>
@@ -7325,7 +7326,7 @@
         <v>366</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>177</v>
@@ -7345,7 +7346,7 @@
         <v>366</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>177</v>
@@ -7365,7 +7366,7 @@
         <v>366</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>177</v>
@@ -7385,7 +7386,7 @@
         <v>366</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>177</v>
@@ -7405,7 +7406,7 @@
         <v>366</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>177</v>

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pwb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE126B5-D8ED-41CD-9817-1372EFC76F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEFF0DB-F7FA-443B-8FE2-C5F3D4B1FFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="546">
   <si>
     <t>description</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2153,12 +2153,632 @@
     <t>113年鹽埕區道路養護長度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>113年橋梁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>113年高雄市橋梁總計1,369座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>其中一般橋梁1,302座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、車行高架橋33座及人行天橋34座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年地下道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>113年高雄市地下道總計22座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>其中車行地下道12座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、人行地下道10座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年橋梁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年地下道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>112年高雄市橋梁總計1,363座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>其中一般橋梁1,305座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、車行高架橋30座及人行天橋28座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>112年高雄市地下道總計23座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>其中車行地下道12座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、人行地下道11座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年橋梁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年地下道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>111年高雄市地下道總計23座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>其中車行地下道12座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、人行地下道11座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>111年高雄市橋梁總計1,357座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>其中一般橋梁1,298座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、車行高架橋29座及人行天橋30座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7144</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7145</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7146</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7147</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7148</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7149</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7150</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7151</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7152</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7153</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7154</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7155</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7156</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7157</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7158</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7159</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7160</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7161</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7162</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7163</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7164</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7165</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7166</t>
+  </si>
+  <si>
+    <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7167</t>
+  </si>
+  <si>
+    <t>鹽埕區</t>
+  </si>
+  <si>
+    <t>鼓山區</t>
+  </si>
+  <si>
+    <t>左營區</t>
+  </si>
+  <si>
+    <t>楠梓區</t>
+  </si>
+  <si>
+    <t>三民區</t>
+  </si>
+  <si>
+    <t>新興區</t>
+  </si>
+  <si>
+    <t>前金區</t>
+  </si>
+  <si>
+    <t>苓雅區</t>
+  </si>
+  <si>
+    <t>前鎮區</t>
+  </si>
+  <si>
+    <t>旗津區</t>
+  </si>
+  <si>
+    <t>小港區</t>
+  </si>
+  <si>
+    <t>鳳山區</t>
+  </si>
+  <si>
+    <t>林園區</t>
+  </si>
+  <si>
+    <t>大寮區</t>
+  </si>
+  <si>
+    <t>大樹區</t>
+  </si>
+  <si>
+    <t>大社區</t>
+  </si>
+  <si>
+    <t>仁武區</t>
+  </si>
+  <si>
+    <t>鳥松區</t>
+  </si>
+  <si>
+    <t>岡山區</t>
+  </si>
+  <si>
+    <t>橋頭區</t>
+  </si>
+  <si>
+    <t>燕巢區</t>
+  </si>
+  <si>
+    <t>田寮區</t>
+  </si>
+  <si>
+    <t>阿蓮區</t>
+  </si>
+  <si>
+    <t>路竹區</t>
+  </si>
+  <si>
+    <t>湖內區</t>
+  </si>
+  <si>
+    <t>茄萣區</t>
+  </si>
+  <si>
+    <t>永安區</t>
+  </si>
+  <si>
+    <t>彌陀區</t>
+  </si>
+  <si>
+    <t>梓官區</t>
+  </si>
+  <si>
+    <t>旗山區</t>
+  </si>
+  <si>
+    <t>美濃區</t>
+  </si>
+  <si>
+    <t>六龜區</t>
+  </si>
+  <si>
+    <t>甲仙區</t>
+  </si>
+  <si>
+    <t>杉林區</t>
+  </si>
+  <si>
+    <t>內門區</t>
+  </si>
+  <si>
+    <t>茂林區</t>
+  </si>
+  <si>
+    <t>桃源區</t>
+  </si>
+  <si>
+    <t>那瑪夏區</t>
+  </si>
+  <si>
+    <t>113年公園</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>113年高雄市政府工務局公園處所轄公園總計461座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、面積8,895,377平方公尺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年公園</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>112年高雄市政府工務局公園處所轄公園總計454座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、面積8,827,417平方公尺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年公園</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>111年高雄市政府工務局公園處所轄公園總計454座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、面積8,827,417平方公尺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年公園</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>110年高雄市政府工務局公園處所轄公園總計448座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、面積8,742,534平方公尺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+資料來源：高雄市政府工務局工務統計年報。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2201,6 +2821,13 @@
       <color theme="1"/>
       <name val="細明體"/>
       <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -2680,14 +3307,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:E168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B149" sqref="B149"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="3" width="37.85546875" style="2" customWidth="1"/>
@@ -2695,7 +3322,7 @@
     <col min="5" max="5" width="23" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>191</v>
       </c>
@@ -2712,7 +3339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="78.75">
       <c r="A2" s="2" t="s">
         <v>192</v>
       </c>
@@ -2729,7 +3356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="78.75">
       <c r="A3" s="2" t="s">
         <v>192</v>
       </c>
@@ -2746,7 +3373,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="78.75">
       <c r="A4" s="2" t="s">
         <v>192</v>
       </c>
@@ -2763,7 +3390,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="78.75">
       <c r="A5" s="2" t="s">
         <v>192</v>
       </c>
@@ -2780,7 +3407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="78.75">
       <c r="A6" s="2" t="s">
         <v>192</v>
       </c>
@@ -2797,7 +3424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="78.75">
       <c r="A7" s="2" t="s">
         <v>192</v>
       </c>
@@ -2814,7 +3441,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="78.75">
       <c r="A8" s="2" t="s">
         <v>192</v>
       </c>
@@ -2831,7 +3458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="78.75">
       <c r="A9" s="2" t="s">
         <v>192</v>
       </c>
@@ -2848,7 +3475,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="78.75">
       <c r="A10" s="2" t="s">
         <v>192</v>
       </c>
@@ -2865,7 +3492,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="78.75">
       <c r="A11" s="2" t="s">
         <v>192</v>
       </c>
@@ -2882,7 +3509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="78.75">
       <c r="A12" s="2" t="s">
         <v>192</v>
       </c>
@@ -2899,7 +3526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="78.75">
       <c r="A13" s="2" t="s">
         <v>192</v>
       </c>
@@ -2916,7 +3543,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="78.75">
       <c r="A14" s="2" t="s">
         <v>192</v>
       </c>
@@ -2933,7 +3560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="78.75">
       <c r="A15" s="2" t="s">
         <v>192</v>
       </c>
@@ -2950,7 +3577,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="78.75">
       <c r="A16" s="2" t="s">
         <v>192</v>
       </c>
@@ -2967,7 +3594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="78.75">
       <c r="A17" s="2" t="s">
         <v>192</v>
       </c>
@@ -2984,7 +3611,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="78.75">
       <c r="A18" s="2" t="s">
         <v>192</v>
       </c>
@@ -3001,7 +3628,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="78.75">
       <c r="A19" s="2" t="s">
         <v>192</v>
       </c>
@@ -3018,7 +3645,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="78.75">
       <c r="A20" s="2" t="s">
         <v>192</v>
       </c>
@@ -3035,7 +3662,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="78.75">
       <c r="A21" s="2" t="s">
         <v>192</v>
       </c>
@@ -3052,7 +3679,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="78.75">
       <c r="A22" s="2" t="s">
         <v>192</v>
       </c>
@@ -3069,7 +3696,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="78.75">
       <c r="A23" s="2" t="s">
         <v>192</v>
       </c>
@@ -3086,7 +3713,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="78.75">
       <c r="A24" s="2" t="s">
         <v>192</v>
       </c>
@@ -3103,7 +3730,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="78.75">
       <c r="A25" s="2" t="s">
         <v>192</v>
       </c>
@@ -3120,7 +3747,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="78.75">
       <c r="A26" s="2" t="s">
         <v>192</v>
       </c>
@@ -3137,7 +3764,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="78.75">
       <c r="A27" s="2" t="s">
         <v>192</v>
       </c>
@@ -3154,7 +3781,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="78.75">
       <c r="A28" s="2" t="s">
         <v>192</v>
       </c>
@@ -3171,7 +3798,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="78.75">
       <c r="A29" s="2" t="s">
         <v>192</v>
       </c>
@@ -3188,7 +3815,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="78.75">
       <c r="A30" s="2" t="s">
         <v>192</v>
       </c>
@@ -3205,7 +3832,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="78.75">
       <c r="A31" s="2" t="s">
         <v>192</v>
       </c>
@@ -3222,7 +3849,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="78.75">
       <c r="A32" s="2" t="s">
         <v>192</v>
       </c>
@@ -3239,7 +3866,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="78.75">
       <c r="A33" s="2" t="s">
         <v>192</v>
       </c>
@@ -3256,7 +3883,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="78.75">
       <c r="A34" s="2" t="s">
         <v>192</v>
       </c>
@@ -3273,7 +3900,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="78.75">
       <c r="A35" s="2" t="s">
         <v>192</v>
       </c>
@@ -3290,7 +3917,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="78.75">
       <c r="A36" s="2" t="s">
         <v>192</v>
       </c>
@@ -3307,7 +3934,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="78.75">
       <c r="A37" s="2" t="s">
         <v>192</v>
       </c>
@@ -3324,7 +3951,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="78.75">
       <c r="A38" s="2" t="s">
         <v>192</v>
       </c>
@@ -3341,7 +3968,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="78.75">
       <c r="A39" s="2" t="s">
         <v>192</v>
       </c>
@@ -3358,7 +3985,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="78.75">
       <c r="A40" s="2" t="s">
         <v>192</v>
       </c>
@@ -3375,7 +4002,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="78.75">
       <c r="A41" s="2" t="s">
         <v>192</v>
       </c>
@@ -3392,7 +4019,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="78.75">
       <c r="A42" s="2" t="s">
         <v>192</v>
       </c>
@@ -3409,7 +4036,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="78.75">
       <c r="A43" s="2" t="s">
         <v>192</v>
       </c>
@@ -3426,7 +4053,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="78.75">
       <c r="A44" s="2" t="s">
         <v>192</v>
       </c>
@@ -3443,7 +4070,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="78.75">
       <c r="A45" s="2" t="s">
         <v>192</v>
       </c>
@@ -3460,7 +4087,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="78.75">
       <c r="A46" s="2" t="s">
         <v>192</v>
       </c>
@@ -3477,7 +4104,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="78.75">
       <c r="A47" s="2" t="s">
         <v>192</v>
       </c>
@@ -3494,7 +4121,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="78.75">
       <c r="A48" s="2" t="s">
         <v>192</v>
       </c>
@@ -3511,7 +4138,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="78.75">
       <c r="A49" s="2" t="s">
         <v>192</v>
       </c>
@@ -3528,7 +4155,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="78.75">
       <c r="A50" s="2" t="s">
         <v>192</v>
       </c>
@@ -3545,7 +4172,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="78.75">
       <c r="A51" s="2" t="s">
         <v>192</v>
       </c>
@@ -3562,7 +4189,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="78.75">
       <c r="A52" s="2" t="s">
         <v>192</v>
       </c>
@@ -3579,7 +4206,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="78.75">
       <c r="A53" s="2" t="s">
         <v>192</v>
       </c>
@@ -3596,7 +4223,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="78.75">
       <c r="A54" s="2" t="s">
         <v>193</v>
       </c>
@@ -3613,7 +4240,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="78.75">
       <c r="A55" s="2" t="s">
         <v>193</v>
       </c>
@@ -3630,7 +4257,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="78.75">
       <c r="A56" s="2" t="s">
         <v>193</v>
       </c>
@@ -3647,7 +4274,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="78.75">
       <c r="A57" s="2" t="s">
         <v>193</v>
       </c>
@@ -3664,7 +4291,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="78.75">
       <c r="A58" s="2" t="s">
         <v>193</v>
       </c>
@@ -3681,7 +4308,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="78.75">
       <c r="A59" s="2" t="s">
         <v>193</v>
       </c>
@@ -3698,7 +4325,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="78.75">
       <c r="A60" s="2" t="s">
         <v>193</v>
       </c>
@@ -3715,7 +4342,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="78.75">
       <c r="A61" s="2" t="s">
         <v>193</v>
       </c>
@@ -3732,7 +4359,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="78.75">
       <c r="A62" s="2" t="s">
         <v>193</v>
       </c>
@@ -3749,7 +4376,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="78.75">
       <c r="A63" s="2" t="s">
         <v>193</v>
       </c>
@@ -3766,7 +4393,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="78.75">
       <c r="A64" s="2" t="s">
         <v>193</v>
       </c>
@@ -3783,7 +4410,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="78.75">
       <c r="A65" s="2" t="s">
         <v>193</v>
       </c>
@@ -3800,7 +4427,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="78.75">
       <c r="A66" s="2" t="s">
         <v>193</v>
       </c>
@@ -3817,7 +4444,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="78.75">
       <c r="A67" s="2" t="s">
         <v>193</v>
       </c>
@@ -3834,7 +4461,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="78.75">
       <c r="A68" s="2" t="s">
         <v>193</v>
       </c>
@@ -3851,7 +4478,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="78.75">
       <c r="A69" s="2" t="s">
         <v>194</v>
       </c>
@@ -3868,7 +4495,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="78.75">
       <c r="A70" s="2" t="s">
         <v>194</v>
       </c>
@@ -3885,7 +4512,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="78.75">
       <c r="A71" s="2" t="s">
         <v>194</v>
       </c>
@@ -3902,7 +4529,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="78.75">
       <c r="A72" s="2" t="s">
         <v>194</v>
       </c>
@@ -3919,7 +4546,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="78.75">
       <c r="A73" s="2" t="s">
         <v>194</v>
       </c>
@@ -3936,7 +4563,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="78.75">
       <c r="A74" s="2" t="s">
         <v>193</v>
       </c>
@@ -3953,7 +4580,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="78.75">
       <c r="A75" s="2" t="s">
         <v>193</v>
       </c>
@@ -3970,7 +4597,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="78.75">
       <c r="A76" s="2" t="s">
         <v>194</v>
       </c>
@@ -3987,7 +4614,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="78.75">
       <c r="A77" s="2" t="s">
         <v>194</v>
       </c>
@@ -4004,7 +4631,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="78.75">
       <c r="A78" s="2" t="s">
         <v>193</v>
       </c>
@@ -4021,7 +4648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="78.75">
       <c r="A79" s="2" t="s">
         <v>193</v>
       </c>
@@ -4038,7 +4665,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="78.75">
       <c r="A80" s="2" t="s">
         <v>193</v>
       </c>
@@ -4055,7 +4682,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="78.75">
       <c r="A81" s="2" t="s">
         <v>193</v>
       </c>
@@ -4072,7 +4699,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="78.75">
       <c r="A82" s="2" t="s">
         <v>193</v>
       </c>
@@ -4089,7 +4716,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="78.75">
       <c r="A83" s="2" t="s">
         <v>193</v>
       </c>
@@ -4106,7 +4733,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="78.75">
       <c r="A84" s="2" t="s">
         <v>194</v>
       </c>
@@ -4123,7 +4750,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="78.75">
       <c r="A85" s="2" t="s">
         <v>194</v>
       </c>
@@ -4140,7 +4767,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="78.75">
       <c r="A86" s="2" t="s">
         <v>193</v>
       </c>
@@ -4157,7 +4784,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="78.75">
       <c r="A87" s="2" t="s">
         <v>193</v>
       </c>
@@ -4174,7 +4801,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="78.75">
       <c r="A88" s="2" t="s">
         <v>193</v>
       </c>
@@ -4191,7 +4818,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="78.75">
       <c r="A89" s="2" t="s">
         <v>193</v>
       </c>
@@ -4208,7 +4835,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="78.75">
       <c r="A90" s="2" t="s">
         <v>193</v>
       </c>
@@ -4225,7 +4852,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="78.75">
       <c r="A91" s="2" t="s">
         <v>194</v>
       </c>
@@ -4242,7 +4869,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="78.75">
       <c r="A92" s="2" t="s">
         <v>193</v>
       </c>
@@ -4259,7 +4886,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="78.75">
       <c r="A93" s="2" t="s">
         <v>193</v>
       </c>
@@ -4276,7 +4903,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="78.75">
       <c r="A94" s="2" t="s">
         <v>193</v>
       </c>
@@ -4293,7 +4920,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="78.75">
       <c r="A95" s="2" t="s">
         <v>194</v>
       </c>
@@ -4310,7 +4937,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="78.75">
       <c r="A96" s="2" t="s">
         <v>193</v>
       </c>
@@ -4327,7 +4954,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="78.75">
       <c r="A97" s="2" t="s">
         <v>193</v>
       </c>
@@ -4344,7 +4971,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="78.75">
       <c r="A98" s="2" t="s">
         <v>193</v>
       </c>
@@ -4361,7 +4988,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="78.75">
       <c r="A99" s="2" t="s">
         <v>193</v>
       </c>
@@ -4378,7 +5005,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="78.75">
       <c r="A100" s="2" t="s">
         <v>194</v>
       </c>
@@ -4395,7 +5022,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="78.75">
       <c r="A101" s="2" t="s">
         <v>194</v>
       </c>
@@ -4412,7 +5039,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="78.75">
       <c r="A102" s="2" t="s">
         <v>193</v>
       </c>
@@ -4429,7 +5056,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="78.75">
       <c r="A103" s="2" t="s">
         <v>193</v>
       </c>
@@ -4446,7 +5073,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="78.75">
       <c r="A104" s="2" t="s">
         <v>193</v>
       </c>
@@ -4463,7 +5090,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="78.75">
       <c r="A105" s="2" t="s">
         <v>193</v>
       </c>
@@ -4480,7 +5107,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="31.5">
       <c r="A106" s="2" t="s">
         <v>195</v>
       </c>
@@ -4497,7 +5124,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="31.5">
       <c r="A107" s="2" t="s">
         <v>195</v>
       </c>
@@ -4514,7 +5141,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="31.5">
       <c r="A108" s="2" t="s">
         <v>195</v>
       </c>
@@ -4531,7 +5158,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="31.5">
       <c r="A109" s="2" t="s">
         <v>195</v>
       </c>
@@ -4548,7 +5175,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="31.5">
       <c r="A110" s="2" t="s">
         <v>195</v>
       </c>
@@ -4565,7 +5192,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="31.5">
       <c r="A111" s="2" t="s">
         <v>195</v>
       </c>
@@ -4582,7 +5209,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="126">
       <c r="A112" s="2" t="s">
         <v>195</v>
       </c>
@@ -4599,7 +5226,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="47.25">
       <c r="A113" s="2" t="s">
         <v>195</v>
       </c>
@@ -4616,7 +5243,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="47.25">
       <c r="A114" s="2" t="s">
         <v>195</v>
       </c>
@@ -4633,7 +5260,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="47.25">
       <c r="A115" s="2" t="s">
         <v>195</v>
       </c>
@@ -4650,7 +5277,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="47.25">
       <c r="A116" s="2" t="s">
         <v>195</v>
       </c>
@@ -4667,7 +5294,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="47.25">
       <c r="A117" s="2" t="s">
         <v>195</v>
       </c>
@@ -4684,7 +5311,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="47.25">
       <c r="A118" s="2" t="s">
         <v>195</v>
       </c>
@@ -4701,7 +5328,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="126">
       <c r="A119" s="2" t="s">
         <v>195</v>
       </c>
@@ -4718,7 +5345,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="31.5">
       <c r="A120" s="2" t="s">
         <v>195</v>
       </c>
@@ -4735,7 +5362,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="31.5">
       <c r="A121" s="2" t="s">
         <v>195</v>
       </c>
@@ -4752,7 +5379,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="31.5">
       <c r="A122" s="2" t="s">
         <v>195</v>
       </c>
@@ -4769,7 +5396,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="31.5">
       <c r="A123" s="2" t="s">
         <v>195</v>
       </c>
@@ -4786,7 +5413,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="31.5">
       <c r="A124" s="2" t="s">
         <v>195</v>
       </c>
@@ -4803,7 +5430,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="31.5">
       <c r="A125" s="2" t="s">
         <v>195</v>
       </c>
@@ -4820,7 +5447,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="126">
       <c r="A126" s="2" t="s">
         <v>195</v>
       </c>
@@ -4837,7 +5464,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="31.5">
       <c r="A127" s="2" t="s">
         <v>195</v>
       </c>
@@ -4854,7 +5481,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="31.5">
       <c r="A128" s="2" t="s">
         <v>195</v>
       </c>
@@ -4871,7 +5498,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="31.5">
       <c r="A129" s="2" t="s">
         <v>195</v>
       </c>
@@ -4888,7 +5515,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="31.5">
       <c r="A130" s="2" t="s">
         <v>195</v>
       </c>
@@ -4905,7 +5532,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="31.5">
       <c r="A131" s="2" t="s">
         <v>195</v>
       </c>
@@ -4922,7 +5549,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="31.5">
       <c r="A132" s="2" t="s">
         <v>195</v>
       </c>
@@ -4939,7 +5566,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="126">
       <c r="A133" s="2" t="s">
         <v>195</v>
       </c>
@@ -4956,7 +5583,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="63">
       <c r="A134" s="2" t="s">
         <v>319</v>
       </c>
@@ -4970,7 +5597,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="47.25">
       <c r="A135" s="2" t="s">
         <v>319</v>
       </c>
@@ -4984,7 +5611,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="47.25">
       <c r="A136" s="2" t="s">
         <v>319</v>
       </c>
@@ -4998,7 +5625,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="63">
       <c r="A137" s="2" t="s">
         <v>319</v>
       </c>
@@ -5012,7 +5639,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="63">
       <c r="A138" s="2" t="s">
         <v>319</v>
       </c>
@@ -5026,7 +5653,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="47.25">
       <c r="A139" s="2" t="s">
         <v>319</v>
       </c>
@@ -5040,7 +5667,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="47.25">
       <c r="A140" s="2" t="s">
         <v>319</v>
       </c>
@@ -5054,7 +5681,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="47.25">
       <c r="A141" s="2" t="s">
         <v>319</v>
       </c>
@@ -5068,7 +5695,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="47.25">
       <c r="A142" s="2" t="s">
         <v>319</v>
       </c>
@@ -5082,7 +5709,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="47.25">
       <c r="A143" s="2" t="s">
         <v>319</v>
       </c>
@@ -5096,7 +5723,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="47.25">
       <c r="A144" s="2" t="s">
         <v>319</v>
       </c>
@@ -5110,7 +5737,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="47.25">
       <c r="A145" s="2" t="s">
         <v>319</v>
       </c>
@@ -5124,7 +5751,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="47.25">
       <c r="A146" s="2" t="s">
         <v>319</v>
       </c>
@@ -5138,7 +5765,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="47.25">
       <c r="A147" s="2" t="s">
         <v>319</v>
       </c>
@@ -5152,7 +5779,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="47.25">
       <c r="A148" s="2" t="s">
         <v>319</v>
       </c>
@@ -5166,7 +5793,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="31.5">
       <c r="A149" s="2" t="s">
         <v>366</v>
       </c>
@@ -5180,7 +5807,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="31.5">
       <c r="A150" s="2" t="s">
         <v>366</v>
       </c>
@@ -5194,7 +5821,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="31.5">
       <c r="A151" s="2" t="s">
         <v>366</v>
       </c>
@@ -5208,7 +5835,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="31.5">
       <c r="A152" s="2" t="s">
         <v>366</v>
       </c>
@@ -5222,7 +5849,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="31.5">
       <c r="A153" s="2" t="s">
         <v>366</v>
       </c>
@@ -5236,7 +5863,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="31.5">
       <c r="A154" s="2" t="s">
         <v>366</v>
       </c>
@@ -5250,7 +5877,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="31.5">
       <c r="A155" s="2" t="s">
         <v>366</v>
       </c>
@@ -5264,7 +5891,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="31.5">
       <c r="A156" s="2" t="s">
         <v>366</v>
       </c>
@@ -5278,7 +5905,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="31.5">
       <c r="A157" s="2" t="s">
         <v>366</v>
       </c>
@@ -5292,7 +5919,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="31.5">
       <c r="A158" s="2" t="s">
         <v>366</v>
       </c>
@@ -5304,6 +5931,116 @@
       </c>
       <c r="D158" s="2" t="s">
         <v>386</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="47.25">
+      <c r="B159" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="47.25">
+      <c r="B160" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" ht="47.25">
+      <c r="B161" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" ht="47.25">
+      <c r="B162" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" ht="47.25">
+      <c r="B163" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" ht="47.25">
+      <c r="B164" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" ht="47.25">
+      <c r="B165" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" ht="47.25">
+      <c r="B166" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" ht="47.25">
+      <c r="B167" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" ht="47.25">
+      <c r="B168" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -5339,7 +6076,7 @@
       <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="37.85546875" style="2" customWidth="1"/>
@@ -5349,7 +6086,7 @@
     <col min="6" max="6" width="23" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>191</v>
       </c>
@@ -5369,7 +6106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="78.75">
       <c r="A2" s="2" t="s">
         <v>192</v>
       </c>
@@ -5389,7 +6126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="78.75">
       <c r="A3" s="2" t="s">
         <v>192</v>
       </c>
@@ -5409,7 +6146,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="78.75">
       <c r="A4" s="2" t="s">
         <v>192</v>
       </c>
@@ -5429,7 +6166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="78.75">
       <c r="A5" s="2" t="s">
         <v>192</v>
       </c>
@@ -5449,7 +6186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="78.75">
       <c r="A6" s="2" t="s">
         <v>192</v>
       </c>
@@ -5469,7 +6206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="78.75">
       <c r="A7" s="2" t="s">
         <v>192</v>
       </c>
@@ -5489,7 +6226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="78.75">
       <c r="A8" s="2" t="s">
         <v>192</v>
       </c>
@@ -5509,7 +6246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="78.75">
       <c r="A9" s="2" t="s">
         <v>192</v>
       </c>
@@ -5529,7 +6266,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="78.75">
       <c r="A10" s="2" t="s">
         <v>192</v>
       </c>
@@ -5549,7 +6286,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="78.75">
       <c r="A11" s="2" t="s">
         <v>192</v>
       </c>
@@ -5569,7 +6306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="78.75">
       <c r="A12" s="2" t="s">
         <v>193</v>
       </c>
@@ -5589,7 +6326,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="78.75">
       <c r="A13" s="2" t="s">
         <v>193</v>
       </c>
@@ -5609,7 +6346,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="78.75">
       <c r="A14" s="2" t="s">
         <v>193</v>
       </c>
@@ -5629,7 +6366,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="78.75">
       <c r="A15" s="2" t="s">
         <v>193</v>
       </c>
@@ -5649,7 +6386,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="78.75">
       <c r="A16" s="2" t="s">
         <v>193</v>
       </c>
@@ -5669,7 +6406,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="78.75">
       <c r="A17" s="2" t="s">
         <v>194</v>
       </c>
@@ -5689,7 +6426,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="78.75">
       <c r="A18" s="2" t="s">
         <v>194</v>
       </c>
@@ -5709,7 +6446,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="78.75">
       <c r="A19" s="2" t="s">
         <v>194</v>
       </c>
@@ -5729,7 +6466,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="78.75">
       <c r="A20" s="2" t="s">
         <v>194</v>
       </c>
@@ -5749,7 +6486,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="78.75">
       <c r="A21" s="2" t="s">
         <v>194</v>
       </c>
@@ -5769,7 +6506,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="B22" s="2" t="s">
         <v>322</v>
       </c>
@@ -5783,7 +6520,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="B23" s="2" t="s">
         <v>335</v>
       </c>
@@ -5797,7 +6534,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="B24" s="2" t="s">
         <v>324</v>
       </c>
@@ -5811,10 +6548,10 @@
         <v>334</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="B26" s="2" t="s">
         <v>326</v>
       </c>
@@ -5828,10 +6565,10 @@
         <v>334</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="B28" s="2" t="s">
         <v>328</v>
       </c>
@@ -5864,14 +6601,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35CCE0C-2513-45B3-84A4-FC9AFB4675C1}">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="37.85546875" style="2" customWidth="1"/>
@@ -5881,7 +6618,7 @@
     <col min="6" max="6" width="23" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>191</v>
       </c>
@@ -5901,7 +6638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="78.75">
       <c r="A2" s="2" t="s">
         <v>366</v>
       </c>
@@ -5921,7 +6658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="78.75">
       <c r="A3" s="2" t="s">
         <v>366</v>
       </c>
@@ -5941,7 +6678,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="78.75">
       <c r="A4" s="2" t="s">
         <v>366</v>
       </c>
@@ -5961,7 +6698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="78.75">
       <c r="A5" s="2" t="s">
         <v>366</v>
       </c>
@@ -5981,7 +6718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="78.75">
       <c r="A6" s="2" t="s">
         <v>366</v>
       </c>
@@ -6001,7 +6738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="78.75">
       <c r="A7" s="2" t="s">
         <v>366</v>
       </c>
@@ -6021,7 +6758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="78.75">
       <c r="A8" s="2" t="s">
         <v>366</v>
       </c>
@@ -6041,7 +6778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="78.75">
       <c r="A9" s="2" t="s">
         <v>366</v>
       </c>
@@ -6061,7 +6798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="78.75">
       <c r="A10" s="2" t="s">
         <v>366</v>
       </c>
@@ -6081,7 +6818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="78.75">
       <c r="A11" s="2" t="s">
         <v>366</v>
       </c>
@@ -6101,7 +6838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="78.75">
       <c r="A12" s="2" t="s">
         <v>366</v>
       </c>
@@ -6121,7 +6858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="78.75">
       <c r="A13" s="2" t="s">
         <v>366</v>
       </c>
@@ -6141,7 +6878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="78.75">
       <c r="A14" s="2" t="s">
         <v>366</v>
       </c>
@@ -6161,7 +6898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="78.75">
       <c r="A15" s="2" t="s">
         <v>366</v>
       </c>
@@ -6181,7 +6918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="78.75">
       <c r="A16" s="2" t="s">
         <v>366</v>
       </c>
@@ -6201,7 +6938,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="78.75">
       <c r="A17" s="2" t="s">
         <v>366</v>
       </c>
@@ -6221,7 +6958,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="78.75">
       <c r="A18" s="2" t="s">
         <v>366</v>
       </c>
@@ -6241,7 +6978,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="78.75">
       <c r="A19" s="2" t="s">
         <v>366</v>
       </c>
@@ -6261,7 +6998,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="78.75">
       <c r="A20" s="2" t="s">
         <v>366</v>
       </c>
@@ -6281,7 +7018,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="78.75">
       <c r="A21" s="2" t="s">
         <v>366</v>
       </c>
@@ -6301,7 +7038,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="78.75">
       <c r="A22" s="2" t="s">
         <v>366</v>
       </c>
@@ -6321,7 +7058,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="78.75">
       <c r="A23" s="2" t="s">
         <v>366</v>
       </c>
@@ -6341,7 +7078,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="78.75">
       <c r="A24" s="2" t="s">
         <v>366</v>
       </c>
@@ -6361,7 +7098,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="78.75">
       <c r="A25" s="2" t="s">
         <v>366</v>
       </c>
@@ -6381,7 +7118,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="78.75">
       <c r="A26" s="2" t="s">
         <v>366</v>
       </c>
@@ -6401,7 +7138,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="78.75">
       <c r="A27" s="2" t="s">
         <v>366</v>
       </c>
@@ -6421,7 +7158,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="78.75">
       <c r="A28" s="2" t="s">
         <v>366</v>
       </c>
@@ -6441,7 +7178,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="78.75">
       <c r="A29" s="2" t="s">
         <v>366</v>
       </c>
@@ -6461,7 +7198,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="78.75">
       <c r="A30" s="2" t="s">
         <v>366</v>
       </c>
@@ -6481,7 +7218,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="78.75">
       <c r="A31" s="2" t="s">
         <v>366</v>
       </c>
@@ -6501,7 +7238,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="78.75">
       <c r="A32" s="2" t="s">
         <v>366</v>
       </c>
@@ -6521,7 +7258,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="78.75">
       <c r="A33" s="2" t="s">
         <v>366</v>
       </c>
@@ -6541,7 +7278,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="78.75">
       <c r="A34" s="2" t="s">
         <v>366</v>
       </c>
@@ -6561,7 +7298,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="78.75">
       <c r="A35" s="2" t="s">
         <v>366</v>
       </c>
@@ -6581,7 +7318,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="78.75">
       <c r="A36" s="2" t="s">
         <v>366</v>
       </c>
@@ -6601,7 +7338,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="78.75">
       <c r="A37" s="2" t="s">
         <v>366</v>
       </c>
@@ -6621,7 +7358,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="78.75">
       <c r="A38" s="2" t="s">
         <v>366</v>
       </c>
@@ -6641,7 +7378,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="78.75">
       <c r="A39" s="2" t="s">
         <v>366</v>
       </c>
@@ -6661,7 +7398,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="78.75">
       <c r="A40" s="2" t="s">
         <v>366</v>
       </c>
@@ -6681,7 +7418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="78.75">
       <c r="A41" s="2" t="s">
         <v>366</v>
       </c>
@@ -6701,7 +7438,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="78.75">
       <c r="A42" s="2" t="s">
         <v>366</v>
       </c>
@@ -6721,7 +7458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="78.75">
       <c r="A43" s="2" t="s">
         <v>366</v>
       </c>
@@ -6741,7 +7478,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="78.75">
       <c r="A44" s="2" t="s">
         <v>366</v>
       </c>
@@ -6761,7 +7498,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="78.75">
       <c r="A45" s="2" t="s">
         <v>366</v>
       </c>
@@ -6781,7 +7518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="78.75">
       <c r="A46" s="2" t="s">
         <v>366</v>
       </c>
@@ -6801,7 +7538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="78.75">
       <c r="A47" s="2" t="s">
         <v>366</v>
       </c>
@@ -6821,7 +7558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="78.75">
       <c r="A48" s="2" t="s">
         <v>366</v>
       </c>
@@ -6841,7 +7578,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="78.75">
       <c r="A49" s="2" t="s">
         <v>366</v>
       </c>
@@ -6861,7 +7598,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="78.75">
       <c r="A50" s="2" t="s">
         <v>366</v>
       </c>
@@ -6881,7 +7618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="78.75">
       <c r="A51" s="2" t="s">
         <v>366</v>
       </c>
@@ -6901,7 +7638,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="78.75">
       <c r="A52" s="2" t="s">
         <v>366</v>
       </c>
@@ -6921,7 +7658,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="78.75">
       <c r="A53" s="2" t="s">
         <v>366</v>
       </c>
@@ -6941,7 +7678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="78.75">
       <c r="A54" s="2" t="s">
         <v>366</v>
       </c>
@@ -6961,7 +7698,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="78.75">
       <c r="A55" s="2" t="s">
         <v>366</v>
       </c>
@@ -6981,7 +7718,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="78.75">
       <c r="A56" s="2" t="s">
         <v>366</v>
       </c>
@@ -7001,7 +7738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="78.75">
       <c r="A57" s="2" t="s">
         <v>366</v>
       </c>
@@ -7021,7 +7758,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="78.75">
       <c r="A58" s="2" t="s">
         <v>366</v>
       </c>
@@ -7041,7 +7778,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="78.75">
       <c r="A59" s="2" t="s">
         <v>366</v>
       </c>
@@ -7061,7 +7798,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="78.75">
       <c r="A60" s="2" t="s">
         <v>366</v>
       </c>
@@ -7081,7 +7818,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="78.75">
       <c r="A61" s="2" t="s">
         <v>366</v>
       </c>
@@ -7101,7 +7838,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="78.75">
       <c r="A62" s="2" t="s">
         <v>366</v>
       </c>
@@ -7121,7 +7858,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="78.75">
       <c r="A63" s="2" t="s">
         <v>366</v>
       </c>
@@ -7141,7 +7878,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="78.75">
       <c r="A64" s="2" t="s">
         <v>366</v>
       </c>
@@ -7161,7 +7898,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="78.75">
       <c r="A65" s="2" t="s">
         <v>366</v>
       </c>
@@ -7181,7 +7918,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="78.75">
       <c r="A66" s="2" t="s">
         <v>366</v>
       </c>
@@ -7201,7 +7938,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="78.75">
       <c r="A67" s="2" t="s">
         <v>366</v>
       </c>
@@ -7221,7 +7958,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="78.75">
       <c r="A68" s="2" t="s">
         <v>366</v>
       </c>
@@ -7241,7 +7978,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="78.75">
       <c r="A69" s="2" t="s">
         <v>366</v>
       </c>
@@ -7261,7 +7998,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="78.75">
       <c r="A70" s="2" t="s">
         <v>366</v>
       </c>
@@ -7281,7 +8018,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="78.75">
       <c r="A71" s="2" t="s">
         <v>366</v>
       </c>
@@ -7301,7 +8038,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="78.75">
       <c r="A72" s="2" t="s">
         <v>366</v>
       </c>
@@ -7321,7 +8058,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="78.75">
       <c r="A73" s="2" t="s">
         <v>366</v>
       </c>
@@ -7341,7 +8078,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="78.75">
       <c r="A74" s="2" t="s">
         <v>366</v>
       </c>
@@ -7361,7 +8098,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="78.75">
       <c r="A75" s="2" t="s">
         <v>366</v>
       </c>
@@ -7381,7 +8118,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="78.75">
       <c r="A76" s="2" t="s">
         <v>366</v>
       </c>
@@ -7401,7 +8138,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="78.75">
       <c r="A77" s="2" t="s">
         <v>366</v>
       </c>
@@ -7419,6 +8156,693 @@
       </c>
       <c r="F77" s="1" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="78.75">
+      <c r="B78" s="2" t="str">
+        <f>"113年高雄市"&amp;G78&amp;"橋樑"</f>
+        <v>113年高雄市鹽埕區橋樑</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D78" s="2">
+        <v>7</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G78" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="78.75">
+      <c r="B79" s="2" t="str">
+        <f t="shared" ref="B79:B115" si="0">"113年高雄市"&amp;G79&amp;"橋樑"</f>
+        <v>113年高雄市鼓山區橋樑</v>
+      </c>
+      <c r="D79" s="2">
+        <v>14</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G79" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="78.75">
+      <c r="B80" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市左營區橋樑</v>
+      </c>
+      <c r="D80" s="2">
+        <v>25</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G80" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" ht="78.75">
+      <c r="B81" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市楠梓區橋樑</v>
+      </c>
+      <c r="D81" s="2">
+        <v>35</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G81" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" ht="78.75">
+      <c r="B82" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市三民區橋樑</v>
+      </c>
+      <c r="D82" s="2">
+        <v>57</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G82" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="78.75">
+      <c r="B83" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市新興區橋樑</v>
+      </c>
+      <c r="D83" s="2">
+        <v>2</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G83" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" ht="78.75">
+      <c r="B84" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市前金區橋樑</v>
+      </c>
+      <c r="D84" s="2">
+        <v>2</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G84" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" ht="78.75">
+      <c r="B85" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市苓雅區橋樑</v>
+      </c>
+      <c r="D85" s="2">
+        <v>4</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G85" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" ht="78.75">
+      <c r="B86" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市前鎮區橋樑</v>
+      </c>
+      <c r="D86" s="2">
+        <v>19</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G86" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" ht="78.75">
+      <c r="B87" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市旗津區橋樑</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G87" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" ht="78.75">
+      <c r="B88" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市小港區橋樑</v>
+      </c>
+      <c r="D88" s="2">
+        <v>8</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G88" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" ht="78.75">
+      <c r="B89" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市鳳山區橋樑</v>
+      </c>
+      <c r="D89" s="2">
+        <v>34</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G89" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" ht="78.75">
+      <c r="B90" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市林園區橋樑</v>
+      </c>
+      <c r="D90" s="2">
+        <v>39</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G90" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" ht="78.75">
+      <c r="B91" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市大寮區橋樑</v>
+      </c>
+      <c r="D91" s="2">
+        <v>96</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G91" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" ht="78.75">
+      <c r="B92" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市大樹區橋樑</v>
+      </c>
+      <c r="D92" s="2">
+        <v>109</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G92" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" ht="78.75">
+      <c r="B93" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市大社區橋樑</v>
+      </c>
+      <c r="D93" s="2">
+        <v>33</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G93" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" ht="78.75">
+      <c r="B94" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市仁武區橋樑</v>
+      </c>
+      <c r="D94" s="2">
+        <v>35</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G94" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" ht="78.75">
+      <c r="B95" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市鳥松區橋樑</v>
+      </c>
+      <c r="D95" s="2">
+        <v>71</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G95" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" ht="78.75">
+      <c r="B96" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市岡山區橋樑</v>
+      </c>
+      <c r="D96" s="2">
+        <v>44</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G96" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" ht="78.75">
+      <c r="B97" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市橋頭區橋樑</v>
+      </c>
+      <c r="D97" s="2">
+        <v>19</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G97" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" ht="78.75">
+      <c r="B98" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市燕巢區橋樑</v>
+      </c>
+      <c r="D98" s="2">
+        <v>63</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G98" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" ht="78.75">
+      <c r="B99" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市田寮區橋樑</v>
+      </c>
+      <c r="D99" s="2">
+        <v>44</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G99" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" ht="78.75">
+      <c r="B100" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市阿蓮區橋樑</v>
+      </c>
+      <c r="D100" s="2">
+        <v>18</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G100" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" ht="78.75">
+      <c r="B101" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市路竹區橋樑</v>
+      </c>
+      <c r="D101" s="2">
+        <v>36</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G101" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" ht="78.75">
+      <c r="B102" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市湖內區橋樑</v>
+      </c>
+      <c r="D102" s="2">
+        <v>19</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G102" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" ht="78.75">
+      <c r="B103" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市茄萣區橋樑</v>
+      </c>
+      <c r="D103" s="2">
+        <v>23</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G103" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" ht="78.75">
+      <c r="B104" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市永安區橋樑</v>
+      </c>
+      <c r="D104" s="2">
+        <v>13</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G104" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" ht="78.75">
+      <c r="B105" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市彌陀區橋樑</v>
+      </c>
+      <c r="D105" s="2">
+        <v>18</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G105" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" ht="78.75">
+      <c r="B106" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市梓官區橋樑</v>
+      </c>
+      <c r="D106" s="2">
+        <v>10</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G106" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" ht="78.75">
+      <c r="B107" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市旗山區橋樑</v>
+      </c>
+      <c r="D107" s="2">
+        <v>68</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G107" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" ht="78.75">
+      <c r="B108" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市美濃區橋樑</v>
+      </c>
+      <c r="D108" s="2">
+        <v>156</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="G108" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" ht="78.75">
+      <c r="B109" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市六龜區橋樑</v>
+      </c>
+      <c r="D109" s="2">
+        <v>37</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G109" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" ht="78.75">
+      <c r="B110" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市甲仙區橋樑</v>
+      </c>
+      <c r="D110" s="2">
+        <v>28</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G110" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" ht="78.75">
+      <c r="B111" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市杉林區橋樑</v>
+      </c>
+      <c r="D111" s="2">
+        <v>79</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G111" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" ht="78.75">
+      <c r="B112" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市內門區橋樑</v>
+      </c>
+      <c r="D112" s="2">
+        <v>82</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G112" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" ht="78.75">
+      <c r="B113" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市茂林區橋樑</v>
+      </c>
+      <c r="D113" s="2">
+        <v>5</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G113" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" ht="78.75">
+      <c r="B114" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市桃源區橋樑</v>
+      </c>
+      <c r="D114" s="2">
+        <v>11</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G114" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" ht="78.75">
+      <c r="B115" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>113年高雄市那瑪夏區橋樑</v>
+      </c>
+      <c r="D115" s="2">
+        <v>6</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G115" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -7510,6 +8934,44 @@
     <hyperlink ref="F75" r:id="rId74" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{C8F27726-35B0-4F08-86CD-5F709384C7BC}"/>
     <hyperlink ref="F76" r:id="rId75" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{38E855F3-1843-4470-8298-3556AC0CFBF1}"/>
     <hyperlink ref="F77" r:id="rId76" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{FBC69F90-9D76-4B68-8CDD-D9700E7D3E51}"/>
+    <hyperlink ref="F78" r:id="rId77" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{A1CB5D33-24B9-4E8A-B47E-CB7CF0E2D43D}"/>
+    <hyperlink ref="F79" r:id="rId78" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{00C06060-A363-4ADA-A063-25CC9339E014}"/>
+    <hyperlink ref="F80" r:id="rId79" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{D664F61D-9B4F-4222-B9CA-912025D4ABBB}"/>
+    <hyperlink ref="F81" r:id="rId80" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{5CF96568-EED7-436F-92C3-AFC943595B71}"/>
+    <hyperlink ref="F82" r:id="rId81" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{50993072-EF47-49CD-841C-E984CB9A8A94}"/>
+    <hyperlink ref="F83" r:id="rId82" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{FA9E6E25-E8A9-48E7-BC90-E41BB804889E}"/>
+    <hyperlink ref="F84" r:id="rId83" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{F8FDEA51-1801-4240-B220-CCBF017172D8}"/>
+    <hyperlink ref="F85" r:id="rId84" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{BF833FA1-D3CE-43AB-84BA-E2BDF007E973}"/>
+    <hyperlink ref="F86" r:id="rId85" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{5FB83F17-D7F3-4998-A3A8-C90A8E64FBBC}"/>
+    <hyperlink ref="F87" r:id="rId86" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{E35B1459-DCEB-4185-B041-5E8268BAA3EF}"/>
+    <hyperlink ref="F88" r:id="rId87" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{209A79C6-0B88-4B48-A6FF-807F2C3C933E}"/>
+    <hyperlink ref="F89" r:id="rId88" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{00BFE085-4B39-439E-BAEC-86F90596F4FE}"/>
+    <hyperlink ref="F90" r:id="rId89" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{DF14CCD7-14E1-4173-BF7D-D7F56C90B799}"/>
+    <hyperlink ref="F91" r:id="rId90" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{5D5488F0-DC40-4A7F-A981-211604164C3A}"/>
+    <hyperlink ref="F92" r:id="rId91" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{C6AF5F00-272E-4E19-B303-B550BF4D273A}"/>
+    <hyperlink ref="F93" r:id="rId92" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{24FAFA1F-9772-4DF1-B8BB-619C7B9E87B9}"/>
+    <hyperlink ref="F94" r:id="rId93" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{1A64C64D-F02E-4F26-A26C-93459AA5DCE8}"/>
+    <hyperlink ref="F95" r:id="rId94" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{0534A389-A61D-4C03-8913-C6E5557E29EF}"/>
+    <hyperlink ref="F96" r:id="rId95" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{1CE906F5-A292-4952-93AC-5B42D2BFF7A8}"/>
+    <hyperlink ref="F97" r:id="rId96" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{BA3AC509-2602-4807-B8C4-E7D2E0DE2E9F}"/>
+    <hyperlink ref="F98" r:id="rId97" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{2F1E1CCC-5530-4705-A7E7-B3142C0BFA7E}"/>
+    <hyperlink ref="F99" r:id="rId98" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{7A716649-5223-4592-899E-E4B2C5307AE7}"/>
+    <hyperlink ref="F100" r:id="rId99" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{CE45ECD5-1E3F-4529-8617-D935A0CEC6C1}"/>
+    <hyperlink ref="F101" r:id="rId100" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{2F4EA38B-CBBA-4D05-B308-F58E7A117954}"/>
+    <hyperlink ref="F102" r:id="rId101" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{91212403-8C08-4E3F-A9AC-1CE949E7B5F8}"/>
+    <hyperlink ref="F103" r:id="rId102" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{5B7A69E0-6B0E-46FA-8533-728659E6BC71}"/>
+    <hyperlink ref="F104" r:id="rId103" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{6462EF49-2B65-4E73-AF4E-425D0090C47E}"/>
+    <hyperlink ref="F105" r:id="rId104" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{FD64F1F1-20C9-4B57-9D21-B92BCEAC2C5F}"/>
+    <hyperlink ref="F106" r:id="rId105" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{FC9815A3-4397-4941-8B5C-29B28BB33CEC}"/>
+    <hyperlink ref="F107" r:id="rId106" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{29396206-9DE4-4FDF-B98A-6B3646385291}"/>
+    <hyperlink ref="F108" r:id="rId107" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{89F79442-6BAD-44DD-8C71-B719BA253AA3}"/>
+    <hyperlink ref="F109" r:id="rId108" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{314601B8-24B5-4F4A-80C1-D0B3C7C1D018}"/>
+    <hyperlink ref="F110" r:id="rId109" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{9B382516-7C42-434B-BBBF-0A597834580A}"/>
+    <hyperlink ref="F111" r:id="rId110" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{FC1983B9-BD99-4C66-90EF-75C2F47BCD12}"/>
+    <hyperlink ref="F112" r:id="rId111" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{D5A63A55-DF38-49B1-BA85-C54D2FCAC19A}"/>
+    <hyperlink ref="F113" r:id="rId112" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{2560AB26-9CDA-4486-8281-0755E8B0B254}"/>
+    <hyperlink ref="F114" r:id="rId113" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{2720048A-5C4C-4598-A7C7-D7B3BCE86FA3}"/>
+    <hyperlink ref="F115" r:id="rId114" display="https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7092" xr:uid="{8AEA152F-BE8E-40BA-A128-DB48522B5877}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pwb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEFF0DB-F7FA-443B-8FE2-C5F3D4B1FFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2D6F5F-EA3C-406B-9252-D50305875BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="584">
   <si>
     <t>description</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2536,120 +2536,6 @@
     <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7167</t>
   </si>
   <si>
-    <t>鹽埕區</t>
-  </si>
-  <si>
-    <t>鼓山區</t>
-  </si>
-  <si>
-    <t>左營區</t>
-  </si>
-  <si>
-    <t>楠梓區</t>
-  </si>
-  <si>
-    <t>三民區</t>
-  </si>
-  <si>
-    <t>新興區</t>
-  </si>
-  <si>
-    <t>前金區</t>
-  </si>
-  <si>
-    <t>苓雅區</t>
-  </si>
-  <si>
-    <t>前鎮區</t>
-  </si>
-  <si>
-    <t>旗津區</t>
-  </si>
-  <si>
-    <t>小港區</t>
-  </si>
-  <si>
-    <t>鳳山區</t>
-  </si>
-  <si>
-    <t>林園區</t>
-  </si>
-  <si>
-    <t>大寮區</t>
-  </si>
-  <si>
-    <t>大樹區</t>
-  </si>
-  <si>
-    <t>大社區</t>
-  </si>
-  <si>
-    <t>仁武區</t>
-  </si>
-  <si>
-    <t>鳥松區</t>
-  </si>
-  <si>
-    <t>岡山區</t>
-  </si>
-  <si>
-    <t>橋頭區</t>
-  </si>
-  <si>
-    <t>燕巢區</t>
-  </si>
-  <si>
-    <t>田寮區</t>
-  </si>
-  <si>
-    <t>阿蓮區</t>
-  </si>
-  <si>
-    <t>路竹區</t>
-  </si>
-  <si>
-    <t>湖內區</t>
-  </si>
-  <si>
-    <t>茄萣區</t>
-  </si>
-  <si>
-    <t>永安區</t>
-  </si>
-  <si>
-    <t>彌陀區</t>
-  </si>
-  <si>
-    <t>梓官區</t>
-  </si>
-  <si>
-    <t>旗山區</t>
-  </si>
-  <si>
-    <t>美濃區</t>
-  </si>
-  <si>
-    <t>六龜區</t>
-  </si>
-  <si>
-    <t>甲仙區</t>
-  </si>
-  <si>
-    <t>杉林區</t>
-  </si>
-  <si>
-    <t>內門區</t>
-  </si>
-  <si>
-    <t>茂林區</t>
-  </si>
-  <si>
-    <t>桃源區</t>
-  </si>
-  <si>
-    <t>那瑪夏區</t>
-  </si>
-  <si>
     <t>113年公園</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2772,6 +2658,234 @@
 資料來源：高雄市政府工務局工務統計年報。</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年高雄市鹽埕區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市鼓山區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市左營區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市楠梓區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市三民區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市新興區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市前金區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市苓雅區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市前鎮區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市旗津區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市小港區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市鳳山區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市林園區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市大寮區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市大樹區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市大社區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市仁武區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市鳥松區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市岡山區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市橋頭區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市燕巢區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市田寮區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市阿蓮區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市路竹區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市湖內區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市茄萣區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市永安區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市彌陀區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市梓官區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市旗山區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市美濃區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市六龜區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市甲仙區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市杉林區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市內門區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市茂林區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市桃源區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市那瑪夏區橋樑</t>
+  </si>
+  <si>
+    <t>113年高雄市鹽埕區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市鼓山區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市左營區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市楠梓區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市三民區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市新興區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市前金區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市苓雅區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市前鎮區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市旗津區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市小港區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市鳳山區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市林園區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市大寮區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市大樹區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市大社區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市仁武區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市鳥松區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市岡山區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市橋頭區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市燕巢區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市田寮區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市阿蓮區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市路竹區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市湖內區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市茄萣區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市永安區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市彌陀區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市梓官區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市旗山區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市美濃區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市六龜區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市甲仙區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市杉林區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市內門區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市茂林區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市桃源區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市那瑪夏區公園</t>
   </si>
 </sst>
 </file>
@@ -3309,9 +3423,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D166" sqref="D166"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6001,46 +6115,46 @@
     </row>
     <row r="165" spans="2:4" ht="47.25">
       <c r="B165" s="2" t="s">
-        <v>538</v>
+        <v>500</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>539</v>
+        <v>501</v>
       </c>
     </row>
     <row r="166" spans="2:4" ht="47.25">
       <c r="B166" s="2" t="s">
-        <v>540</v>
+        <v>502</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>541</v>
+        <v>503</v>
       </c>
     </row>
     <row r="167" spans="2:4" ht="47.25">
       <c r="B167" s="2" t="s">
-        <v>542</v>
+        <v>504</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>543</v>
+        <v>505</v>
       </c>
     </row>
     <row r="168" spans="2:4" ht="47.25">
       <c r="B168" s="2" t="s">
-        <v>544</v>
+        <v>506</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>545</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -6601,11 +6715,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35CCE0C-2513-45B3-84A4-FC9AFB4675C1}">
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -7898,7 +8012,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="78.75">
+    <row r="65" spans="1:6" ht="78.75">
       <c r="A65" s="2" t="s">
         <v>366</v>
       </c>
@@ -7918,7 +8032,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="78.75">
+    <row r="66" spans="1:6" ht="78.75">
       <c r="A66" s="2" t="s">
         <v>366</v>
       </c>
@@ -7938,7 +8052,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="78.75">
+    <row r="67" spans="1:6" ht="78.75">
       <c r="A67" s="2" t="s">
         <v>366</v>
       </c>
@@ -7958,7 +8072,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="78.75">
+    <row r="68" spans="1:6" ht="78.75">
       <c r="A68" s="2" t="s">
         <v>366</v>
       </c>
@@ -7978,7 +8092,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="78.75">
+    <row r="69" spans="1:6" ht="78.75">
       <c r="A69" s="2" t="s">
         <v>366</v>
       </c>
@@ -7998,7 +8112,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="78.75">
+    <row r="70" spans="1:6" ht="78.75">
       <c r="A70" s="2" t="s">
         <v>366</v>
       </c>
@@ -8018,7 +8132,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="78.75">
+    <row r="71" spans="1:6" ht="78.75">
       <c r="A71" s="2" t="s">
         <v>366</v>
       </c>
@@ -8038,7 +8152,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="78.75">
+    <row r="72" spans="1:6" ht="78.75">
       <c r="A72" s="2" t="s">
         <v>366</v>
       </c>
@@ -8058,7 +8172,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="78.75">
+    <row r="73" spans="1:6" ht="78.75">
       <c r="A73" s="2" t="s">
         <v>366</v>
       </c>
@@ -8078,7 +8192,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="78.75">
+    <row r="74" spans="1:6" ht="78.75">
       <c r="A74" s="2" t="s">
         <v>366</v>
       </c>
@@ -8098,7 +8212,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="78.75">
+    <row r="75" spans="1:6" ht="78.75">
       <c r="A75" s="2" t="s">
         <v>366</v>
       </c>
@@ -8118,7 +8232,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="78.75">
+    <row r="76" spans="1:6" ht="78.75">
       <c r="A76" s="2" t="s">
         <v>366</v>
       </c>
@@ -8138,7 +8252,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="78.75">
+    <row r="77" spans="1:6" ht="78.75">
       <c r="A77" s="2" t="s">
         <v>366</v>
       </c>
@@ -8158,10 +8272,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="78.75">
-      <c r="B78" s="2" t="str">
-        <f>"113年高雄市"&amp;G78&amp;"橋樑"</f>
-        <v>113年高雄市鹽埕區橋樑</v>
+    <row r="78" spans="1:6" ht="78.75">
+      <c r="B78" s="2" t="s">
+        <v>508</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>464</v>
@@ -8175,14 +8288,13 @@
       <c r="F78" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G78" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="78.75">
-      <c r="B79" s="2" t="str">
-        <f t="shared" ref="B79:B115" si="0">"113年高雄市"&amp;G79&amp;"橋樑"</f>
-        <v>113年高雄市鼓山區橋樑</v>
+    </row>
+    <row r="79" spans="1:6" ht="78.75">
+      <c r="B79" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D79" s="2">
         <v>14</v>
@@ -8193,14 +8305,13 @@
       <c r="F79" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G79" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="78.75">
-      <c r="B80" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市左營區橋樑</v>
+    </row>
+    <row r="80" spans="1:6" ht="78.75">
+      <c r="B80" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D80" s="2">
         <v>25</v>
@@ -8211,14 +8322,13 @@
       <c r="F80" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G80" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" ht="78.75">
-      <c r="B81" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市楠梓區橋樑</v>
+    </row>
+    <row r="81" spans="2:6" ht="78.75">
+      <c r="B81" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D81" s="2">
         <v>35</v>
@@ -8229,14 +8339,13 @@
       <c r="F81" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G81" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" ht="78.75">
-      <c r="B82" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市三民區橋樑</v>
+    </row>
+    <row r="82" spans="2:6" ht="78.75">
+      <c r="B82" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D82" s="2">
         <v>57</v>
@@ -8247,14 +8356,13 @@
       <c r="F82" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G82" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" ht="78.75">
-      <c r="B83" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市新興區橋樑</v>
+    </row>
+    <row r="83" spans="2:6" ht="78.75">
+      <c r="B83" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D83" s="2">
         <v>2</v>
@@ -8265,14 +8373,13 @@
       <c r="F83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G83" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" ht="78.75">
-      <c r="B84" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市前金區橋樑</v>
+    </row>
+    <row r="84" spans="2:6" ht="78.75">
+      <c r="B84" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D84" s="2">
         <v>2</v>
@@ -8283,14 +8390,13 @@
       <c r="F84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G84" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" ht="78.75">
-      <c r="B85" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市苓雅區橋樑</v>
+    </row>
+    <row r="85" spans="2:6" ht="78.75">
+      <c r="B85" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D85" s="2">
         <v>4</v>
@@ -8301,14 +8407,13 @@
       <c r="F85" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G85" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" ht="78.75">
-      <c r="B86" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市前鎮區橋樑</v>
+    </row>
+    <row r="86" spans="2:6" ht="78.75">
+      <c r="B86" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D86" s="2">
         <v>19</v>
@@ -8319,14 +8424,13 @@
       <c r="F86" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G86" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" ht="78.75">
-      <c r="B87" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市旗津區橋樑</v>
+    </row>
+    <row r="87" spans="2:6" ht="78.75">
+      <c r="B87" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D87" s="2">
         <v>0</v>
@@ -8337,14 +8441,13 @@
       <c r="F87" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G87" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" ht="78.75">
-      <c r="B88" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市小港區橋樑</v>
+    </row>
+    <row r="88" spans="2:6" ht="78.75">
+      <c r="B88" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D88" s="2">
         <v>8</v>
@@ -8355,14 +8458,13 @@
       <c r="F88" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G88" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" ht="78.75">
-      <c r="B89" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市鳳山區橋樑</v>
+    </row>
+    <row r="89" spans="2:6" ht="78.75">
+      <c r="B89" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D89" s="2">
         <v>34</v>
@@ -8373,14 +8475,13 @@
       <c r="F89" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G89" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" ht="78.75">
-      <c r="B90" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市林園區橋樑</v>
+    </row>
+    <row r="90" spans="2:6" ht="78.75">
+      <c r="B90" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D90" s="2">
         <v>39</v>
@@ -8391,14 +8492,13 @@
       <c r="F90" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G90" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" ht="78.75">
-      <c r="B91" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市大寮區橋樑</v>
+    </row>
+    <row r="91" spans="2:6" ht="78.75">
+      <c r="B91" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D91" s="2">
         <v>96</v>
@@ -8409,14 +8509,13 @@
       <c r="F91" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G91" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" ht="78.75">
-      <c r="B92" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市大樹區橋樑</v>
+    </row>
+    <row r="92" spans="2:6" ht="78.75">
+      <c r="B92" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D92" s="2">
         <v>109</v>
@@ -8427,14 +8526,13 @@
       <c r="F92" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="G92" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" ht="78.75">
-      <c r="B93" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市大社區橋樑</v>
+    </row>
+    <row r="93" spans="2:6" ht="78.75">
+      <c r="B93" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D93" s="2">
         <v>33</v>
@@ -8445,14 +8543,13 @@
       <c r="F93" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="G93" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" ht="78.75">
-      <c r="B94" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市仁武區橋樑</v>
+    </row>
+    <row r="94" spans="2:6" ht="78.75">
+      <c r="B94" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D94" s="2">
         <v>35</v>
@@ -8463,14 +8560,13 @@
       <c r="F94" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="G94" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" ht="78.75">
-      <c r="B95" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市鳥松區橋樑</v>
+    </row>
+    <row r="95" spans="2:6" ht="78.75">
+      <c r="B95" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D95" s="2">
         <v>71</v>
@@ -8481,14 +8577,13 @@
       <c r="F95" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G95" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" ht="78.75">
-      <c r="B96" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市岡山區橋樑</v>
+    </row>
+    <row r="96" spans="2:6" ht="78.75">
+      <c r="B96" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D96" s="2">
         <v>44</v>
@@ -8499,14 +8594,13 @@
       <c r="F96" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="G96" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" ht="78.75">
-      <c r="B97" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市橋頭區橋樑</v>
+    </row>
+    <row r="97" spans="2:6" ht="78.75">
+      <c r="B97" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D97" s="2">
         <v>19</v>
@@ -8517,14 +8611,13 @@
       <c r="F97" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G97" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" ht="78.75">
-      <c r="B98" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市燕巢區橋樑</v>
+    </row>
+    <row r="98" spans="2:6" ht="78.75">
+      <c r="B98" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D98" s="2">
         <v>63</v>
@@ -8535,14 +8628,13 @@
       <c r="F98" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="G98" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" ht="78.75">
-      <c r="B99" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市田寮區橋樑</v>
+    </row>
+    <row r="99" spans="2:6" ht="78.75">
+      <c r="B99" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D99" s="2">
         <v>44</v>
@@ -8553,14 +8645,13 @@
       <c r="F99" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="G99" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" ht="78.75">
-      <c r="B100" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市阿蓮區橋樑</v>
+    </row>
+    <row r="100" spans="2:6" ht="78.75">
+      <c r="B100" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D100" s="2">
         <v>18</v>
@@ -8571,14 +8662,13 @@
       <c r="F100" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="G100" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" ht="78.75">
-      <c r="B101" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市路竹區橋樑</v>
+    </row>
+    <row r="101" spans="2:6" ht="78.75">
+      <c r="B101" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D101" s="2">
         <v>36</v>
@@ -8589,14 +8679,13 @@
       <c r="F101" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="G101" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" ht="78.75">
-      <c r="B102" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市湖內區橋樑</v>
+    </row>
+    <row r="102" spans="2:6" ht="78.75">
+      <c r="B102" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D102" s="2">
         <v>19</v>
@@ -8607,14 +8696,13 @@
       <c r="F102" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="G102" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" ht="78.75">
-      <c r="B103" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市茄萣區橋樑</v>
+    </row>
+    <row r="103" spans="2:6" ht="78.75">
+      <c r="B103" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D103" s="2">
         <v>23</v>
@@ -8625,14 +8713,13 @@
       <c r="F103" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="G103" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" ht="78.75">
-      <c r="B104" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市永安區橋樑</v>
+    </row>
+    <row r="104" spans="2:6" ht="78.75">
+      <c r="B104" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D104" s="2">
         <v>13</v>
@@ -8643,14 +8730,13 @@
       <c r="F104" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="G104" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" ht="78.75">
-      <c r="B105" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市彌陀區橋樑</v>
+    </row>
+    <row r="105" spans="2:6" ht="78.75">
+      <c r="B105" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D105" s="2">
         <v>18</v>
@@ -8661,14 +8747,13 @@
       <c r="F105" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="G105" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" ht="78.75">
-      <c r="B106" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市梓官區橋樑</v>
+    </row>
+    <row r="106" spans="2:6" ht="78.75">
+      <c r="B106" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D106" s="2">
         <v>10</v>
@@ -8679,14 +8764,13 @@
       <c r="F106" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="G106" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" ht="78.75">
-      <c r="B107" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市旗山區橋樑</v>
+    </row>
+    <row r="107" spans="2:6" ht="78.75">
+      <c r="B107" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D107" s="2">
         <v>68</v>
@@ -8697,14 +8781,13 @@
       <c r="F107" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="G107" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" ht="78.75">
-      <c r="B108" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市美濃區橋樑</v>
+    </row>
+    <row r="108" spans="2:6" ht="78.75">
+      <c r="B108" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D108" s="2">
         <v>156</v>
@@ -8715,14 +8798,13 @@
       <c r="F108" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G108" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" ht="78.75">
-      <c r="B109" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市六龜區橋樑</v>
+    </row>
+    <row r="109" spans="2:6" ht="78.75">
+      <c r="B109" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D109" s="2">
         <v>37</v>
@@ -8733,14 +8815,13 @@
       <c r="F109" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="G109" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" ht="78.75">
-      <c r="B110" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市甲仙區橋樑</v>
+    </row>
+    <row r="110" spans="2:6" ht="78.75">
+      <c r="B110" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D110" s="2">
         <v>28</v>
@@ -8751,14 +8832,13 @@
       <c r="F110" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="G110" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" ht="78.75">
-      <c r="B111" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市杉林區橋樑</v>
+    </row>
+    <row r="111" spans="2:6" ht="78.75">
+      <c r="B111" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D111" s="2">
         <v>79</v>
@@ -8769,14 +8849,13 @@
       <c r="F111" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G111" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" ht="78.75">
-      <c r="B112" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市內門區橋樑</v>
+    </row>
+    <row r="112" spans="2:6" ht="78.75">
+      <c r="B112" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D112" s="2">
         <v>82</v>
@@ -8787,14 +8866,13 @@
       <c r="F112" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="G112" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" ht="78.75">
-      <c r="B113" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市茂林區橋樑</v>
+    </row>
+    <row r="113" spans="2:6" ht="78.75">
+      <c r="B113" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D113" s="2">
         <v>5</v>
@@ -8805,14 +8883,13 @@
       <c r="F113" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G113" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" ht="78.75">
-      <c r="B114" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市桃源區橋樑</v>
+    </row>
+    <row r="114" spans="2:6" ht="78.75">
+      <c r="B114" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D114" s="2">
         <v>11</v>
@@ -8823,14 +8900,13 @@
       <c r="F114" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="G114" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" ht="78.75">
-      <c r="B115" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>113年高雄市那瑪夏區橋樑</v>
+    </row>
+    <row r="115" spans="2:6" ht="78.75">
+      <c r="B115" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D115" s="2">
         <v>6</v>
@@ -8841,8 +8917,537 @@
       <c r="F115" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="G115" t="s">
-        <v>537</v>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D116" s="2">
+        <v>4</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D117" s="2">
+        <v>15</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D118" s="2">
+        <v>26</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6">
+      <c r="B119" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D119" s="2">
+        <v>37</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D120" s="2">
+        <v>38</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="B121" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D121" s="2">
+        <v>4</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6">
+      <c r="B122" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D122" s="2">
+        <v>3</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6">
+      <c r="B123" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D123" s="2">
+        <v>15</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6">
+      <c r="B124" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D124" s="2">
+        <v>34</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6">
+      <c r="B125" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D125" s="2">
+        <v>5</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D126" s="2">
+        <v>21</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="B127" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D127" s="2">
+        <v>120</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6">
+      <c r="B128" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D128" s="2">
+        <v>13</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D129" s="2">
+        <v>12</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D130" s="2">
+        <v>2</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D131" s="2">
+        <v>5</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D132" s="2">
+        <v>24</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D133" s="2">
+        <v>15</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D134" s="2">
+        <v>14</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D135" s="2">
+        <v>10</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D136" s="2">
+        <v>4</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D137" s="2">
+        <v>0</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D138" s="2">
+        <v>4</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D139" s="2">
+        <v>4</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D140" s="2">
+        <v>8</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D141" s="2">
+        <v>6</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D142" s="2">
+        <v>1</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D143" s="2">
+        <v>1</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D144" s="2">
+        <v>6</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D145" s="2">
+        <v>1</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D146" s="2">
+        <v>1</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D147" s="2">
+        <v>1</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D148" s="2">
+        <v>3</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="B149" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D149" s="2">
+        <v>4</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="B150" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D150" s="2">
+        <v>0</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="B151" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D151" s="2">
+        <v>0</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D152" s="2">
+        <v>0</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D153" s="2">
+        <v>0</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pwb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2D6F5F-EA3C-406B-9252-D50305875BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB1591E-C4D6-48DE-BC56-AA545B0AEA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,8 @@
     <sheet name="行政區" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$134</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">行政區!$A$1:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">行政區!$A$1:$F$153</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">變動!$A$1:$F$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1532,41 +1532,21 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>113年鐵路地下化經費</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>資料來源：高雄市政府工務局工務統計年報。</t>
   </si>
   <si>
     <t>113年使照件數</t>
   </si>
   <si>
-    <t>113年使照件數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>113年使照總樓地板面積</t>
   </si>
   <si>
-    <t>113年使照總樓地板面積</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>113年使照棟數</t>
   </si>
   <si>
-    <t>113年使照棟數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>113年使照工程造價</t>
   </si>
   <si>
-    <t>113年使照工程造價</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>件</t>
   </si>
   <si>
@@ -1583,22 +1563,6 @@
   </si>
   <si>
     <t>112年使照件數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年鐵路地下化經費</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>111年鐵路地下化經費</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年鐵路地下化經費</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年鐵路地下化經費</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1737,10 +1701,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>113年都市計畫區域已開闢道路長度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>公尺</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1750,22 +1710,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>112年都市計畫區域已開闢道路長度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>111年都市計畫區域已開闢道路長度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年都市計畫區域已開闢道路長度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年都市計畫區域已開闢道路長度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>112年高雄市都市計畫區域內現有已開闢道路長度總計2,716,569.10公尺。
 資料來源：高雄市政府工務局工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1786,26 +1730,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>113年都市計畫區域已開闢道路面積</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年都市計畫區域已開闢道路面積</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>111年都市計畫區域已開闢道路面積</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年都市計畫區域已開闢道路面積</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年都市計畫區域已開闢道路面積</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>113年高雄市都市計畫區域內現有已開闢道路面積總計43,009,155.4平方公尺。
 資料來源：高雄市政府工務局工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1835,26 +1759,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>113年市區道路養護長度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年市區道路養護長度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>111年市區道路養護長度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年市區道路養護長度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年市區道路養護長度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>113年高雄市市區道路養護長度總計5,323,940.21公尺。
 資料來源：高雄市政府工務局工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1880,26 +1784,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>113年市區道路養護面積</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年市區道路養護面積</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>111年市區道路養護面積</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年市區道路養護面積</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年市區道路養護面積</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>113年高雄市市區道路養護面積總計60,842,045.14平方公尺。
 資料來源：高雄市政府工務局工務統計年報。</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1922,239 +1806,6 @@
   <si>
     <t>109年高雄市市區道路養護面積總計60,992,720.9平方公尺。
 資料來源：高雄市政府工務局工務統計年報。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年鼓山區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年左營區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年楠梓區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年三民區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年新興區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年前金區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年苓雅區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年前鎮區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年旗津區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年小港區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年鳳山區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年林園區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年大寮區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年大樹區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年大社區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年仁武區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年鳥松區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年岡山區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年橋頭區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年燕巢區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年田寮區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年阿蓮區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年路竹區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年湖內區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年茄萣區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年永安區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年彌陀區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年梓官區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年旗山區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年美濃區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年六龜區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年甲仙區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年杉林區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年內門區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年茂林區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年桃源區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年那瑪夏區道路養護長度</t>
-  </si>
-  <si>
-    <t>113年鹽埕區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年鼓山區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年左營區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年楠梓區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年三民區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年新興區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年前金區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年苓雅區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年前鎮區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年旗津區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年小港區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年鳳山區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年林園區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年大寮區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年大樹區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年大社區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年仁武區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年鳥松區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年岡山區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年橋頭區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年燕巢區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年田寮區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年阿蓮區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年路竹區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年湖內區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年茄萣區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年永安區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年彌陀區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年梓官區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年旗山區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年美濃區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年六龜區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年甲仙區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年杉林區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年內門區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年茂林區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年桃源區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年那瑪夏區道路養護面積</t>
-  </si>
-  <si>
-    <t>113年鹽埕區道路養護長度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年橋梁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2209,10 +1860,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>113年地下道</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>113年高雄市地下道總計22座</t>
     </r>
@@ -2260,14 +1907,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>112年橋梁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112年地下道</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>112年高雄市橋梁總計1,363座</t>
     </r>
@@ -2362,14 +2001,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>111年橋梁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>111年地下道</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>111年高雄市地下道總計23座</t>
     </r>
@@ -2536,10 +2167,6 @@
     <t>https://pwb.kcg.gov.tw/Web/FileUploadCategoryListC004400.aspx?CategoryID=c8dada11-128f-46bb-8c02-65ae8ead7167</t>
   </si>
   <si>
-    <t>113年公園</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>113年高雄市政府工務局公園處所轄公園總計461座</t>
     </r>
@@ -2567,10 +2194,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>112年公園</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>112年高雄市政府工務局公園處所轄公園總計454座</t>
     </r>
@@ -2598,10 +2221,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>111年公園</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>111年高雄市政府工務局公園處所轄公園總計454座</t>
     </r>
@@ -2629,10 +2248,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>110年公園</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>110年高雄市政府工務局公園處所轄公園總計448座</t>
     </r>
@@ -2771,121 +2386,509 @@
     <t>113年高雄市桃源區橋樑</t>
   </si>
   <si>
+    <t>113年高雄市鼓山區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市左營區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市楠梓區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市三民區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市新興區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市前金區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市苓雅區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市前鎮區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市旗津區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市小港區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市鳳山區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市林園區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市大寮區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市大樹區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市大社區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市仁武區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市鳥松區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市岡山區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市橋頭區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市燕巢區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市田寮區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市阿蓮區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市路竹區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市湖內區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市茄萣區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市永安區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市彌陀區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市梓官區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市旗山區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市美濃區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市六龜區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市甲仙區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市杉林區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市內門區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市茂林區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市桃源區公園</t>
+  </si>
+  <si>
+    <t>113年高雄市那瑪夏區公園</t>
+  </si>
+  <si>
     <t>113年高雄市那瑪夏區橋樑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>113年高雄市鹽埕區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市鼓山區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市左營區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市楠梓區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市三民區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市新興區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市前金區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市苓雅區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市前鎮區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市旗津區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市小港區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市鳳山區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市林園區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市大寮區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市大樹區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市大社區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市仁武區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市鳥松區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市岡山區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市橋頭區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市燕巢區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市田寮區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市阿蓮區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市路竹區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市湖內區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市茄萣區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市永安區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市彌陀區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市梓官區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市旗山區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市美濃區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市六龜區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市甲仙區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市杉林區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市內門區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市茂林區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市桃源區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市那瑪夏區公園</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年高雄市橋梁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年高雄市地下道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年高雄市橋梁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年高雄市地下道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年高雄市橋梁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年高雄市地下道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年高雄市公園</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年高雄市公園</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年高雄市公園</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年高雄市公園</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年高雄市使照件數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年高雄市使照總樓地板面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年高雄市使照棟數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年高雄市使照工程造價</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年高雄市鐵路地下化經費</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年高雄市鐵路地下化經費</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年高雄市鐵路地下化經費</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年高雄市鐵路地下化經費</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年高雄市鐵路地下化經費</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年高雄市都市計畫區域已開闢道路長度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年高雄市都市計畫區域已開闢道路長度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年高雄市都市計畫區域已開闢道路長度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年高雄市都市計畫區域已開闢道路長度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年高雄市都市計畫區域已開闢道路長度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年高雄市都市計畫區域已開闢道路面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年高雄市都市計畫區域已開闢道路面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年高雄市都市計畫區域已開闢道路面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年高雄市都市計畫區域已開闢道路面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年高雄市都市計畫區域已開闢道路面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年高雄市市區道路養護長度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年高雄市市區道路養護長度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年高雄市市區道路養護長度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年高雄市市區道路養護長度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年高雄市市區道路養護長度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年高雄市市區道路養護面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年高雄市市區道路養護面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年高雄市市區道路養護面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年高雄市市區道路養護面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年高雄市市區道路養護面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年高雄市那瑪夏區道路養護長度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年高雄市那瑪夏區道路養護面積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年鹽埕區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年鼓山區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年左營區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年楠梓區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年三民區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年新興區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年前金區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年苓雅區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年前鎮區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年旗津區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年小港區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年鳳山區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年林園區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年大寮區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年大樹區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年大社區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年仁武區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年鳥松區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年岡山區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年橋頭區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年燕巢區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年田寮區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年阿蓮區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年路竹區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年湖內區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年茄萣區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年永安區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年彌陀區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年梓官區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年旗山區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年美濃區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年六龜區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年甲仙區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年杉林區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年內門區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年茂林區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年桃源區道路養護長度高雄市</t>
+  </si>
+  <si>
+    <t>113年鹽埕區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年鼓山區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年左營區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年楠梓區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年三民區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年新興區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年前金區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年苓雅區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年前鎮區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年旗津區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年小港區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年鳳山區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年林園區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年大寮區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年大樹區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年大社區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年仁武區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年鳥松區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年岡山區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年橋頭區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年燕巢區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年田寮區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年阿蓮區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年路竹區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年湖內區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年茄萣區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年永安區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年彌陀區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年梓官區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年旗山區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年美濃區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年六龜區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年甲仙區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年杉林區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年內門區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年茂林區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年桃源區道路養護面積高雄市</t>
   </si>
 </sst>
 </file>
@@ -2945,12 +2948,18 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2981,7 +2990,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2995,12 +3004,19 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3118,6 +3134,14 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3424,8 +3448,8 @@
   <dimension ref="A1:E168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5226,7 +5250,7 @@
         <v>195</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>323</v>
+        <v>479</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>169</v>
@@ -5345,7 +5369,7 @@
         <v>195</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>325</v>
+        <v>480</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>177</v>
@@ -5464,7 +5488,7 @@
         <v>195</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>327</v>
+        <v>481</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>184</v>
@@ -5583,7 +5607,7 @@
         <v>195</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>329</v>
+        <v>482</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>168</v>
@@ -5702,13 +5726,13 @@
         <v>319</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>320</v>
+        <v>483</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>168</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="47.25">
@@ -5716,13 +5740,13 @@
         <v>319</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>336</v>
+        <v>484</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>168</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="47.25">
@@ -5730,13 +5754,13 @@
         <v>319</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>337</v>
+        <v>485</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>168</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="63">
@@ -5744,13 +5768,13 @@
         <v>319</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>338</v>
+        <v>486</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>168</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="63">
@@ -5758,13 +5782,13 @@
         <v>319</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>339</v>
+        <v>487</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>168</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="47.25">
@@ -5772,13 +5796,13 @@
         <v>319</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>345</v>
+        <v>488</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="47.25">
@@ -5786,13 +5810,13 @@
         <v>319</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>348</v>
+        <v>489</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="47.25">
@@ -5800,13 +5824,13 @@
         <v>319</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>349</v>
+        <v>490</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="47.25">
@@ -5814,13 +5838,13 @@
         <v>319</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>350</v>
+        <v>491</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="47.25">
@@ -5828,13 +5852,13 @@
         <v>319</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>351</v>
+        <v>492</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="47.25">
@@ -5842,13 +5866,13 @@
         <v>319</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>356</v>
+        <v>493</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="47.25">
@@ -5856,13 +5880,13 @@
         <v>319</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>357</v>
+        <v>494</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="47.25">
@@ -5870,13 +5894,13 @@
         <v>319</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>358</v>
+        <v>495</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="47.25">
@@ -5884,13 +5908,13 @@
         <v>319</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>359</v>
+        <v>496</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="47.25">
@@ -5898,266 +5922,267 @@
         <v>319</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>360</v>
+        <v>497</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="31.5">
       <c r="A149" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>367</v>
+        <v>498</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="31.5">
       <c r="A150" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>368</v>
+        <v>499</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="31.5">
       <c r="A151" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>369</v>
+        <v>500</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="31.5">
       <c r="A152" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>370</v>
+        <v>501</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="31.5">
       <c r="A153" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>371</v>
+        <v>502</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="31.5">
       <c r="A154" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>377</v>
+        <v>503</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="31.5">
       <c r="A155" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>378</v>
+        <v>504</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="31.5">
       <c r="A156" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>379</v>
+        <v>505</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="31.5">
       <c r="A157" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>380</v>
+        <v>506</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="31.5">
       <c r="A158" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>381</v>
+        <v>507</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="47.25">
       <c r="B159" s="2" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>464</v>
+        <v>358</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>465</v>
+        <v>359</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="47.25">
       <c r="B160" s="2" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>464</v>
+        <v>358</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>467</v>
+        <v>360</v>
       </c>
     </row>
     <row r="161" spans="2:4" ht="47.25">
       <c r="B161" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>464</v>
+        <v>358</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>470</v>
+        <v>361</v>
       </c>
     </row>
     <row r="162" spans="2:4" ht="47.25">
       <c r="B162" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>464</v>
+        <v>358</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>471</v>
+        <v>362</v>
       </c>
     </row>
     <row r="163" spans="2:4" ht="47.25">
       <c r="B163" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>464</v>
+        <v>358</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>475</v>
+        <v>364</v>
       </c>
     </row>
     <row r="164" spans="2:4" ht="47.25">
       <c r="B164" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>464</v>
+        <v>358</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>474</v>
+        <v>363</v>
       </c>
     </row>
     <row r="165" spans="2:4" ht="47.25">
       <c r="B165" s="2" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>464</v>
+        <v>358</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>501</v>
+        <v>389</v>
       </c>
     </row>
     <row r="166" spans="2:4" ht="47.25">
       <c r="B166" s="2" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>464</v>
+        <v>358</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>503</v>
+        <v>390</v>
       </c>
     </row>
     <row r="167" spans="2:4" ht="47.25">
       <c r="B167" s="2" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>464</v>
+        <v>358</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>505</v>
+        <v>391</v>
       </c>
     </row>
     <row r="168" spans="2:4" ht="47.25">
       <c r="B168" s="2" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>464</v>
+        <v>358</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>507</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="11" priority="1"/>
@@ -6622,44 +6647,44 @@
     </row>
     <row r="22" spans="1:6">
       <c r="B22" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D22" s="2">
         <v>2117</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="B23" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D23" s="2">
         <v>1645</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="B24" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D24" s="4">
         <v>3367164</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6667,16 +6692,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="B26" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D26" s="4">
         <v>3260</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6684,16 +6709,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="D28" s="4">
         <v>27049819</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -6718,8 +6743,8 @@
   <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6754,19 +6779,19 @@
     </row>
     <row r="2" spans="1:6" ht="78.75">
       <c r="A2" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>462</v>
+        <v>510</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D2" s="2">
         <v>27359.08</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
@@ -6774,19 +6799,19 @@
     </row>
     <row r="3" spans="1:6" ht="78.75">
       <c r="A3" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>387</v>
+        <v>511</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D3" s="2">
         <v>132456.67000000001</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>66</v>
@@ -6794,19 +6819,19 @@
     </row>
     <row r="4" spans="1:6" ht="78.75">
       <c r="A4" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>388</v>
+        <v>512</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D4" s="2">
         <v>187102.89</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>16</v>
@@ -6814,19 +6839,19 @@
     </row>
     <row r="5" spans="1:6" ht="78.75">
       <c r="A5" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>389</v>
+        <v>513</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D5" s="2">
         <v>280114.03000000003</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
@@ -6834,19 +6859,19 @@
     </row>
     <row r="6" spans="1:6" ht="78.75">
       <c r="A6" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>390</v>
+        <v>514</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D6" s="2">
         <v>307454.23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>18</v>
@@ -6854,19 +6879,19 @@
     </row>
     <row r="7" spans="1:6" ht="78.75">
       <c r="A7" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>391</v>
+        <v>515</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D7" s="2">
         <v>64350.1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>19</v>
@@ -6874,19 +6899,19 @@
     </row>
     <row r="8" spans="1:6" ht="78.75">
       <c r="A8" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>392</v>
+        <v>516</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D8" s="2">
         <v>42969.49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
@@ -6894,19 +6919,19 @@
     </row>
     <row r="9" spans="1:6" ht="78.75">
       <c r="A9" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>393</v>
+        <v>517</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D9" s="2">
         <v>177948.55</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>21</v>
@@ -6914,19 +6939,19 @@
     </row>
     <row r="10" spans="1:6" ht="78.75">
       <c r="A10" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>394</v>
+        <v>518</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D10" s="2">
         <v>253036.14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>22</v>
@@ -6934,19 +6959,19 @@
     </row>
     <row r="11" spans="1:6" ht="78.75">
       <c r="A11" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>395</v>
+        <v>519</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D11" s="2">
         <v>40014.86</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>23</v>
@@ -6954,19 +6979,19 @@
     </row>
     <row r="12" spans="1:6" ht="78.75">
       <c r="A12" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>396</v>
+        <v>520</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D12" s="2">
         <v>259829.22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>24</v>
@@ -6974,19 +6999,19 @@
     </row>
     <row r="13" spans="1:6" ht="78.75">
       <c r="A13" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>397</v>
+        <v>521</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D13" s="4">
         <v>369878.51</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>25</v>
@@ -6994,19 +7019,19 @@
     </row>
     <row r="14" spans="1:6" ht="78.75">
       <c r="A14" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>398</v>
+        <v>522</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D14" s="4">
         <v>124785.18</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>26</v>
@@ -7014,19 +7039,19 @@
     </row>
     <row r="15" spans="1:6" ht="78.75">
       <c r="A15" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>399</v>
+        <v>523</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D15" s="4">
         <v>298115.13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>27</v>
@@ -7034,19 +7059,19 @@
     </row>
     <row r="16" spans="1:6" ht="78.75">
       <c r="A16" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>400</v>
+        <v>524</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D16" s="4">
         <v>136812.91</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>28</v>
@@ -7054,19 +7079,19 @@
     </row>
     <row r="17" spans="1:6" ht="78.75">
       <c r="A17" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>401</v>
+        <v>525</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D17" s="4">
         <v>97062.97</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>29</v>
@@ -7074,19 +7099,19 @@
     </row>
     <row r="18" spans="1:6" ht="78.75">
       <c r="A18" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>402</v>
+        <v>526</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D18" s="4">
         <v>369892.73</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>30</v>
@@ -7094,19 +7119,19 @@
     </row>
     <row r="19" spans="1:6" ht="78.75">
       <c r="A19" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>403</v>
+        <v>527</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D19" s="4">
         <v>141350.96</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>31</v>
@@ -7114,19 +7139,19 @@
     </row>
     <row r="20" spans="1:6" ht="78.75">
       <c r="A20" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>404</v>
+        <v>528</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D20" s="4">
         <v>232597.84</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>67</v>
@@ -7134,19 +7159,19 @@
     </row>
     <row r="21" spans="1:6" ht="78.75">
       <c r="A21" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>405</v>
+        <v>529</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D21" s="4">
         <v>131506.99</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>32</v>
@@ -7154,19 +7179,19 @@
     </row>
     <row r="22" spans="1:6" ht="78.75">
       <c r="A22" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>406</v>
+        <v>530</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D22" s="2">
         <v>192481.8</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>68</v>
@@ -7174,19 +7199,19 @@
     </row>
     <row r="23" spans="1:6" ht="78.75">
       <c r="A23" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>407</v>
+        <v>531</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D23" s="2">
         <v>93845.42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>69</v>
@@ -7194,19 +7219,19 @@
     </row>
     <row r="24" spans="1:6" ht="78.75">
       <c r="A24" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>408</v>
+        <v>532</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D24" s="4">
         <v>96775.27</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>70</v>
@@ -7214,19 +7239,19 @@
     </row>
     <row r="25" spans="1:6" ht="78.75">
       <c r="A25" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>409</v>
+        <v>533</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D25" s="4">
         <v>116109.34</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>71</v>
@@ -7234,19 +7259,19 @@
     </row>
     <row r="26" spans="1:6" ht="78.75">
       <c r="A26" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>410</v>
+        <v>534</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D26" s="4">
         <v>80072.36</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>72</v>
@@ -7254,19 +7279,19 @@
     </row>
     <row r="27" spans="1:6" ht="78.75">
       <c r="A27" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>411</v>
+        <v>535</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D27" s="4">
         <v>84237.9</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>73</v>
@@ -7274,19 +7299,19 @@
     </row>
     <row r="28" spans="1:6" ht="78.75">
       <c r="A28" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>412</v>
+        <v>536</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D28" s="4">
         <v>63453.91</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>74</v>
@@ -7294,19 +7319,19 @@
     </row>
     <row r="29" spans="1:6" ht="78.75">
       <c r="A29" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>413</v>
+        <v>537</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D29" s="2">
         <v>46595.03</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>75</v>
@@ -7314,19 +7339,19 @@
     </row>
     <row r="30" spans="1:6" ht="78.75">
       <c r="A30" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>414</v>
+        <v>538</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D30" s="2">
         <v>50032.81</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>76</v>
@@ -7334,19 +7359,19 @@
     </row>
     <row r="31" spans="1:6" ht="78.75">
       <c r="A31" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>415</v>
+        <v>539</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D31" s="2">
         <v>146024.35999999999</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>77</v>
@@ -7354,19 +7379,19 @@
     </row>
     <row r="32" spans="1:6" ht="78.75">
       <c r="A32" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>416</v>
+        <v>540</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D32" s="2">
         <v>242363.35</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>78</v>
@@ -7374,19 +7399,19 @@
     </row>
     <row r="33" spans="1:6" ht="78.75">
       <c r="A33" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>417</v>
+        <v>541</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D33" s="2">
         <v>92834.5</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>79</v>
@@ -7394,19 +7419,19 @@
     </row>
     <row r="34" spans="1:6" ht="78.75">
       <c r="A34" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>418</v>
+        <v>542</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D34" s="2">
         <v>56363.71</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>80</v>
@@ -7414,19 +7439,19 @@
     </row>
     <row r="35" spans="1:6" ht="78.75">
       <c r="A35" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>419</v>
+        <v>543</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D35" s="2">
         <v>82863.899999999994</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>81</v>
@@ -7434,19 +7459,19 @@
     </row>
     <row r="36" spans="1:6" ht="78.75">
       <c r="A36" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>420</v>
+        <v>544</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D36" s="2">
         <v>105500.6</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>82</v>
@@ -7454,19 +7479,19 @@
     </row>
     <row r="37" spans="1:6" ht="78.75">
       <c r="A37" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>421</v>
+        <v>545</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D37" s="2">
         <v>36604.050000000003</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>83</v>
@@ -7474,19 +7499,19 @@
     </row>
     <row r="38" spans="1:6" ht="78.75">
       <c r="A38" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>422</v>
+        <v>546</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D38" s="2">
         <v>29319.200000000001</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>84</v>
@@ -7494,19 +7519,19 @@
     </row>
     <row r="39" spans="1:6" ht="78.75">
       <c r="A39" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>423</v>
+        <v>508</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D39" s="2">
         <v>33824.22</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>85</v>
@@ -7514,10 +7539,10 @@
     </row>
     <row r="40" spans="1:6" ht="78.75">
       <c r="A40" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>424</v>
+        <v>547</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>177</v>
@@ -7526,7 +7551,7 @@
         <v>375919.75</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>15</v>
@@ -7534,10 +7559,10 @@
     </row>
     <row r="41" spans="1:6" ht="78.75">
       <c r="A41" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>425</v>
+        <v>548</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>177</v>
@@ -7546,7 +7571,7 @@
         <v>1935469.69</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>66</v>
@@ -7554,10 +7579,10 @@
     </row>
     <row r="42" spans="1:6" ht="78.75">
       <c r="A42" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>426</v>
+        <v>549</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>177</v>
@@ -7566,7 +7591,7 @@
         <v>2715155.81</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>16</v>
@@ -7574,10 +7599,10 @@
     </row>
     <row r="43" spans="1:6" ht="78.75">
       <c r="A43" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>427</v>
+        <v>550</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>177</v>
@@ -7586,7 +7611,7 @@
         <v>3850054.2</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>17</v>
@@ -7594,10 +7619,10 @@
     </row>
     <row r="44" spans="1:6" ht="78.75">
       <c r="A44" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>428</v>
+        <v>551</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>177</v>
@@ -7606,7 +7631,7 @@
         <v>4050514.47</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>18</v>
@@ -7614,10 +7639,10 @@
     </row>
     <row r="45" spans="1:6" ht="78.75">
       <c r="A45" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>429</v>
+        <v>552</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>177</v>
@@ -7626,7 +7651,7 @@
         <v>910958.68</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>19</v>
@@ -7634,10 +7659,10 @@
     </row>
     <row r="46" spans="1:6" ht="78.75">
       <c r="A46" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>430</v>
+        <v>553</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>177</v>
@@ -7646,7 +7671,7 @@
         <v>705290.67</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>20</v>
@@ -7654,10 +7679,10 @@
     </row>
     <row r="47" spans="1:6" ht="78.75">
       <c r="A47" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>431</v>
+        <v>554</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>177</v>
@@ -7666,7 +7691,7 @@
         <v>2615309.89</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>21</v>
@@ -7674,10 +7699,10 @@
     </row>
     <row r="48" spans="1:6" ht="78.75">
       <c r="A48" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>432</v>
+        <v>555</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>177</v>
@@ -7686,7 +7711,7 @@
         <v>3811752.32</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>22</v>
@@ -7694,10 +7719,10 @@
     </row>
     <row r="49" spans="1:6" ht="78.75">
       <c r="A49" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>433</v>
+        <v>556</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>177</v>
@@ -7706,7 +7731,7 @@
         <v>454314.16</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>23</v>
@@ -7714,10 +7739,10 @@
     </row>
     <row r="50" spans="1:6" ht="78.75">
       <c r="A50" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>434</v>
+        <v>557</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>177</v>
@@ -7726,7 +7751,7 @@
         <v>3689834.98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>24</v>
@@ -7734,10 +7759,10 @@
     </row>
     <row r="51" spans="1:6" ht="78.75">
       <c r="A51" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>435</v>
+        <v>558</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>177</v>
@@ -7746,7 +7771,7 @@
         <v>4270707.3600000003</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>25</v>
@@ -7754,10 +7779,10 @@
     </row>
     <row r="52" spans="1:6" ht="78.75">
       <c r="A52" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>436</v>
+        <v>559</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>177</v>
@@ -7766,7 +7791,7 @@
         <v>1207929.27</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>26</v>
@@ -7774,10 +7799,10 @@
     </row>
     <row r="53" spans="1:6" ht="78.75">
       <c r="A53" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>437</v>
+        <v>560</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>177</v>
@@ -7786,7 +7811,7 @@
         <v>3212617.66</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>27</v>
@@ -7794,10 +7819,10 @@
     </row>
     <row r="54" spans="1:6" ht="78.75">
       <c r="A54" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>438</v>
+        <v>561</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>177</v>
@@ -7806,7 +7831,7 @@
         <v>1290761.6100000001</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>28</v>
@@ -7814,10 +7839,10 @@
     </row>
     <row r="55" spans="1:6" ht="78.75">
       <c r="A55" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>439</v>
+        <v>562</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>177</v>
@@ -7826,7 +7851,7 @@
         <v>1054282.19</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>29</v>
@@ -7834,10 +7859,10 @@
     </row>
     <row r="56" spans="1:6" ht="78.75">
       <c r="A56" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>440</v>
+        <v>563</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>177</v>
@@ -7846,7 +7871,7 @@
         <v>3772180.81</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>30</v>
@@ -7854,10 +7879,10 @@
     </row>
     <row r="57" spans="1:6" ht="78.75">
       <c r="A57" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>441</v>
+        <v>564</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>177</v>
@@ -7866,7 +7891,7 @@
         <v>1579055.71</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>31</v>
@@ -7874,10 +7899,10 @@
     </row>
     <row r="58" spans="1:6" ht="78.75">
       <c r="A58" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>442</v>
+        <v>565</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>177</v>
@@ -7886,7 +7911,7 @@
         <v>2756089.22</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>67</v>
@@ -7894,10 +7919,10 @@
     </row>
     <row r="59" spans="1:6" ht="78.75">
       <c r="A59" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>443</v>
+        <v>566</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>177</v>
@@ -7906,7 +7931,7 @@
         <v>1510823.05</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>32</v>
@@ -7914,10 +7939,10 @@
     </row>
     <row r="60" spans="1:6" ht="78.75">
       <c r="A60" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>444</v>
+        <v>567</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>177</v>
@@ -7926,7 +7951,7 @@
         <v>2040507.44</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>68</v>
@@ -7934,10 +7959,10 @@
     </row>
     <row r="61" spans="1:6" ht="78.75">
       <c r="A61" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>445</v>
+        <v>568</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>177</v>
@@ -7946,7 +7971,7 @@
         <v>795814.44</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>69</v>
@@ -7954,10 +7979,10 @@
     </row>
     <row r="62" spans="1:6" ht="78.75">
       <c r="A62" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>446</v>
+        <v>569</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>177</v>
@@ -7966,7 +7991,7 @@
         <v>844101.15</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>70</v>
@@ -7974,10 +7999,10 @@
     </row>
     <row r="63" spans="1:6" ht="78.75">
       <c r="A63" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>447</v>
+        <v>570</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>177</v>
@@ -7986,7 +8011,7 @@
         <v>1321621.3799999999</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>71</v>
@@ -7994,10 +8019,10 @@
     </row>
     <row r="64" spans="1:6" ht="78.75">
       <c r="A64" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>448</v>
+        <v>571</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>177</v>
@@ -8006,7 +8031,7 @@
         <v>729968.48</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>72</v>
@@ -8014,10 +8039,10 @@
     </row>
     <row r="65" spans="1:6" ht="78.75">
       <c r="A65" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>449</v>
+        <v>572</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>177</v>
@@ -8026,7 +8051,7 @@
         <v>1042886.36</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>73</v>
@@ -8034,10 +8059,10 @@
     </row>
     <row r="66" spans="1:6" ht="78.75">
       <c r="A66" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>450</v>
+        <v>573</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>177</v>
@@ -8046,7 +8071,7 @@
         <v>648911.34</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>74</v>
@@ -8054,10 +8079,10 @@
     </row>
     <row r="67" spans="1:6" ht="78.75">
       <c r="A67" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>451</v>
+        <v>574</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>177</v>
@@ -8066,7 +8091,7 @@
         <v>443229.4</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>75</v>
@@ -8074,10 +8099,10 @@
     </row>
     <row r="68" spans="1:6" ht="78.75">
       <c r="A68" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>452</v>
+        <v>575</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>177</v>
@@ -8086,7 +8111,7 @@
         <v>496439.82</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>76</v>
@@ -8094,10 +8119,10 @@
     </row>
     <row r="69" spans="1:6" ht="78.75">
       <c r="A69" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>453</v>
+        <v>576</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>177</v>
@@ -8106,7 +8131,7 @@
         <v>1230858.6499999999</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>77</v>
@@ -8114,10 +8139,10 @@
     </row>
     <row r="70" spans="1:6" ht="78.75">
       <c r="A70" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>454</v>
+        <v>577</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>177</v>
@@ -8126,7 +8151,7 @@
         <v>2045953.92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>78</v>
@@ -8134,10 +8159,10 @@
     </row>
     <row r="71" spans="1:6" ht="78.75">
       <c r="A71" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>455</v>
+        <v>578</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>177</v>
@@ -8146,7 +8171,7 @@
         <v>752230.89</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>79</v>
@@ -8154,10 +8179,10 @@
     </row>
     <row r="72" spans="1:6" ht="78.75">
       <c r="A72" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>456</v>
+        <v>579</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>177</v>
@@ -8166,7 +8191,7 @@
         <v>436839.61</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>80</v>
@@ -8174,10 +8199,10 @@
     </row>
     <row r="73" spans="1:6" ht="78.75">
       <c r="A73" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>457</v>
+        <v>580</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>177</v>
@@ -8186,7 +8211,7 @@
         <v>630721.53</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>81</v>
@@ -8194,10 +8219,10 @@
     </row>
     <row r="74" spans="1:6" ht="78.75">
       <c r="A74" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>458</v>
+        <v>581</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>177</v>
@@ -8206,7 +8231,7 @@
         <v>842559.4</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>82</v>
@@ -8214,10 +8239,10 @@
     </row>
     <row r="75" spans="1:6" ht="78.75">
       <c r="A75" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>459</v>
+        <v>582</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>177</v>
@@ -8226,7 +8251,7 @@
         <v>274790.43</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>83</v>
@@ -8234,10 +8259,10 @@
     </row>
     <row r="76" spans="1:6" ht="78.75">
       <c r="A76" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>460</v>
+        <v>583</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>177</v>
@@ -8246,7 +8271,7 @@
         <v>225014.51</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>84</v>
@@ -8254,10 +8279,10 @@
     </row>
     <row r="77" spans="1:6" ht="78.75">
       <c r="A77" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>461</v>
+        <v>509</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>177</v>
@@ -8266,1189 +8291,1303 @@
         <v>270574.90000000002</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="78.75">
-      <c r="B78" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C78" s="2" t="s">
+    <row r="78" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D78" s="5">
+        <v>7</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D79" s="5">
+        <v>14</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D80" s="5">
+        <v>25</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D81" s="5">
+        <v>35</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D82" s="5">
+        <v>57</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D83" s="5">
+        <v>2</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D84" s="5">
+        <v>2</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D85" s="5">
+        <v>4</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D86" s="5">
+        <v>19</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D87" s="5">
+        <v>0</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D88" s="5">
+        <v>8</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D89" s="5">
+        <v>34</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D90" s="5">
+        <v>39</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D91" s="5">
+        <v>96</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D92" s="5">
+        <v>109</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D93" s="5">
+        <v>33</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D94" s="5">
+        <v>35</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D95" s="5">
+        <v>71</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D96" s="5">
+        <v>44</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D97" s="5">
+        <v>19</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D98" s="5">
+        <v>63</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D99" s="5">
+        <v>44</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D100" s="5">
+        <v>18</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D101" s="5">
+        <v>36</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D102" s="5">
+        <v>19</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D103" s="5">
+        <v>23</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D104" s="5">
+        <v>13</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D105" s="5">
+        <v>18</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D106" s="5">
+        <v>10</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D107" s="5">
+        <v>68</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D108" s="5">
+        <v>156</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D109" s="5">
+        <v>37</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D110" s="5">
+        <v>28</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D111" s="5">
+        <v>79</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D112" s="5">
+        <v>82</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D113" s="5">
+        <v>5</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D114" s="5">
+        <v>11</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" s="7" customFormat="1" ht="78.75">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D115" s="5">
+        <v>6</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="7" customFormat="1">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D116" s="5">
+        <v>4</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F116" s="5"/>
+    </row>
+    <row r="117" spans="1:6" s="7" customFormat="1">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D117" s="5">
+        <v>15</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F117" s="5"/>
+    </row>
+    <row r="118" spans="1:6" s="7" customFormat="1">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D118" s="5">
+        <v>26</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F118" s="5"/>
+    </row>
+    <row r="119" spans="1:6" s="7" customFormat="1">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D119" s="5">
+        <v>37</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F119" s="5"/>
+    </row>
+    <row r="120" spans="1:6" s="7" customFormat="1">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D120" s="5">
+        <v>38</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F120" s="5"/>
+    </row>
+    <row r="121" spans="1:6" s="7" customFormat="1">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D121" s="5">
+        <v>4</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F121" s="5"/>
+    </row>
+    <row r="122" spans="1:6" s="7" customFormat="1">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D122" s="5">
+        <v>3</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F122" s="5"/>
+    </row>
+    <row r="123" spans="1:6" s="7" customFormat="1">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D123" s="5">
+        <v>15</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F123" s="5"/>
+    </row>
+    <row r="124" spans="1:6" s="7" customFormat="1">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D124" s="5">
+        <v>34</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F124" s="5"/>
+    </row>
+    <row r="125" spans="1:6" s="7" customFormat="1">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D125" s="5">
+        <v>5</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F125" s="5"/>
+    </row>
+    <row r="126" spans="1:6" s="7" customFormat="1">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D126" s="5">
+        <v>21</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F126" s="5"/>
+    </row>
+    <row r="127" spans="1:6" s="7" customFormat="1">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D127" s="5">
+        <v>120</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F127" s="5"/>
+    </row>
+    <row r="128" spans="1:6" s="7" customFormat="1">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D128" s="5">
+        <v>13</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F128" s="5"/>
+    </row>
+    <row r="129" spans="1:6" s="7" customFormat="1">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D129" s="5">
+        <v>12</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F129" s="5"/>
+    </row>
+    <row r="130" spans="1:6" s="7" customFormat="1">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D130" s="5">
+        <v>2</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F130" s="5"/>
+    </row>
+    <row r="131" spans="1:6" s="7" customFormat="1">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D131" s="5">
+        <v>5</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F131" s="5"/>
+    </row>
+    <row r="132" spans="1:6" s="7" customFormat="1">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D132" s="5">
+        <v>24</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F132" s="5"/>
+    </row>
+    <row r="133" spans="1:6" s="7" customFormat="1">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D133" s="5">
+        <v>15</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F133" s="5"/>
+    </row>
+    <row r="134" spans="1:6" s="7" customFormat="1">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D134" s="5">
+        <v>14</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F134" s="5"/>
+    </row>
+    <row r="135" spans="1:6" s="7" customFormat="1">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D135" s="5">
+        <v>10</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F135" s="5"/>
+    </row>
+    <row r="136" spans="1:6" s="7" customFormat="1">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D136" s="5">
+        <v>4</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F136" s="5"/>
+    </row>
+    <row r="137" spans="1:6" s="7" customFormat="1">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D137" s="5">
+        <v>0</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F137" s="5"/>
+    </row>
+    <row r="138" spans="1:6" s="7" customFormat="1">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D138" s="5">
+        <v>4</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F138" s="5"/>
+    </row>
+    <row r="139" spans="1:6" s="7" customFormat="1">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D139" s="5">
+        <v>4</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F139" s="5"/>
+    </row>
+    <row r="140" spans="1:6" s="7" customFormat="1">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D140" s="5">
+        <v>8</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F140" s="5"/>
+    </row>
+    <row r="141" spans="1:6" s="7" customFormat="1">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D141" s="5">
+        <v>6</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F141" s="5"/>
+    </row>
+    <row r="142" spans="1:6" s="7" customFormat="1">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D142" s="5">
+        <v>1</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F142" s="5"/>
+    </row>
+    <row r="143" spans="1:6" s="7" customFormat="1">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D143" s="5">
+        <v>1</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F143" s="5"/>
+    </row>
+    <row r="144" spans="1:6" s="7" customFormat="1">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D144" s="5">
+        <v>6</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F144" s="5"/>
+    </row>
+    <row r="145" spans="1:6" s="7" customFormat="1">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D145" s="5">
+        <v>1</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F145" s="5"/>
+    </row>
+    <row r="146" spans="1:6" s="7" customFormat="1">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D146" s="5">
+        <v>1</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F146" s="5"/>
+    </row>
+    <row r="147" spans="1:6" s="7" customFormat="1">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D147" s="5">
+        <v>1</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F147" s="5"/>
+    </row>
+    <row r="148" spans="1:6" s="7" customFormat="1">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D148" s="5">
+        <v>3</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F148" s="5"/>
+    </row>
+    <row r="149" spans="1:6" s="7" customFormat="1">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D149" s="5">
+        <v>4</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F149" s="5"/>
+    </row>
+    <row r="150" spans="1:6" s="7" customFormat="1">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D150" s="5">
+        <v>0</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F150" s="5"/>
+    </row>
+    <row r="151" spans="1:6" s="7" customFormat="1">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="D78" s="2">
-        <v>7</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="78.75">
-      <c r="B79" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D79" s="2">
-        <v>14</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="78.75">
-      <c r="B80" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D80" s="2">
-        <v>25</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" ht="78.75">
-      <c r="B81" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D81" s="2">
-        <v>35</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" ht="78.75">
-      <c r="B82" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D82" s="2">
-        <v>57</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" ht="78.75">
-      <c r="B83" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D83" s="2">
-        <v>2</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" ht="78.75">
-      <c r="B84" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D84" s="2">
-        <v>2</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" ht="78.75">
-      <c r="B85" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D85" s="2">
-        <v>4</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" ht="78.75">
-      <c r="B86" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D86" s="2">
-        <v>19</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" ht="78.75">
-      <c r="B87" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D87" s="2">
+      <c r="C151" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D151" s="5">
         <v>0</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" ht="78.75">
-      <c r="B88" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D88" s="2">
-        <v>8</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" ht="78.75">
-      <c r="B89" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D89" s="2">
-        <v>34</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" ht="78.75">
-      <c r="B90" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D90" s="2">
-        <v>39</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" ht="78.75">
-      <c r="B91" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D91" s="2">
-        <v>96</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" ht="78.75">
-      <c r="B92" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D92" s="2">
-        <v>109</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" ht="78.75">
-      <c r="B93" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D93" s="2">
-        <v>33</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" ht="78.75">
-      <c r="B94" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D94" s="2">
-        <v>35</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" ht="78.75">
-      <c r="B95" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D95" s="2">
-        <v>71</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" ht="78.75">
-      <c r="B96" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D96" s="2">
-        <v>44</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" ht="78.75">
-      <c r="B97" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D97" s="2">
-        <v>19</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" ht="78.75">
-      <c r="B98" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D98" s="2">
-        <v>63</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" ht="78.75">
-      <c r="B99" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D99" s="2">
-        <v>44</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="78.75">
-      <c r="B100" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D100" s="2">
-        <v>18</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" ht="78.75">
-      <c r="B101" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D101" s="2">
-        <v>36</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" ht="78.75">
-      <c r="B102" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D102" s="2">
-        <v>19</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="78.75">
-      <c r="B103" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D103" s="2">
-        <v>23</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" ht="78.75">
-      <c r="B104" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D104" s="2">
-        <v>13</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" ht="78.75">
-      <c r="B105" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D105" s="2">
-        <v>18</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" ht="78.75">
-      <c r="B106" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D106" s="2">
-        <v>10</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6" ht="78.75">
-      <c r="B107" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D107" s="2">
-        <v>68</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6" ht="78.75">
-      <c r="B108" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D108" s="2">
-        <v>156</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6" ht="78.75">
-      <c r="B109" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D109" s="2">
-        <v>37</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" ht="78.75">
-      <c r="B110" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D110" s="2">
-        <v>28</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6" ht="78.75">
-      <c r="B111" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D111" s="2">
-        <v>79</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" ht="78.75">
-      <c r="B112" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D112" s="2">
-        <v>82</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6" ht="78.75">
-      <c r="B113" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D113" s="2">
-        <v>5</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6" ht="78.75">
-      <c r="B114" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D114" s="2">
-        <v>11</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6" ht="78.75">
-      <c r="B115" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D115" s="2">
-        <v>6</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6">
-      <c r="B116" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D116" s="2">
-        <v>4</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6">
-      <c r="B117" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D117" s="2">
-        <v>15</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6">
-      <c r="B118" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D118" s="2">
-        <v>26</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6">
-      <c r="B119" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D119" s="2">
-        <v>37</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6">
-      <c r="B120" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D120" s="2">
-        <v>38</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6">
-      <c r="B121" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D121" s="2">
-        <v>4</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6">
-      <c r="B122" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D122" s="2">
-        <v>3</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6">
-      <c r="B123" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D123" s="2">
-        <v>15</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6">
-      <c r="B124" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D124" s="2">
-        <v>34</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6">
-      <c r="B125" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D125" s="2">
-        <v>5</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="126" spans="2:6">
-      <c r="B126" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D126" s="2">
-        <v>21</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="127" spans="2:6">
-      <c r="B127" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D127" s="2">
-        <v>120</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6">
-      <c r="B128" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D128" s="2">
-        <v>13</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5">
-      <c r="B129" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D129" s="2">
-        <v>12</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5">
-      <c r="B130" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D130" s="2">
-        <v>2</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5">
-      <c r="B131" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D131" s="2">
-        <v>5</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5">
-      <c r="B132" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D132" s="2">
-        <v>24</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5">
-      <c r="B133" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D133" s="2">
-        <v>15</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5">
-      <c r="B134" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D134" s="2">
-        <v>14</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5">
-      <c r="B135" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D135" s="2">
-        <v>10</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5">
-      <c r="B136" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D136" s="2">
-        <v>4</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5">
-      <c r="B137" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D137" s="2">
+      <c r="E151" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F151" s="5"/>
+    </row>
+    <row r="152" spans="1:6" s="7" customFormat="1">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D152" s="5">
         <v>0</v>
       </c>
-      <c r="E137" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5">
-      <c r="B138" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D138" s="2">
-        <v>4</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5">
-      <c r="B139" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D139" s="2">
-        <v>4</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5">
-      <c r="B140" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D140" s="2">
-        <v>8</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5">
-      <c r="B141" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D141" s="2">
-        <v>6</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5">
-      <c r="B142" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D142" s="2">
-        <v>1</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5">
-      <c r="B143" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D143" s="2">
-        <v>1</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5">
-      <c r="B144" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D144" s="2">
-        <v>6</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5">
-      <c r="B145" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D145" s="2">
-        <v>1</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5">
-      <c r="B146" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D146" s="2">
-        <v>1</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5">
-      <c r="B147" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D147" s="2">
-        <v>1</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5">
-      <c r="B148" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D148" s="2">
-        <v>3</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5">
-      <c r="B149" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D149" s="2">
-        <v>4</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5">
-      <c r="B150" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D150" s="2">
+      <c r="E152" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F152" s="5"/>
+    </row>
+    <row r="153" spans="1:6" s="7" customFormat="1">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D153" s="5">
         <v>0</v>
       </c>
-      <c r="E150" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5">
-      <c r="B151" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D151" s="2">
-        <v>0</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5">
-      <c r="B152" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D152" s="2">
-        <v>0</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5">
-      <c r="B153" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D153" s="2">
-        <v>0</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>321</v>
-      </c>
+      <c r="E153" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F153" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pwb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB1591E-C4D6-48DE-BC56-AA545B0AEA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA82781D-505F-4AD2-8D15-52BDC449BC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2275,236 +2275,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>113年高雄市鹽埕區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市鼓山區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市左營區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市楠梓區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市三民區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市新興區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市前金區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市苓雅區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市前鎮區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市旗津區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市小港區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市鳳山區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市林園區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市大寮區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市大樹區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市大社區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市仁武區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市鳥松區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市岡山區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市橋頭區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市燕巢區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市田寮區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市阿蓮區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市路竹區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市湖內區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市茄萣區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市永安區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市彌陀區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市梓官區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市旗山區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市美濃區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市六龜區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市甲仙區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市杉林區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市內門區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市茂林區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市桃源區橋樑</t>
-  </si>
-  <si>
-    <t>113年高雄市鼓山區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市左營區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市楠梓區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市三民區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市新興區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市前金區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市苓雅區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市前鎮區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市旗津區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市小港區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市鳳山區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市林園區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市大寮區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市大樹區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市大社區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市仁武區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市鳥松區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市岡山區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市橋頭區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市燕巢區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市田寮區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市阿蓮區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市路竹區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市湖內區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市茄萣區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市永安區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市彌陀區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市梓官區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市旗山區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市美濃區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市六龜區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市甲仙區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市杉林區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市內門區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市茂林區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市桃源區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市那瑪夏區公園</t>
-  </si>
-  <si>
-    <t>113年高雄市那瑪夏區橋樑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年高雄市鹽埕區公園</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>113年高雄市橋梁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2661,234 +2431,460 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>113年高雄市鹽埕區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市鼓山區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市左營區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市楠梓區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市三民區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市新興區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市前金區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市苓雅區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市前鎮區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市旗津區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市小港區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市鳳山區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市林園區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市大寮區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市大樹區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市大社區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市仁武區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市鳥松區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市岡山區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市橋頭區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市燕巢區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市田寮區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市阿蓮區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市路竹區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市湖內區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市茄萣區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市永安區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市彌陀區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市梓官區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市旗山區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市美濃區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市六龜區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市甲仙區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市杉林區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市內門區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市茂林區道路養護長度</t>
+  </si>
+  <si>
+    <t>113年高雄市桃源區道路養護長度</t>
+  </si>
+  <si>
     <t>113年高雄市那瑪夏區道路養護長度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113年高雄市鹽埕區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市鼓山區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市左營區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市楠梓區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市三民區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市新興區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市前金區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市苓雅區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市前鎮區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市旗津區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市小港區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市鳳山區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市林園區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市大寮區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市大樹區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市大社區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市仁武區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市鳥松區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市岡山區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市橋頭區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市燕巢區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市田寮區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市阿蓮區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市路竹區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市湖內區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市茄萣區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市永安區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市彌陀區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市梓官區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市旗山區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市美濃區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市六龜區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市甲仙區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市杉林區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市內門區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市茂林區道路養護面積</t>
+  </si>
+  <si>
+    <t>113年高雄市桃源區道路養護面積</t>
   </si>
   <si>
     <t>113年高雄市那瑪夏區道路養護面積</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113年鹽埕區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年鼓山區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年左營區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年楠梓區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年三民區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年新興區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年前金區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年苓雅區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年前鎮區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年旗津區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年小港區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年鳳山區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年林園區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年大寮區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年大樹區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年大社區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年仁武區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年鳥松區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年岡山區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年橋頭區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年燕巢區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年田寮區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年阿蓮區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年路竹區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年湖內區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年茄萣區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年永安區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年彌陀區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年梓官區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年旗山區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年美濃區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年六龜區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年甲仙區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年杉林區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年內門區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年茂林區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年桃源區道路養護長度高雄市</t>
-  </si>
-  <si>
-    <t>113年鹽埕區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年鼓山區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年左營區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年楠梓區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年三民區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年新興區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年前金區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年苓雅區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年前鎮區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年旗津區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年小港區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年鳳山區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年林園區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年大寮區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年大樹區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年大社區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年仁武區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年鳥松區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年岡山區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年橋頭區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年燕巢區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年田寮區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年阿蓮區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年路竹區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年湖內區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年茄萣區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年永安區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年彌陀區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年梓官區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年旗山區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年美濃區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年六龜區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年甲仙區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年杉林區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年內門區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年茂林區道路養護面積高雄市</t>
-  </si>
-  <si>
-    <t>113年桃源區道路養護面積高雄市</t>
+  </si>
+  <si>
+    <t>113年高雄市鹽埕區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市鼓山區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市左營區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市楠梓區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市三民區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市新興區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市前金區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市苓雅區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市前鎮區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市旗津區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市小港區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市鳳山區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市林園區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市大寮區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市大樹區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市大社區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市仁武區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市鳥松區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市岡山區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市橋頭區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市燕巢區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市田寮區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市阿蓮區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市路竹區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市湖內區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市茄萣區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市永安區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市彌陀區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市梓官區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市旗山區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市美濃區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市六龜區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市甲仙區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市杉林區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市內門區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市茂林區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市桃源區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市那瑪夏區橋樑座數</t>
+  </si>
+  <si>
+    <t>113年高雄市鹽埕區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市鼓山區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市左營區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市楠梓區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市三民區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市新興區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市前金區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市苓雅區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市前鎮區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市旗津區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市小港區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市鳳山區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市林園區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市大寮區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市大樹區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市大社區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市仁武區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市鳥松區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市岡山區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市橋頭區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市燕巢區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市田寮區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市阿蓮區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市路竹區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市湖內區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市茄萣區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市永安區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市彌陀區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市梓官區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市旗山區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市美濃區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市六龜區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市甲仙區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市杉林區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市內門區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市茂林區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市桃源區公園座數</t>
+  </si>
+  <si>
+    <t>113年高雄市那瑪夏區公園座數</t>
   </si>
 </sst>
 </file>
@@ -2948,18 +2944,12 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2990,7 +2980,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3004,19 +2994,22 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3134,14 +3127,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5250,7 +5235,7 @@
         <v>195</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>479</v>
+        <v>403</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>169</v>
@@ -5369,7 +5354,7 @@
         <v>195</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>480</v>
+        <v>404</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>177</v>
@@ -5488,7 +5473,7 @@
         <v>195</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>481</v>
+        <v>405</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>184</v>
@@ -5607,7 +5592,7 @@
         <v>195</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>482</v>
+        <v>406</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>168</v>
@@ -5726,7 +5711,7 @@
         <v>319</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>483</v>
+        <v>407</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>168</v>
@@ -5740,7 +5725,7 @@
         <v>319</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>484</v>
+        <v>408</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>168</v>
@@ -5754,7 +5739,7 @@
         <v>319</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>485</v>
+        <v>409</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>168</v>
@@ -5768,7 +5753,7 @@
         <v>319</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>486</v>
+        <v>410</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>168</v>
@@ -5782,7 +5767,7 @@
         <v>319</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>487</v>
+        <v>411</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>168</v>
@@ -5796,7 +5781,7 @@
         <v>319</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>488</v>
+        <v>412</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>336</v>
@@ -5810,7 +5795,7 @@
         <v>319</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>489</v>
+        <v>413</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>336</v>
@@ -5824,7 +5809,7 @@
         <v>319</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>490</v>
+        <v>414</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>336</v>
@@ -5838,7 +5823,7 @@
         <v>319</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>491</v>
+        <v>415</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>336</v>
@@ -5852,7 +5837,7 @@
         <v>319</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>492</v>
+        <v>416</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>336</v>
@@ -5866,7 +5851,7 @@
         <v>319</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>493</v>
+        <v>417</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>177</v>
@@ -5880,7 +5865,7 @@
         <v>319</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>494</v>
+        <v>418</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>177</v>
@@ -5894,7 +5879,7 @@
         <v>319</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>495</v>
+        <v>419</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>177</v>
@@ -5908,7 +5893,7 @@
         <v>319</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>496</v>
+        <v>420</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>177</v>
@@ -5922,7 +5907,7 @@
         <v>319</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>497</v>
+        <v>421</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>177</v>
@@ -5936,7 +5921,7 @@
         <v>347</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>498</v>
+        <v>422</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>336</v>
@@ -5950,7 +5935,7 @@
         <v>347</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>499</v>
+        <v>423</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>336</v>
@@ -5964,7 +5949,7 @@
         <v>347</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>500</v>
+        <v>424</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>336</v>
@@ -5978,7 +5963,7 @@
         <v>347</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>501</v>
+        <v>425</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>336</v>
@@ -5992,7 +5977,7 @@
         <v>347</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>502</v>
+        <v>426</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>336</v>
@@ -6006,7 +5991,7 @@
         <v>347</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>503</v>
+        <v>427</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>177</v>
@@ -6020,7 +6005,7 @@
         <v>347</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>504</v>
+        <v>428</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>177</v>
@@ -6034,7 +6019,7 @@
         <v>347</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>505</v>
+        <v>429</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>177</v>
@@ -6048,7 +6033,7 @@
         <v>347</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>506</v>
+        <v>430</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>177</v>
@@ -6062,7 +6047,7 @@
         <v>347</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>507</v>
+        <v>431</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>177</v>
@@ -6073,7 +6058,7 @@
     </row>
     <row r="159" spans="1:4" ht="47.25">
       <c r="B159" s="2" t="s">
-        <v>469</v>
+        <v>393</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>358</v>
@@ -6084,7 +6069,7 @@
     </row>
     <row r="160" spans="1:4" ht="47.25">
       <c r="B160" s="2" t="s">
-        <v>470</v>
+        <v>394</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>358</v>
@@ -6095,7 +6080,7 @@
     </row>
     <row r="161" spans="2:4" ht="47.25">
       <c r="B161" s="2" t="s">
-        <v>471</v>
+        <v>395</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>358</v>
@@ -6106,7 +6091,7 @@
     </row>
     <row r="162" spans="2:4" ht="47.25">
       <c r="B162" s="2" t="s">
-        <v>472</v>
+        <v>396</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>358</v>
@@ -6117,7 +6102,7 @@
     </row>
     <row r="163" spans="2:4" ht="47.25">
       <c r="B163" s="2" t="s">
-        <v>473</v>
+        <v>397</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>358</v>
@@ -6128,7 +6113,7 @@
     </row>
     <row r="164" spans="2:4" ht="47.25">
       <c r="B164" s="2" t="s">
-        <v>474</v>
+        <v>398</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>358</v>
@@ -6139,7 +6124,7 @@
     </row>
     <row r="165" spans="2:4" ht="47.25">
       <c r="B165" s="2" t="s">
-        <v>475</v>
+        <v>399</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>358</v>
@@ -6150,7 +6135,7 @@
     </row>
     <row r="166" spans="2:4" ht="47.25">
       <c r="B166" s="2" t="s">
-        <v>476</v>
+        <v>400</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>358</v>
@@ -6161,7 +6146,7 @@
     </row>
     <row r="167" spans="2:4" ht="47.25">
       <c r="B167" s="2" t="s">
-        <v>477</v>
+        <v>401</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>358</v>
@@ -6172,7 +6157,7 @@
     </row>
     <row r="168" spans="2:4" ht="47.25">
       <c r="B168" s="2" t="s">
-        <v>478</v>
+        <v>402</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>358</v>
@@ -6743,54 +6728,55 @@
   <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L73" sqref="L73"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="37.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="65.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="37.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="65.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="23" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="78.75">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>27359.08</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -6798,19 +6784,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="78.75">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>132456.67000000001</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -6818,19 +6804,19 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="78.75">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>187102.89</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -6838,19 +6824,19 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="78.75">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>280114.03000000003</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -6858,19 +6844,19 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="78.75">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>307454.23</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -6878,19 +6864,19 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="78.75">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <v>64350.1</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -6898,19 +6884,19 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="78.75">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>42969.49</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -6918,19 +6904,19 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="78.75">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>177948.55</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -6938,19 +6924,19 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="78.75">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <v>253036.14</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -6958,19 +6944,19 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="78.75">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="5">
         <v>40014.86</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -6978,19 +6964,19 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="78.75">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <v>259829.22</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -6998,19 +6984,19 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="78.75">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="8">
         <v>369878.51</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -7018,19 +7004,19 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="78.75">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="8">
         <v>124785.18</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -7038,19 +7024,19 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="78.75">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="8">
         <v>298115.13</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -7058,19 +7044,19 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="78.75">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="8">
         <v>136812.91</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -7078,19 +7064,19 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="78.75">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="8">
         <v>97062.97</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -7098,19 +7084,19 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="78.75">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="8">
         <v>369892.73</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -7118,19 +7104,19 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="78.75">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="8">
         <v>141350.96</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -7138,19 +7124,19 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="78.75">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="8">
         <v>232597.84</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -7158,19 +7144,19 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="78.75">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="8">
         <v>131506.99</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -7178,19 +7164,19 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="78.75">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="5">
         <v>192481.8</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -7198,19 +7184,19 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="78.75">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="5">
         <v>93845.42</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -7218,19 +7204,19 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="78.75">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="8">
         <v>96775.27</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -7238,19 +7224,19 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="78.75">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="8">
         <v>116109.34</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -7258,19 +7244,19 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="78.75">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="8">
         <v>80072.36</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -7278,19 +7264,19 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="78.75">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="8">
         <v>84237.9</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -7298,19 +7284,19 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="78.75">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="8">
         <v>63453.91</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -7318,19 +7304,19 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="78.75">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="5">
         <v>46595.03</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -7338,19 +7324,19 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="78.75">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="5">
         <v>50032.81</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -7358,19 +7344,19 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="78.75">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="5">
         <v>146024.35999999999</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -7378,19 +7364,19 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="78.75">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="5">
         <v>242363.35</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -7398,19 +7384,19 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="78.75">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="5">
         <v>92834.5</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -7418,19 +7404,19 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="78.75">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="5">
         <v>56363.71</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -7438,19 +7424,19 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="78.75">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="5">
         <v>82863.899999999994</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -7458,19 +7444,19 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="78.75">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="5">
         <v>105500.6</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -7478,19 +7464,19 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="78.75">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="5">
         <v>36604.050000000003</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -7498,19 +7484,19 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="78.75">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="5">
         <v>29319.200000000001</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -7518,19 +7504,19 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="78.75">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="5">
         <v>33824.22</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -7538,19 +7524,19 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="78.75">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="5">
         <v>375919.75</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -7558,19 +7544,19 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="78.75">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="5">
         <v>1935469.69</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -7578,19 +7564,19 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="78.75">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="5">
         <v>2715155.81</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -7598,19 +7584,19 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="78.75">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="5">
         <v>3850054.2</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -7618,19 +7604,19 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="78.75">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="B44" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="5">
         <v>4050514.47</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -7638,19 +7624,19 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="78.75">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="5">
         <v>910958.68</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -7658,19 +7644,19 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="78.75">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="B46" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="5">
         <v>705290.67</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -7678,19 +7664,19 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="78.75">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="B47" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="5">
         <v>2615309.89</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -7698,19 +7684,19 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="78.75">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="B48" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="5">
         <v>3811752.32</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -7718,19 +7704,19 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="78.75">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="B49" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="5">
         <v>454314.16</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -7738,19 +7724,19 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="78.75">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="B50" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="5">
         <v>3689834.98</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -7758,19 +7744,19 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="78.75">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="B51" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="8">
         <v>4270707.3600000003</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -7778,19 +7764,19 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="78.75">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="B52" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="8">
         <v>1207929.27</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -7798,19 +7784,19 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="78.75">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="B53" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="8">
         <v>3212617.66</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -7818,19 +7804,19 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="78.75">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="B54" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="8">
         <v>1290761.6100000001</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -7838,19 +7824,19 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="78.75">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="B55" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="8">
         <v>1054282.19</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -7858,19 +7844,19 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="78.75">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="B56" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="8">
         <v>3772180.81</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -7878,19 +7864,19 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="78.75">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="8">
         <v>1579055.71</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -7898,19 +7884,19 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="78.75">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="B58" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="8">
         <v>2756089.22</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -7918,19 +7904,19 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="78.75">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="B59" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="8">
         <v>1510823.05</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -7938,19 +7924,19 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="78.75">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="B60" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="5">
         <v>2040507.44</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -7958,19 +7944,19 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="78.75">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="B61" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="5">
         <v>795814.44</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -7978,19 +7964,19 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="78.75">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="B62" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="8">
         <v>844101.15</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -7998,19 +7984,19 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="78.75">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="B63" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="8">
         <v>1321621.3799999999</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -8018,19 +8004,19 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="78.75">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="B64" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="8">
         <v>729968.48</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -8038,19 +8024,19 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="78.75">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="C65" s="2" t="s">
+      <c r="B65" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="8">
         <v>1042886.36</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -8058,19 +8044,19 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="78.75">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="B66" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="8">
         <v>648911.34</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -8078,19 +8064,19 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="78.75">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="B67" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="5">
         <v>443229.4</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -8098,19 +8084,19 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="78.75">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="B68" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="5">
         <v>496439.82</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -8118,19 +8104,19 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="78.75">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="C69" s="2" t="s">
+      <c r="B69" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="5">
         <v>1230858.6499999999</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -8138,19 +8124,19 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="78.75">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="B70" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="5">
         <v>2045953.92</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F70" s="1" t="s">
@@ -8158,19 +8144,19 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="78.75">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="B71" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="5">
         <v>752230.89</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F71" s="1" t="s">
@@ -8178,19 +8164,19 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="78.75">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="B72" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="5">
         <v>436839.61</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F72" s="1" t="s">
@@ -8198,19 +8184,19 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="78.75">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="B73" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="5">
         <v>630721.53</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F73" s="1" t="s">
@@ -8218,19 +8204,19 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="78.75">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="C74" s="2" t="s">
+      <c r="B74" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="5">
         <v>842559.4</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F74" s="1" t="s">
@@ -8238,19 +8224,19 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="78.75">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="C75" s="2" t="s">
+      <c r="B75" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="5">
         <v>274790.43</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F75" s="1" t="s">
@@ -8258,19 +8244,19 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="78.75">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="C76" s="2" t="s">
+      <c r="B76" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="5">
         <v>225014.51</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F76" s="1" t="s">
@@ -8278,29 +8264,28 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="78.75">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="C77" s="2" t="s">
+      <c r="B77" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="5">
         <v>270574.90000000002</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A78" s="5"/>
+    <row r="78" spans="1:6" ht="78.75">
       <c r="B78" s="5" t="s">
-        <v>393</v>
+        <v>508</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>358</v>
@@ -8311,14 +8296,13 @@
       <c r="E78" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="F78" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A79" s="5"/>
+    <row r="79" spans="1:6" ht="78.75">
       <c r="B79" s="5" t="s">
-        <v>394</v>
+        <v>509</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>358</v>
@@ -8329,14 +8313,13 @@
       <c r="E79" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="F79" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A80" s="5"/>
+    <row r="80" spans="1:6" ht="78.75">
       <c r="B80" s="5" t="s">
-        <v>395</v>
+        <v>510</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>358</v>
@@ -8347,14 +8330,13 @@
       <c r="E80" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F80" s="6" t="s">
+      <c r="F80" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A81" s="5"/>
+    <row r="81" spans="2:6" ht="78.75">
       <c r="B81" s="5" t="s">
-        <v>396</v>
+        <v>511</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>358</v>
@@ -8365,14 +8347,13 @@
       <c r="E81" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F81" s="6" t="s">
+      <c r="F81" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A82" s="5"/>
+    <row r="82" spans="2:6" ht="78.75">
       <c r="B82" s="5" t="s">
-        <v>397</v>
+        <v>512</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>358</v>
@@ -8383,14 +8364,13 @@
       <c r="E82" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F82" s="6" t="s">
+      <c r="F82" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A83" s="5"/>
+    <row r="83" spans="2:6" ht="78.75">
       <c r="B83" s="5" t="s">
-        <v>398</v>
+        <v>513</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>358</v>
@@ -8401,14 +8381,13 @@
       <c r="E83" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="F83" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A84" s="5"/>
+    <row r="84" spans="2:6" ht="78.75">
       <c r="B84" s="5" t="s">
-        <v>399</v>
+        <v>514</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>358</v>
@@ -8419,14 +8398,13 @@
       <c r="E84" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="F84" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A85" s="5"/>
+    <row r="85" spans="2:6" ht="78.75">
       <c r="B85" s="5" t="s">
-        <v>400</v>
+        <v>515</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>358</v>
@@ -8437,14 +8415,13 @@
       <c r="E85" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="F85" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A86" s="5"/>
+    <row r="86" spans="2:6" ht="78.75">
       <c r="B86" s="5" t="s">
-        <v>401</v>
+        <v>516</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>358</v>
@@ -8455,14 +8432,13 @@
       <c r="E86" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="F86" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A87" s="5"/>
+    <row r="87" spans="2:6" ht="78.75">
       <c r="B87" s="5" t="s">
-        <v>402</v>
+        <v>517</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>358</v>
@@ -8473,14 +8449,13 @@
       <c r="E87" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F87" s="6" t="s">
+      <c r="F87" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A88" s="5"/>
+    <row r="88" spans="2:6" ht="78.75">
       <c r="B88" s="5" t="s">
-        <v>403</v>
+        <v>518</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>358</v>
@@ -8491,14 +8466,13 @@
       <c r="E88" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="F88" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A89" s="5"/>
+    <row r="89" spans="2:6" ht="78.75">
       <c r="B89" s="5" t="s">
-        <v>404</v>
+        <v>519</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>358</v>
@@ -8509,14 +8483,13 @@
       <c r="E89" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="F89" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A90" s="5"/>
+    <row r="90" spans="2:6" ht="78.75">
       <c r="B90" s="5" t="s">
-        <v>405</v>
+        <v>520</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>358</v>
@@ -8527,14 +8500,13 @@
       <c r="E90" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="F90" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A91" s="5"/>
+    <row r="91" spans="2:6" ht="78.75">
       <c r="B91" s="5" t="s">
-        <v>406</v>
+        <v>521</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>358</v>
@@ -8545,14 +8517,13 @@
       <c r="E91" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="F91" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A92" s="5"/>
+    <row r="92" spans="2:6" ht="78.75">
       <c r="B92" s="5" t="s">
-        <v>407</v>
+        <v>522</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>358</v>
@@ -8563,14 +8534,13 @@
       <c r="E92" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F92" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A93" s="5"/>
+    <row r="93" spans="2:6" ht="78.75">
       <c r="B93" s="5" t="s">
-        <v>408</v>
+        <v>523</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>358</v>
@@ -8581,14 +8551,13 @@
       <c r="E93" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F93" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A94" s="5"/>
+    <row r="94" spans="2:6" ht="78.75">
       <c r="B94" s="5" t="s">
-        <v>409</v>
+        <v>524</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>358</v>
@@ -8599,14 +8568,13 @@
       <c r="E94" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F94" s="6" t="s">
+      <c r="F94" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A95" s="5"/>
+    <row r="95" spans="2:6" ht="78.75">
       <c r="B95" s="5" t="s">
-        <v>410</v>
+        <v>525</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>358</v>
@@ -8617,14 +8585,13 @@
       <c r="E95" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F95" s="6" t="s">
+      <c r="F95" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A96" s="5"/>
+    <row r="96" spans="2:6" ht="78.75">
       <c r="B96" s="5" t="s">
-        <v>411</v>
+        <v>526</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>358</v>
@@ -8635,14 +8602,13 @@
       <c r="E96" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F96" s="6" t="s">
+      <c r="F96" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A97" s="5"/>
+    <row r="97" spans="2:6" ht="78.75">
       <c r="B97" s="5" t="s">
-        <v>412</v>
+        <v>527</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>358</v>
@@ -8653,14 +8619,13 @@
       <c r="E97" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="F97" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A98" s="5"/>
+    <row r="98" spans="2:6" ht="78.75">
       <c r="B98" s="5" t="s">
-        <v>413</v>
+        <v>528</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>358</v>
@@ -8671,14 +8636,13 @@
       <c r="E98" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="F98" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A99" s="5"/>
+    <row r="99" spans="2:6" ht="78.75">
       <c r="B99" s="5" t="s">
-        <v>414</v>
+        <v>529</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>358</v>
@@ -8689,14 +8653,13 @@
       <c r="E99" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F99" s="6" t="s">
+      <c r="F99" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A100" s="5"/>
+    <row r="100" spans="2:6" ht="78.75">
       <c r="B100" s="5" t="s">
-        <v>415</v>
+        <v>530</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>358</v>
@@ -8707,14 +8670,13 @@
       <c r="E100" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="F100" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A101" s="5"/>
+    <row r="101" spans="2:6" ht="78.75">
       <c r="B101" s="5" t="s">
-        <v>416</v>
+        <v>531</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>358</v>
@@ -8725,14 +8687,13 @@
       <c r="E101" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="F101" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A102" s="5"/>
+    <row r="102" spans="2:6" ht="78.75">
       <c r="B102" s="5" t="s">
-        <v>417</v>
+        <v>532</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>358</v>
@@ -8743,14 +8704,13 @@
       <c r="E102" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="F102" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A103" s="5"/>
+    <row r="103" spans="2:6" ht="78.75">
       <c r="B103" s="5" t="s">
-        <v>418</v>
+        <v>533</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>358</v>
@@ -8761,14 +8721,13 @@
       <c r="E103" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F103" s="6" t="s">
+      <c r="F103" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A104" s="5"/>
+    <row r="104" spans="2:6" ht="78.75">
       <c r="B104" s="5" t="s">
-        <v>419</v>
+        <v>534</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>358</v>
@@ -8779,14 +8738,13 @@
       <c r="E104" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="F104" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A105" s="5"/>
+    <row r="105" spans="2:6" ht="78.75">
       <c r="B105" s="5" t="s">
-        <v>420</v>
+        <v>535</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>358</v>
@@ -8797,14 +8755,13 @@
       <c r="E105" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F105" s="6" t="s">
+      <c r="F105" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A106" s="5"/>
+    <row r="106" spans="2:6" ht="78.75">
       <c r="B106" s="5" t="s">
-        <v>421</v>
+        <v>536</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>358</v>
@@ -8815,14 +8772,13 @@
       <c r="E106" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="F106" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A107" s="5"/>
+    <row r="107" spans="2:6" ht="78.75">
       <c r="B107" s="5" t="s">
-        <v>422</v>
+        <v>537</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>358</v>
@@ -8833,14 +8789,13 @@
       <c r="E107" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F107" s="6" t="s">
+      <c r="F107" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A108" s="5"/>
+    <row r="108" spans="2:6" ht="78.75">
       <c r="B108" s="5" t="s">
-        <v>423</v>
+        <v>538</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>358</v>
@@ -8851,14 +8806,13 @@
       <c r="E108" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F108" s="6" t="s">
+      <c r="F108" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A109" s="5"/>
+    <row r="109" spans="2:6" ht="78.75">
       <c r="B109" s="5" t="s">
-        <v>424</v>
+        <v>539</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>358</v>
@@ -8869,14 +8823,13 @@
       <c r="E109" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="F109" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A110" s="5"/>
+    <row r="110" spans="2:6" ht="78.75">
       <c r="B110" s="5" t="s">
-        <v>425</v>
+        <v>540</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>358</v>
@@ -8887,14 +8840,13 @@
       <c r="E110" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F110" s="6" t="s">
+      <c r="F110" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A111" s="5"/>
+    <row r="111" spans="2:6" ht="78.75">
       <c r="B111" s="5" t="s">
-        <v>426</v>
+        <v>541</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>358</v>
@@ -8905,14 +8857,13 @@
       <c r="E111" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F111" s="6" t="s">
+      <c r="F111" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A112" s="5"/>
+    <row r="112" spans="2:6" ht="78.75">
       <c r="B112" s="5" t="s">
-        <v>427</v>
+        <v>542</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>358</v>
@@ -8923,14 +8874,13 @@
       <c r="E112" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F112" s="6" t="s">
+      <c r="F112" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A113" s="5"/>
+    <row r="113" spans="2:6" ht="78.75">
       <c r="B113" s="5" t="s">
-        <v>428</v>
+        <v>543</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>358</v>
@@ -8941,14 +8891,13 @@
       <c r="E113" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F113" s="6" t="s">
+      <c r="F113" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A114" s="5"/>
+    <row r="114" spans="2:6" ht="78.75">
       <c r="B114" s="5" t="s">
-        <v>429</v>
+        <v>544</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>358</v>
@@ -8959,14 +8908,13 @@
       <c r="E114" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F114" s="6" t="s">
+      <c r="F114" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="115" spans="1:6" s="7" customFormat="1" ht="78.75">
-      <c r="A115" s="5"/>
+    <row r="115" spans="2:6" ht="78.75">
       <c r="B115" s="5" t="s">
-        <v>467</v>
+        <v>545</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>358</v>
@@ -8977,14 +8925,13 @@
       <c r="E115" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F115" s="6" t="s">
+      <c r="F115" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="7" customFormat="1">
-      <c r="A116" s="5"/>
+    <row r="116" spans="2:6">
       <c r="B116" s="5" t="s">
-        <v>468</v>
+        <v>546</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>358</v>
@@ -8995,12 +8942,10 @@
       <c r="E116" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F116" s="5"/>
-    </row>
-    <row r="117" spans="1:6" s="7" customFormat="1">
-      <c r="A117" s="5"/>
+    </row>
+    <row r="117" spans="2:6">
       <c r="B117" s="5" t="s">
-        <v>430</v>
+        <v>547</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>358</v>
@@ -9011,12 +8956,10 @@
       <c r="E117" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F117" s="5"/>
-    </row>
-    <row r="118" spans="1:6" s="7" customFormat="1">
-      <c r="A118" s="5"/>
+    </row>
+    <row r="118" spans="2:6">
       <c r="B118" s="5" t="s">
-        <v>431</v>
+        <v>548</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>358</v>
@@ -9027,12 +8970,10 @@
       <c r="E118" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F118" s="5"/>
-    </row>
-    <row r="119" spans="1:6" s="7" customFormat="1">
-      <c r="A119" s="5"/>
+    </row>
+    <row r="119" spans="2:6">
       <c r="B119" s="5" t="s">
-        <v>432</v>
+        <v>549</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>358</v>
@@ -9043,12 +8984,10 @@
       <c r="E119" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F119" s="5"/>
-    </row>
-    <row r="120" spans="1:6" s="7" customFormat="1">
-      <c r="A120" s="5"/>
+    </row>
+    <row r="120" spans="2:6">
       <c r="B120" s="5" t="s">
-        <v>433</v>
+        <v>550</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>358</v>
@@ -9059,12 +8998,10 @@
       <c r="E120" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F120" s="5"/>
-    </row>
-    <row r="121" spans="1:6" s="7" customFormat="1">
-      <c r="A121" s="5"/>
+    </row>
+    <row r="121" spans="2:6">
       <c r="B121" s="5" t="s">
-        <v>434</v>
+        <v>551</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>358</v>
@@ -9075,12 +9012,10 @@
       <c r="E121" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F121" s="5"/>
-    </row>
-    <row r="122" spans="1:6" s="7" customFormat="1">
-      <c r="A122" s="5"/>
+    </row>
+    <row r="122" spans="2:6">
       <c r="B122" s="5" t="s">
-        <v>435</v>
+        <v>552</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>358</v>
@@ -9091,12 +9026,10 @@
       <c r="E122" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F122" s="5"/>
-    </row>
-    <row r="123" spans="1:6" s="7" customFormat="1">
-      <c r="A123" s="5"/>
+    </row>
+    <row r="123" spans="2:6">
       <c r="B123" s="5" t="s">
-        <v>436</v>
+        <v>553</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>358</v>
@@ -9107,12 +9040,10 @@
       <c r="E123" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F123" s="5"/>
-    </row>
-    <row r="124" spans="1:6" s="7" customFormat="1">
-      <c r="A124" s="5"/>
+    </row>
+    <row r="124" spans="2:6">
       <c r="B124" s="5" t="s">
-        <v>437</v>
+        <v>554</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>358</v>
@@ -9123,12 +9054,10 @@
       <c r="E124" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F124" s="5"/>
-    </row>
-    <row r="125" spans="1:6" s="7" customFormat="1">
-      <c r="A125" s="5"/>
+    </row>
+    <row r="125" spans="2:6">
       <c r="B125" s="5" t="s">
-        <v>438</v>
+        <v>555</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>358</v>
@@ -9139,12 +9068,10 @@
       <c r="E125" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F125" s="5"/>
-    </row>
-    <row r="126" spans="1:6" s="7" customFormat="1">
-      <c r="A126" s="5"/>
+    </row>
+    <row r="126" spans="2:6">
       <c r="B126" s="5" t="s">
-        <v>439</v>
+        <v>556</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>358</v>
@@ -9155,12 +9082,10 @@
       <c r="E126" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F126" s="5"/>
-    </row>
-    <row r="127" spans="1:6" s="7" customFormat="1">
-      <c r="A127" s="5"/>
+    </row>
+    <row r="127" spans="2:6">
       <c r="B127" s="5" t="s">
-        <v>440</v>
+        <v>557</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>358</v>
@@ -9171,12 +9096,10 @@
       <c r="E127" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F127" s="5"/>
-    </row>
-    <row r="128" spans="1:6" s="7" customFormat="1">
-      <c r="A128" s="5"/>
+    </row>
+    <row r="128" spans="2:6">
       <c r="B128" s="5" t="s">
-        <v>441</v>
+        <v>558</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>358</v>
@@ -9187,12 +9110,10 @@
       <c r="E128" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F128" s="5"/>
-    </row>
-    <row r="129" spans="1:6" s="7" customFormat="1">
-      <c r="A129" s="5"/>
+    </row>
+    <row r="129" spans="2:5">
       <c r="B129" s="5" t="s">
-        <v>442</v>
+        <v>559</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>358</v>
@@ -9203,12 +9124,10 @@
       <c r="E129" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F129" s="5"/>
-    </row>
-    <row r="130" spans="1:6" s="7" customFormat="1">
-      <c r="A130" s="5"/>
+    </row>
+    <row r="130" spans="2:5">
       <c r="B130" s="5" t="s">
-        <v>443</v>
+        <v>560</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>358</v>
@@ -9219,12 +9138,10 @@
       <c r="E130" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F130" s="5"/>
-    </row>
-    <row r="131" spans="1:6" s="7" customFormat="1">
-      <c r="A131" s="5"/>
+    </row>
+    <row r="131" spans="2:5">
       <c r="B131" s="5" t="s">
-        <v>444</v>
+        <v>561</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>358</v>
@@ -9235,12 +9152,10 @@
       <c r="E131" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F131" s="5"/>
-    </row>
-    <row r="132" spans="1:6" s="7" customFormat="1">
-      <c r="A132" s="5"/>
+    </row>
+    <row r="132" spans="2:5">
       <c r="B132" s="5" t="s">
-        <v>445</v>
+        <v>562</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>358</v>
@@ -9251,12 +9166,10 @@
       <c r="E132" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F132" s="5"/>
-    </row>
-    <row r="133" spans="1:6" s="7" customFormat="1">
-      <c r="A133" s="5"/>
+    </row>
+    <row r="133" spans="2:5">
       <c r="B133" s="5" t="s">
-        <v>446</v>
+        <v>563</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>358</v>
@@ -9267,12 +9180,10 @@
       <c r="E133" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F133" s="5"/>
-    </row>
-    <row r="134" spans="1:6" s="7" customFormat="1">
-      <c r="A134" s="5"/>
+    </row>
+    <row r="134" spans="2:5">
       <c r="B134" s="5" t="s">
-        <v>447</v>
+        <v>564</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>358</v>
@@ -9283,12 +9194,10 @@
       <c r="E134" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F134" s="5"/>
-    </row>
-    <row r="135" spans="1:6" s="7" customFormat="1">
-      <c r="A135" s="5"/>
+    </row>
+    <row r="135" spans="2:5">
       <c r="B135" s="5" t="s">
-        <v>448</v>
+        <v>565</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>358</v>
@@ -9299,12 +9208,10 @@
       <c r="E135" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F135" s="5"/>
-    </row>
-    <row r="136" spans="1:6" s="7" customFormat="1">
-      <c r="A136" s="5"/>
+    </row>
+    <row r="136" spans="2:5">
       <c r="B136" s="5" t="s">
-        <v>449</v>
+        <v>566</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>358</v>
@@ -9315,12 +9222,10 @@
       <c r="E136" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F136" s="5"/>
-    </row>
-    <row r="137" spans="1:6" s="7" customFormat="1">
-      <c r="A137" s="5"/>
+    </row>
+    <row r="137" spans="2:5">
       <c r="B137" s="5" t="s">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>358</v>
@@ -9331,12 +9236,10 @@
       <c r="E137" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F137" s="5"/>
-    </row>
-    <row r="138" spans="1:6" s="7" customFormat="1">
-      <c r="A138" s="5"/>
+    </row>
+    <row r="138" spans="2:5">
       <c r="B138" s="5" t="s">
-        <v>451</v>
+        <v>568</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>358</v>
@@ -9347,12 +9250,10 @@
       <c r="E138" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F138" s="5"/>
-    </row>
-    <row r="139" spans="1:6" s="7" customFormat="1">
-      <c r="A139" s="5"/>
+    </row>
+    <row r="139" spans="2:5">
       <c r="B139" s="5" t="s">
-        <v>452</v>
+        <v>569</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>358</v>
@@ -9363,12 +9264,10 @@
       <c r="E139" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F139" s="5"/>
-    </row>
-    <row r="140" spans="1:6" s="7" customFormat="1">
-      <c r="A140" s="5"/>
+    </row>
+    <row r="140" spans="2:5">
       <c r="B140" s="5" t="s">
-        <v>453</v>
+        <v>570</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>358</v>
@@ -9379,12 +9278,10 @@
       <c r="E140" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F140" s="5"/>
-    </row>
-    <row r="141" spans="1:6" s="7" customFormat="1">
-      <c r="A141" s="5"/>
+    </row>
+    <row r="141" spans="2:5">
       <c r="B141" s="5" t="s">
-        <v>454</v>
+        <v>571</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>358</v>
@@ -9395,12 +9292,10 @@
       <c r="E141" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F141" s="5"/>
-    </row>
-    <row r="142" spans="1:6" s="7" customFormat="1">
-      <c r="A142" s="5"/>
+    </row>
+    <row r="142" spans="2:5">
       <c r="B142" s="5" t="s">
-        <v>455</v>
+        <v>572</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>358</v>
@@ -9411,12 +9306,10 @@
       <c r="E142" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F142" s="5"/>
-    </row>
-    <row r="143" spans="1:6" s="7" customFormat="1">
-      <c r="A143" s="5"/>
+    </row>
+    <row r="143" spans="2:5">
       <c r="B143" s="5" t="s">
-        <v>456</v>
+        <v>573</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>358</v>
@@ -9427,12 +9320,10 @@
       <c r="E143" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F143" s="5"/>
-    </row>
-    <row r="144" spans="1:6" s="7" customFormat="1">
-      <c r="A144" s="5"/>
+    </row>
+    <row r="144" spans="2:5">
       <c r="B144" s="5" t="s">
-        <v>457</v>
+        <v>574</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>358</v>
@@ -9443,12 +9334,10 @@
       <c r="E144" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F144" s="5"/>
-    </row>
-    <row r="145" spans="1:6" s="7" customFormat="1">
-      <c r="A145" s="5"/>
+    </row>
+    <row r="145" spans="2:5">
       <c r="B145" s="5" t="s">
-        <v>458</v>
+        <v>575</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>358</v>
@@ -9459,12 +9348,10 @@
       <c r="E145" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F145" s="5"/>
-    </row>
-    <row r="146" spans="1:6" s="7" customFormat="1">
-      <c r="A146" s="5"/>
+    </row>
+    <row r="146" spans="2:5">
       <c r="B146" s="5" t="s">
-        <v>459</v>
+        <v>576</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>358</v>
@@ -9475,12 +9362,10 @@
       <c r="E146" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F146" s="5"/>
-    </row>
-    <row r="147" spans="1:6" s="7" customFormat="1">
-      <c r="A147" s="5"/>
+    </row>
+    <row r="147" spans="2:5">
       <c r="B147" s="5" t="s">
-        <v>460</v>
+        <v>577</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>358</v>
@@ -9491,12 +9376,10 @@
       <c r="E147" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F147" s="5"/>
-    </row>
-    <row r="148" spans="1:6" s="7" customFormat="1">
-      <c r="A148" s="5"/>
+    </row>
+    <row r="148" spans="2:5">
       <c r="B148" s="5" t="s">
-        <v>461</v>
+        <v>578</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>358</v>
@@ -9507,12 +9390,10 @@
       <c r="E148" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F148" s="5"/>
-    </row>
-    <row r="149" spans="1:6" s="7" customFormat="1">
-      <c r="A149" s="5"/>
+    </row>
+    <row r="149" spans="2:5">
       <c r="B149" s="5" t="s">
-        <v>462</v>
+        <v>579</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>358</v>
@@ -9523,12 +9404,10 @@
       <c r="E149" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F149" s="5"/>
-    </row>
-    <row r="150" spans="1:6" s="7" customFormat="1">
-      <c r="A150" s="5"/>
+    </row>
+    <row r="150" spans="2:5">
       <c r="B150" s="5" t="s">
-        <v>463</v>
+        <v>580</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>358</v>
@@ -9539,12 +9418,10 @@
       <c r="E150" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F150" s="5"/>
-    </row>
-    <row r="151" spans="1:6" s="7" customFormat="1">
-      <c r="A151" s="5"/>
+    </row>
+    <row r="151" spans="2:5">
       <c r="B151" s="5" t="s">
-        <v>464</v>
+        <v>581</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>358</v>
@@ -9555,12 +9432,10 @@
       <c r="E151" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F151" s="5"/>
-    </row>
-    <row r="152" spans="1:6" s="7" customFormat="1">
-      <c r="A152" s="5"/>
+    </row>
+    <row r="152" spans="2:5">
       <c r="B152" s="5" t="s">
-        <v>465</v>
+        <v>582</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>358</v>
@@ -9571,12 +9446,10 @@
       <c r="E152" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F152" s="5"/>
-    </row>
-    <row r="153" spans="1:6" s="7" customFormat="1">
-      <c r="A153" s="5"/>
+    </row>
+    <row r="153" spans="2:5">
       <c r="B153" s="5" t="s">
-        <v>466</v>
+        <v>583</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>358</v>
@@ -9587,16 +9460,15 @@
       <c r="E153" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F153" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B1 B78:B1048576">
+  <conditionalFormatting sqref="B1 B154:B1048576">
     <cfRule type="duplicateValues" dxfId="5" priority="4"/>
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
     <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B77">
+  <conditionalFormatting sqref="B2:B153">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
